--- a/import/raw_data/e3m/e3m_parameters_updated.xlsx
+++ b/import/raw_data/e3m/e3m_parameters_updated.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bef\GitHub\micat\import\raw_data\e3m\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2129AC5A-B344-41C0-9858-ECCCCF629378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D10C19-A194-46BF-BE51-B7F2B50548A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="61656" windowHeight="16776" xr2:uid="{E80F4F0D-6B9D-41E0-871C-47C088F64B64}"/>
+    <workbookView xWindow="2856" yWindow="2856" windowWidth="46080" windowHeight="12072" xr2:uid="{E80F4F0D-6B9D-41E0-871C-47C088F64B64}"/>
   </bookViews>
   <sheets>
     <sheet name="e3m_parameters_v2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">e3m_parameters_v2!$A$1:$D$785</definedName>
   </definedNames>
@@ -107,3562 +104,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="e3m_parameters"/>
-      <sheetName val="e3m_parameters_v2"/>
-      <sheetName val="data"/>
-      <sheetName val="Sectoraldemand_Assumption"/>
-      <sheetName val="mapping"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>**not available data in eurostat database</v>
-          </cell>
-          <cell r="C2">
-            <v>1</v>
-          </cell>
-          <cell r="D2">
-            <v>2</v>
-          </cell>
-          <cell r="E2">
-            <v>3</v>
-          </cell>
-          <cell r="F2">
-            <v>4</v>
-          </cell>
-          <cell r="G2">
-            <v>5</v>
-          </cell>
-          <cell r="H2">
-            <v>6</v>
-          </cell>
-          <cell r="I2">
-            <v>7</v>
-          </cell>
-          <cell r="J2">
-            <v>8</v>
-          </cell>
-          <cell r="K2">
-            <v>9</v>
-          </cell>
-          <cell r="L2">
-            <v>10</v>
-          </cell>
-          <cell r="M2">
-            <v>11</v>
-          </cell>
-          <cell r="N2">
-            <v>12</v>
-          </cell>
-          <cell r="O2">
-            <v>13</v>
-          </cell>
-          <cell r="P2">
-            <v>14</v>
-          </cell>
-          <cell r="Q2">
-            <v>15</v>
-          </cell>
-          <cell r="R2">
-            <v>16</v>
-          </cell>
-          <cell r="S2">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>id</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>GDP</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>Building envelope</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>Heating fuel switch</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Energy-efficient heating</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>Electric appliances</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>Cooking and water heating</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>Behavioural changes</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>Behavioural changes</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v>Cross-cutting technologies</v>
-          </cell>
-          <cell r="K3" t="str">
-            <v>Process change</v>
-          </cell>
-          <cell r="L3" t="str">
-            <v>Fuel switch</v>
-          </cell>
-          <cell r="M3" t="str">
-            <v>Process-specific savings</v>
-          </cell>
-          <cell r="N3" t="str">
-            <v>Space heating and cooling</v>
-          </cell>
-          <cell r="O3" t="str">
-            <v>Consumption reduction</v>
-          </cell>
-          <cell r="P3" t="str">
-            <v>Modal shift</v>
-          </cell>
-          <cell r="Q3" t="str">
-            <v>Behavioural changes</v>
-          </cell>
-          <cell r="R3" t="str">
-            <v>Emission thresholds</v>
-          </cell>
-          <cell r="S3" t="str">
-            <v>Fuel switch</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>1</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>AT</v>
-          </cell>
-          <cell r="C4">
-            <v>0.65735720858421387</v>
-          </cell>
-          <cell r="D4">
-            <v>0.51955055534976835</v>
-          </cell>
-          <cell r="E4">
-            <v>0.5268756615452469</v>
-          </cell>
-          <cell r="F4">
-            <v>0.44760549293547663</v>
-          </cell>
-          <cell r="G4">
-            <v>0.5268756615452469</v>
-          </cell>
-          <cell r="H4">
-            <v>0.69620979353877788</v>
-          </cell>
-          <cell r="I4">
-            <v>0.56173180539043677</v>
-          </cell>
-          <cell r="J4">
-            <v>0.59207135131026989</v>
-          </cell>
-          <cell r="K4">
-            <v>0.35963232284945962</v>
-          </cell>
-          <cell r="L4">
-            <v>0.54100077301055149</v>
-          </cell>
-          <cell r="M4">
-            <v>0.52808846286800859</v>
-          </cell>
-          <cell r="N4">
-            <v>0.52591529239737211</v>
-          </cell>
-          <cell r="O4">
-            <v>0.4996726565271013</v>
-          </cell>
-          <cell r="P4">
-            <v>0.41427816990151578</v>
-          </cell>
-          <cell r="Q4">
-            <v>0.54255173255366096</v>
-          </cell>
-          <cell r="R4">
-            <v>0.50315829314870142</v>
-          </cell>
-          <cell r="S4">
-            <v>0.35462449090414999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>2</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>BE</v>
-          </cell>
-          <cell r="C5">
-            <v>0.55814019265076453</v>
-          </cell>
-          <cell r="D5">
-            <v>0.39522349284335712</v>
-          </cell>
-          <cell r="E5">
-            <v>0.41077789765580808</v>
-          </cell>
-          <cell r="F5">
-            <v>0.30754824893966554</v>
-          </cell>
-          <cell r="G5">
-            <v>0.41077789765580808</v>
-          </cell>
-          <cell r="H5">
-            <v>0.68041742732500055</v>
-          </cell>
-          <cell r="I5">
-            <v>0.44925316878584132</v>
-          </cell>
-          <cell r="J5">
-            <v>0.43827236219860399</v>
-          </cell>
-          <cell r="K5">
-            <v>0.29735158697517777</v>
-          </cell>
-          <cell r="L5">
-            <v>0.4164800670710746</v>
-          </cell>
-          <cell r="M5">
-            <v>0.40391364293542675</v>
-          </cell>
-          <cell r="N5">
-            <v>0.40130518600928894</v>
-          </cell>
-          <cell r="O5">
-            <v>0.38394401772463921</v>
-          </cell>
-          <cell r="P5">
-            <v>0.33457930419237181</v>
-          </cell>
-          <cell r="Q5">
-            <v>0.47246692384365829</v>
-          </cell>
-          <cell r="R5">
-            <v>0.39722935667779952</v>
-          </cell>
-          <cell r="S5">
-            <v>0.22526826226095348</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>27</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>BG</v>
-          </cell>
-          <cell r="C6">
-            <v>0.58817510336741941</v>
-          </cell>
-          <cell r="D6">
-            <v>0.42411306061975007</v>
-          </cell>
-          <cell r="E6">
-            <v>0.43083852679632129</v>
-          </cell>
-          <cell r="F6">
-            <v>0.40510119664772548</v>
-          </cell>
-          <cell r="G6">
-            <v>0.43083852679632129</v>
-          </cell>
-          <cell r="H6">
-            <v>0.75926195675947072</v>
-          </cell>
-          <cell r="I6">
-            <v>0.4529382304496925</v>
-          </cell>
-          <cell r="J6">
-            <v>0.50635208736185144</v>
-          </cell>
-          <cell r="K6">
-            <v>0.28563970719370418</v>
-          </cell>
-          <cell r="L6">
-            <v>0.44264125163372642</v>
-          </cell>
-          <cell r="M6">
-            <v>0.42794786988116312</v>
-          </cell>
-          <cell r="N6">
-            <v>0.43621522475977309</v>
-          </cell>
-          <cell r="O6">
-            <v>0.35551713483447239</v>
-          </cell>
-          <cell r="P6">
-            <v>0.40612339525334296</v>
-          </cell>
-          <cell r="Q6">
-            <v>0.57233209132985352</v>
-          </cell>
-          <cell r="R6">
-            <v>0.562287142028006</v>
-          </cell>
-          <cell r="S6">
-            <v>0.17969675040849464</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>11</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>HR</v>
-          </cell>
-          <cell r="C7">
-            <v>0.58817510336741941</v>
-          </cell>
-          <cell r="D7">
-            <v>0.42411306061975007</v>
-          </cell>
-          <cell r="E7">
-            <v>0.43083852679632129</v>
-          </cell>
-          <cell r="F7">
-            <v>0.40510119664772548</v>
-          </cell>
-          <cell r="G7">
-            <v>0.43083852679632129</v>
-          </cell>
-          <cell r="H7">
-            <v>0.75926195675947072</v>
-          </cell>
-          <cell r="I7">
-            <v>0.4529382304496925</v>
-          </cell>
-          <cell r="J7">
-            <v>0.50635208736185144</v>
-          </cell>
-          <cell r="K7">
-            <v>0.28563970719370418</v>
-          </cell>
-          <cell r="L7">
-            <v>0.44264125163372642</v>
-          </cell>
-          <cell r="M7">
-            <v>0.42794786988116312</v>
-          </cell>
-          <cell r="N7">
-            <v>0.43621522475977309</v>
-          </cell>
-          <cell r="O7">
-            <v>0.35551713483447239</v>
-          </cell>
-          <cell r="P7">
-            <v>0.40612339525334296</v>
-          </cell>
-          <cell r="Q7">
-            <v>0.57233209132985352</v>
-          </cell>
-          <cell r="R7">
-            <v>0.562287142028006</v>
-          </cell>
-          <cell r="S7">
-            <v>0.17969675040849464</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>3</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>CY</v>
-          </cell>
-          <cell r="C8">
-            <v>0.56273426328641407</v>
-          </cell>
-          <cell r="D8">
-            <v>0.32673803625882858</v>
-          </cell>
-          <cell r="E8">
-            <v>0.35091937072058454</v>
-          </cell>
-          <cell r="F8">
-            <v>0.20824182371601466</v>
-          </cell>
-          <cell r="G8">
-            <v>0.35091937072058454</v>
-          </cell>
-          <cell r="H8">
-            <v>0.69749426692908079</v>
-          </cell>
-          <cell r="I8">
-            <v>0.38152458948556117</v>
-          </cell>
-          <cell r="J8">
-            <v>0.40056855724566959</v>
-          </cell>
-          <cell r="K8">
-            <v>0.1833267629984027</v>
-          </cell>
-          <cell r="L8">
-            <v>0.36167935728951622</v>
-          </cell>
-          <cell r="M8">
-            <v>0.35676772222284109</v>
-          </cell>
-          <cell r="N8">
-            <v>0.35258579941660467</v>
-          </cell>
-          <cell r="O8">
-            <v>0.33098863956996105</v>
-          </cell>
-          <cell r="P8">
-            <v>0.28522917864314806</v>
-          </cell>
-          <cell r="Q8">
-            <v>0.46924171937247044</v>
-          </cell>
-          <cell r="R8">
-            <v>0.45610574756554795</v>
-          </cell>
-          <cell r="S8">
-            <v>0.15249143204379098</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>4</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>CZ</v>
-          </cell>
-          <cell r="C9">
-            <v>0.61447072884037635</v>
-          </cell>
-          <cell r="D9">
-            <v>0.44241721816082169</v>
-          </cell>
-          <cell r="E9">
-            <v>0.45821530296862012</v>
-          </cell>
-          <cell r="F9">
-            <v>0.34568271915406229</v>
-          </cell>
-          <cell r="G9">
-            <v>0.45821530296862012</v>
-          </cell>
-          <cell r="H9">
-            <v>0.78145171885805587</v>
-          </cell>
-          <cell r="I9">
-            <v>0.50898846325431268</v>
-          </cell>
-          <cell r="J9">
-            <v>0.52143753442194485</v>
-          </cell>
-          <cell r="K9">
-            <v>0.31086066769154297</v>
-          </cell>
-          <cell r="L9">
-            <v>0.46540217593544181</v>
-          </cell>
-          <cell r="M9">
-            <v>0.44824249497931279</v>
-          </cell>
-          <cell r="N9">
-            <v>0.44388510436752338</v>
-          </cell>
-          <cell r="O9">
-            <v>0.40887123178822632</v>
-          </cell>
-          <cell r="P9">
-            <v>0.50784890563981933</v>
-          </cell>
-          <cell r="Q9">
-            <v>0.60929655735477473</v>
-          </cell>
-          <cell r="R9">
-            <v>0.59306374594148814</v>
-          </cell>
-          <cell r="S9">
-            <v>0.38154358596393695</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>6</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>DK</v>
-          </cell>
-          <cell r="C10">
-            <v>0.59890404295763544</v>
-          </cell>
-          <cell r="D10">
-            <v>0.49359101607068567</v>
-          </cell>
-          <cell r="E10">
-            <v>0.5083424368964361</v>
-          </cell>
-          <cell r="F10">
-            <v>0.38172536755755965</v>
-          </cell>
-          <cell r="G10">
-            <v>0.5083424368964361</v>
-          </cell>
-          <cell r="H10">
-            <v>0.70600840578136292</v>
-          </cell>
-          <cell r="I10">
-            <v>0.54829172047091723</v>
-          </cell>
-          <cell r="J10">
-            <v>0.51453946306376575</v>
-          </cell>
-          <cell r="K10">
-            <v>0.33445193700468562</v>
-          </cell>
-          <cell r="L10">
-            <v>0.51600251622999405</v>
-          </cell>
-          <cell r="M10">
-            <v>0.50605140103918667</v>
-          </cell>
-          <cell r="N10">
-            <v>0.49701115445948829</v>
-          </cell>
-          <cell r="O10">
-            <v>0.48788299751841946</v>
-          </cell>
-          <cell r="P10">
-            <v>0.3132970628765589</v>
-          </cell>
-          <cell r="Q10">
-            <v>0.48859684175505558</v>
-          </cell>
-          <cell r="R10">
-            <v>0.47031773219753348</v>
-          </cell>
-          <cell r="S10">
-            <v>0.23263000922203553</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>7</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>EE</v>
-          </cell>
-          <cell r="C11">
-            <v>0.51518711061197797</v>
-          </cell>
-          <cell r="D11">
-            <v>0.36304603975468014</v>
-          </cell>
-          <cell r="E11">
-            <v>0.37507433706499277</v>
-          </cell>
-          <cell r="F11">
-            <v>0.32539348342442626</v>
-          </cell>
-          <cell r="G11">
-            <v>0.37507433706499277</v>
-          </cell>
-          <cell r="H11">
-            <v>0.72455926067045429</v>
-          </cell>
-          <cell r="I11">
-            <v>0.41636317614708501</v>
-          </cell>
-          <cell r="J11">
-            <v>0.50080430302987122</v>
-          </cell>
-          <cell r="K11">
-            <v>0.17044138849779442</v>
-          </cell>
-          <cell r="L11">
-            <v>0.38865204105971773</v>
-          </cell>
-          <cell r="M11">
-            <v>0.38262004790520721</v>
-          </cell>
-          <cell r="N11">
-            <v>0.39037518205972366</v>
-          </cell>
-          <cell r="O11">
-            <v>0.33706822267788289</v>
-          </cell>
-          <cell r="P11">
-            <v>0.36856293963352837</v>
-          </cell>
-          <cell r="Q11">
-            <v>0.50180037255585541</v>
-          </cell>
-          <cell r="R11">
-            <v>0.46304111616095711</v>
-          </cell>
-          <cell r="S11">
-            <v>0.22948322792827208</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>9</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>FI</v>
-          </cell>
-          <cell r="C12">
-            <v>0.67591361555839569</v>
-          </cell>
-          <cell r="D12">
-            <v>0.59052361352831106</v>
-          </cell>
-          <cell r="E12">
-            <v>0.60715098674065582</v>
-          </cell>
-          <cell r="F12">
-            <v>0.49714930354455339</v>
-          </cell>
-          <cell r="G12">
-            <v>0.60715098674065582</v>
-          </cell>
-          <cell r="H12">
-            <v>0.77080120078513115</v>
-          </cell>
-          <cell r="I12">
-            <v>0.61969253980240202</v>
-          </cell>
-          <cell r="J12">
-            <v>0.56259758181242481</v>
-          </cell>
-          <cell r="K12">
-            <v>0.45205512495785705</v>
-          </cell>
-          <cell r="L12">
-            <v>0.60679605273121306</v>
-          </cell>
-          <cell r="M12">
-            <v>0.60267465015208577</v>
-          </cell>
-          <cell r="N12">
-            <v>0.59447297438125335</v>
-          </cell>
-          <cell r="O12">
-            <v>0.57917092847227247</v>
-          </cell>
-          <cell r="P12">
-            <v>0.45489727668458046</v>
-          </cell>
-          <cell r="Q12">
-            <v>0.61715673979578001</v>
-          </cell>
-          <cell r="R12">
-            <v>0.5736871398154616</v>
-          </cell>
-          <cell r="S12">
-            <v>0.32090935655800379</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>10</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>FR</v>
-          </cell>
-          <cell r="C13">
-            <v>0.67315101462256599</v>
-          </cell>
-          <cell r="D13">
-            <v>0.49328156675962287</v>
-          </cell>
-          <cell r="E13">
-            <v>0.51070275620587069</v>
-          </cell>
-          <cell r="F13">
-            <v>0.40909674736585039</v>
-          </cell>
-          <cell r="G13">
-            <v>0.51070275620587069</v>
-          </cell>
-          <cell r="H13">
-            <v>0.80100940166644663</v>
-          </cell>
-          <cell r="I13">
-            <v>0.55070325301052359</v>
-          </cell>
-          <cell r="J13">
-            <v>0.56831978739070887</v>
-          </cell>
-          <cell r="K13">
-            <v>0.41249986468914263</v>
-          </cell>
-          <cell r="L13">
-            <v>0.51285127517852191</v>
-          </cell>
-          <cell r="M13">
-            <v>0.50497890873575502</v>
-          </cell>
-          <cell r="N13">
-            <v>0.50174546201004022</v>
-          </cell>
-          <cell r="O13">
-            <v>0.48679636740042337</v>
-          </cell>
-          <cell r="P13">
-            <v>0.54618231329418632</v>
-          </cell>
-          <cell r="Q13">
-            <v>0.63809266781721075</v>
-          </cell>
-          <cell r="R13">
-            <v>0.60884005669102159</v>
-          </cell>
-          <cell r="S13">
-            <v>0.41410420626456612</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>5</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>DE</v>
-          </cell>
-          <cell r="C14">
-            <v>0.69777075965681568</v>
-          </cell>
-          <cell r="D14">
-            <v>0.64218546879955607</v>
-          </cell>
-          <cell r="E14">
-            <v>0.64750779901397293</v>
-          </cell>
-          <cell r="F14">
-            <v>0.53761752130531448</v>
-          </cell>
-          <cell r="G14">
-            <v>0.64750779901397293</v>
-          </cell>
-          <cell r="H14">
-            <v>0.80381091383569347</v>
-          </cell>
-          <cell r="I14">
-            <v>0.6854640365325676</v>
-          </cell>
-          <cell r="J14">
-            <v>0.65961131245198912</v>
-          </cell>
-          <cell r="K14">
-            <v>0.40844183122626876</v>
-          </cell>
-          <cell r="L14">
-            <v>0.65984208885906925</v>
-          </cell>
-          <cell r="M14">
-            <v>0.63364552035187538</v>
-          </cell>
-          <cell r="N14">
-            <v>0.62340924198905068</v>
-          </cell>
-          <cell r="O14">
-            <v>0.58126682290212828</v>
-          </cell>
-          <cell r="P14">
-            <v>0.62886906695991196</v>
-          </cell>
-          <cell r="Q14">
-            <v>0.69388508831571882</v>
-          </cell>
-          <cell r="R14">
-            <v>0.63550181419111074</v>
-          </cell>
-          <cell r="S14">
-            <v>0.57967976630879725</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>8</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>EL</v>
-          </cell>
-          <cell r="C15">
-            <v>0.69137704515953768</v>
-          </cell>
-          <cell r="D15">
-            <v>0.44671621407832651</v>
-          </cell>
-          <cell r="E15">
-            <v>0.45662289536690703</v>
-          </cell>
-          <cell r="F15">
-            <v>0.41748143973418456</v>
-          </cell>
-          <cell r="G15">
-            <v>0.45662289536690703</v>
-          </cell>
-          <cell r="H15">
-            <v>0.79235423071803313</v>
-          </cell>
-          <cell r="I15">
-            <v>0.49898091317703669</v>
-          </cell>
-          <cell r="J15">
-            <v>0.57694005366135692</v>
-          </cell>
-          <cell r="K15">
-            <v>0.41089271420266349</v>
-          </cell>
-          <cell r="L15">
-            <v>0.47385837063716918</v>
-          </cell>
-          <cell r="M15">
-            <v>0.45882393210312755</v>
-          </cell>
-          <cell r="N15">
-            <v>0.46873570103281392</v>
-          </cell>
-          <cell r="O15">
-            <v>0.43697167017899785</v>
-          </cell>
-          <cell r="P15">
-            <v>0.41427980003904774</v>
-          </cell>
-          <cell r="Q15">
-            <v>0.57830087164812882</v>
-          </cell>
-          <cell r="R15">
-            <v>0.57658383436220062</v>
-          </cell>
-          <cell r="S15">
-            <v>0.21912705710999281</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>12</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>HU</v>
-          </cell>
-          <cell r="C16">
-            <v>0.52512810009765754</v>
-          </cell>
-          <cell r="D16">
-            <v>0.38843281003533869</v>
-          </cell>
-          <cell r="E16">
-            <v>0.39539558352245974</v>
-          </cell>
-          <cell r="F16">
-            <v>0.35232537677460202</v>
-          </cell>
-          <cell r="G16">
-            <v>0.39539558352245974</v>
-          </cell>
-          <cell r="H16">
-            <v>0.67736483948069126</v>
-          </cell>
-          <cell r="I16">
-            <v>0.43631902035660908</v>
-          </cell>
-          <cell r="J16">
-            <v>0.47429937657002452</v>
-          </cell>
-          <cell r="K16">
-            <v>0.24854141999850199</v>
-          </cell>
-          <cell r="L16">
-            <v>0.40817046321557582</v>
-          </cell>
-          <cell r="M16">
-            <v>0.40326357701270693</v>
-          </cell>
-          <cell r="N16">
-            <v>0.40759494083955139</v>
-          </cell>
-          <cell r="O16">
-            <v>0.38227852783483923</v>
-          </cell>
-          <cell r="P16">
-            <v>0.4114054369058292</v>
-          </cell>
-          <cell r="Q16">
-            <v>0.49068691522522545</v>
-          </cell>
-          <cell r="R16">
-            <v>0.47413956709213256</v>
-          </cell>
-          <cell r="S16">
-            <v>0.35544345641027947</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>13</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>IE</v>
-          </cell>
-          <cell r="C17">
-            <v>0.55827575246114081</v>
-          </cell>
-          <cell r="D17">
-            <v>0.44999464751587276</v>
-          </cell>
-          <cell r="E17">
-            <v>0.46505496483431191</v>
-          </cell>
-          <cell r="F17">
-            <v>0.31089260916247546</v>
-          </cell>
-          <cell r="G17">
-            <v>0.46505496483431191</v>
-          </cell>
-          <cell r="H17">
-            <v>0.75820752311003359</v>
-          </cell>
-          <cell r="I17">
-            <v>0.50589148055053879</v>
-          </cell>
-          <cell r="J17">
-            <v>0.43165021317550911</v>
-          </cell>
-          <cell r="K17">
-            <v>0.27093652868107554</v>
-          </cell>
-          <cell r="L17">
-            <v>0.47976680890310835</v>
-          </cell>
-          <cell r="M17">
-            <v>0.46124667235037287</v>
-          </cell>
-          <cell r="N17">
-            <v>0.44993810475254542</v>
-          </cell>
-          <cell r="O17">
-            <v>0.43331767007839228</v>
-          </cell>
-          <cell r="P17">
-            <v>0.4340220387308214</v>
-          </cell>
-          <cell r="Q17">
-            <v>0.55472255606151821</v>
-          </cell>
-          <cell r="R17">
-            <v>0.45398493024855074</v>
-          </cell>
-          <cell r="S17">
-            <v>0.29080101456586827</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>14</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>IT</v>
-          </cell>
-          <cell r="C18">
-            <v>0.72489394142534613</v>
-          </cell>
-          <cell r="D18">
-            <v>0.67878725827857933</v>
-          </cell>
-          <cell r="E18">
-            <v>0.68434364753895383</v>
-          </cell>
-          <cell r="F18">
-            <v>0.57449913630392335</v>
-          </cell>
-          <cell r="G18">
-            <v>0.68434364753895383</v>
-          </cell>
-          <cell r="H18">
-            <v>0.82145308673415873</v>
-          </cell>
-          <cell r="I18">
-            <v>0.72254493084116922</v>
-          </cell>
-          <cell r="J18">
-            <v>0.70080117344685622</v>
-          </cell>
-          <cell r="K18">
-            <v>0.47083447548493529</v>
-          </cell>
-          <cell r="L18">
-            <v>0.69444756711310296</v>
-          </cell>
-          <cell r="M18">
-            <v>0.66697954352035715</v>
-          </cell>
-          <cell r="N18">
-            <v>0.6559945262715221</v>
-          </cell>
-          <cell r="O18">
-            <v>0.61804696487820543</v>
-          </cell>
-          <cell r="P18">
-            <v>0.58506552019128832</v>
-          </cell>
-          <cell r="Q18">
-            <v>0.70456782980770027</v>
-          </cell>
-          <cell r="R18">
-            <v>0.6572249063598502</v>
-          </cell>
-          <cell r="S18">
-            <v>0.48953701821963591</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>15</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>LV</v>
-          </cell>
-          <cell r="C19">
-            <v>0.55636842746514703</v>
-          </cell>
-          <cell r="D19">
-            <v>0.3462455337228536</v>
-          </cell>
-          <cell r="E19">
-            <v>0.37057706017903069</v>
-          </cell>
-          <cell r="F19">
-            <v>0.27263748594664033</v>
-          </cell>
-          <cell r="G19">
-            <v>0.37057706017903069</v>
-          </cell>
-          <cell r="H19">
-            <v>0.79838294222053219</v>
-          </cell>
-          <cell r="I19">
-            <v>0.41206715070830041</v>
-          </cell>
-          <cell r="J19">
-            <v>0.50323610123353224</v>
-          </cell>
-          <cell r="K19">
-            <v>0.18304867633432237</v>
-          </cell>
-          <cell r="L19">
-            <v>0.37987448927390932</v>
-          </cell>
-          <cell r="M19">
-            <v>0.38012343374970065</v>
-          </cell>
-          <cell r="N19">
-            <v>0.3851491671597061</v>
-          </cell>
-          <cell r="O19">
-            <v>0.34932651725149644</v>
-          </cell>
-          <cell r="P19">
-            <v>0.40595671254037774</v>
-          </cell>
-          <cell r="Q19">
-            <v>0.55045737140333928</v>
-          </cell>
-          <cell r="R19">
-            <v>0.50228604186858028</v>
-          </cell>
-          <cell r="S19">
-            <v>0.21527927033044186</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>16</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>LT</v>
-          </cell>
-          <cell r="C20">
-            <v>0.57112602743452445</v>
-          </cell>
-          <cell r="D20">
-            <v>0.36834074270890643</v>
-          </cell>
-          <cell r="E20">
-            <v>0.39173626976127374</v>
-          </cell>
-          <cell r="F20">
-            <v>0.28103107807650179</v>
-          </cell>
-          <cell r="G20">
-            <v>0.39173626976127374</v>
-          </cell>
-          <cell r="H20">
-            <v>0.71782945299250045</v>
-          </cell>
-          <cell r="I20">
-            <v>0.44195032661827505</v>
-          </cell>
-          <cell r="J20">
-            <v>0.51070772201835724</v>
-          </cell>
-          <cell r="K20">
-            <v>0.18978002364594773</v>
-          </cell>
-          <cell r="L20">
-            <v>0.40329883178757775</v>
-          </cell>
-          <cell r="M20">
-            <v>0.40246011406671944</v>
-          </cell>
-          <cell r="N20">
-            <v>0.40489584763132319</v>
-          </cell>
-          <cell r="O20">
-            <v>0.38006364866066428</v>
-          </cell>
-          <cell r="P20">
-            <v>0.36131062427114891</v>
-          </cell>
-          <cell r="Q20">
-            <v>0.51305368716640154</v>
-          </cell>
-          <cell r="R20">
-            <v>0.44559034097430994</v>
-          </cell>
-          <cell r="S20">
-            <v>0.21721221909775587</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>17</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>LU</v>
-          </cell>
-          <cell r="C21">
-            <v>0.55827575246114081</v>
-          </cell>
-          <cell r="D21">
-            <v>0.44999464751587276</v>
-          </cell>
-          <cell r="E21">
-            <v>0.46505496483431191</v>
-          </cell>
-          <cell r="F21">
-            <v>0.31089260916247546</v>
-          </cell>
-          <cell r="G21">
-            <v>0.46505496483431191</v>
-          </cell>
-          <cell r="H21">
-            <v>0.75820752311003359</v>
-          </cell>
-          <cell r="I21">
-            <v>0.50589148055053879</v>
-          </cell>
-          <cell r="J21">
-            <v>0.43165021317550911</v>
-          </cell>
-          <cell r="K21">
-            <v>0.27093652868107554</v>
-          </cell>
-          <cell r="L21">
-            <v>0.47976680890310835</v>
-          </cell>
-          <cell r="M21">
-            <v>0.46124667235037287</v>
-          </cell>
-          <cell r="N21">
-            <v>0.44993810475254542</v>
-          </cell>
-          <cell r="O21">
-            <v>0.43331767007839228</v>
-          </cell>
-          <cell r="P21">
-            <v>0.4340220387308214</v>
-          </cell>
-          <cell r="Q21">
-            <v>0.55472255606151821</v>
-          </cell>
-          <cell r="R21">
-            <v>0.45398493024855074</v>
-          </cell>
-          <cell r="S21">
-            <v>0.29080101456586827</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>18</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>MT</v>
-          </cell>
-          <cell r="C22">
-            <v>0.56273426328641407</v>
-          </cell>
-          <cell r="D22">
-            <v>0.32673803625882858</v>
-          </cell>
-          <cell r="E22">
-            <v>0.35091937072058454</v>
-          </cell>
-          <cell r="F22">
-            <v>0.20824182371601466</v>
-          </cell>
-          <cell r="G22">
-            <v>0.35091937072058454</v>
-          </cell>
-          <cell r="H22">
-            <v>0.69749426692908079</v>
-          </cell>
-          <cell r="I22">
-            <v>0.38152458948556117</v>
-          </cell>
-          <cell r="J22">
-            <v>0.40056855724566959</v>
-          </cell>
-          <cell r="K22">
-            <v>0.1833267629984027</v>
-          </cell>
-          <cell r="L22">
-            <v>0.36167935728951622</v>
-          </cell>
-          <cell r="M22">
-            <v>0.35676772222284109</v>
-          </cell>
-          <cell r="N22">
-            <v>0.35258579941660467</v>
-          </cell>
-          <cell r="O22">
-            <v>0.33098863956996105</v>
-          </cell>
-          <cell r="P22">
-            <v>0.28522917864314806</v>
-          </cell>
-          <cell r="Q22">
-            <v>0.46924171937247044</v>
-          </cell>
-          <cell r="R22">
-            <v>0.45610574756554795</v>
-          </cell>
-          <cell r="S22">
-            <v>0.15249143204379098</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>19</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>NL</v>
-          </cell>
-          <cell r="C23">
-            <v>0.55827575246114081</v>
-          </cell>
-          <cell r="D23">
-            <v>0.44999464751587276</v>
-          </cell>
-          <cell r="E23">
-            <v>0.46505496483431191</v>
-          </cell>
-          <cell r="F23">
-            <v>0.31089260916247546</v>
-          </cell>
-          <cell r="G23">
-            <v>0.46505496483431191</v>
-          </cell>
-          <cell r="H23">
-            <v>0.75820752311003359</v>
-          </cell>
-          <cell r="I23">
-            <v>0.50589148055053879</v>
-          </cell>
-          <cell r="J23">
-            <v>0.43165021317550911</v>
-          </cell>
-          <cell r="K23">
-            <v>0.27093652868107554</v>
-          </cell>
-          <cell r="L23">
-            <v>0.47976680890310835</v>
-          </cell>
-          <cell r="M23">
-            <v>0.46124667235037287</v>
-          </cell>
-          <cell r="N23">
-            <v>0.44993810475254542</v>
-          </cell>
-          <cell r="O23">
-            <v>0.43331767007839228</v>
-          </cell>
-          <cell r="P23">
-            <v>0.4340220387308214</v>
-          </cell>
-          <cell r="Q23">
-            <v>0.55472255606151821</v>
-          </cell>
-          <cell r="R23">
-            <v>0.45398493024855074</v>
-          </cell>
-          <cell r="S23">
-            <v>0.29080101456586827</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>20</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>PL</v>
-          </cell>
-          <cell r="C24">
-            <v>0.66299667211783808</v>
-          </cell>
-          <cell r="D24">
-            <v>0.46693809344781301</v>
-          </cell>
-          <cell r="E24">
-            <v>0.47284618699856429</v>
-          </cell>
-          <cell r="F24">
-            <v>0.4440614460503739</v>
-          </cell>
-          <cell r="G24">
-            <v>0.47284618699856429</v>
-          </cell>
-          <cell r="H24">
-            <v>0.67604408132895077</v>
-          </cell>
-          <cell r="I24">
-            <v>0.51475849867407864</v>
-          </cell>
-          <cell r="J24">
-            <v>0.57526908691104495</v>
-          </cell>
-          <cell r="K24">
-            <v>0.39279900306141674</v>
-          </cell>
-          <cell r="L24">
-            <v>0.48847779726379537</v>
-          </cell>
-          <cell r="M24">
-            <v>0.47405379007470239</v>
-          </cell>
-          <cell r="N24">
-            <v>0.48230609177725936</v>
-          </cell>
-          <cell r="O24">
-            <v>0.44017286612820883</v>
-          </cell>
-          <cell r="P24">
-            <v>0.42152975050755448</v>
-          </cell>
-          <cell r="Q24">
-            <v>0.5029681317375625</v>
-          </cell>
-          <cell r="R24">
-            <v>0.45599329955284967</v>
-          </cell>
-          <cell r="S24">
-            <v>0.39533253364562643</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>21</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>PT</v>
-          </cell>
-          <cell r="C25">
-            <v>0.64001331532401107</v>
-          </cell>
-          <cell r="D25">
-            <v>0.43449917017928763</v>
-          </cell>
-          <cell r="E25">
-            <v>0.44869232201899256</v>
-          </cell>
-          <cell r="F25">
-            <v>0.37645831803246166</v>
-          </cell>
-          <cell r="G25">
-            <v>0.44869232201899256</v>
-          </cell>
-          <cell r="H25">
-            <v>0.79690564658213625</v>
-          </cell>
-          <cell r="I25">
-            <v>0.49377699757558313</v>
-          </cell>
-          <cell r="J25">
-            <v>0.55453797951655237</v>
-          </cell>
-          <cell r="K25">
-            <v>0.32499594148547223</v>
-          </cell>
-          <cell r="L25">
-            <v>0.46196232217316419</v>
-          </cell>
-          <cell r="M25">
-            <v>0.45578688298471443</v>
-          </cell>
-          <cell r="N25">
-            <v>0.45993066065878824</v>
-          </cell>
-          <cell r="O25">
-            <v>0.43626419419836959</v>
-          </cell>
-          <cell r="P25">
-            <v>0.45259724696177217</v>
-          </cell>
-          <cell r="Q25">
-            <v>0.59501749563851392</v>
-          </cell>
-          <cell r="R25">
-            <v>0.56463486422350284</v>
-          </cell>
-          <cell r="S25">
-            <v>0.31032711763446991</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>26</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>RO</v>
-          </cell>
-          <cell r="C26">
-            <v>0.60869363884946259</v>
-          </cell>
-          <cell r="D26">
-            <v>0.42174114048470113</v>
-          </cell>
-          <cell r="E26">
-            <v>0.42993910318576561</v>
-          </cell>
-          <cell r="F26">
-            <v>0.44403768316493536</v>
-          </cell>
-          <cell r="G26">
-            <v>0.42993910318576561</v>
-          </cell>
-          <cell r="H26">
-            <v>0.58478337592381302</v>
-          </cell>
-          <cell r="I26">
-            <v>0.47122958767524248</v>
-          </cell>
-          <cell r="J26">
-            <v>0.5405884976141534</v>
-          </cell>
-          <cell r="K26">
-            <v>0.39789837619652679</v>
-          </cell>
-          <cell r="L26">
-            <v>0.43075603368331816</v>
-          </cell>
-          <cell r="M26">
-            <v>0.42742122054562515</v>
-          </cell>
-          <cell r="N26">
-            <v>0.44139851604793201</v>
-          </cell>
-          <cell r="O26">
-            <v>0.39756821993422137</v>
-          </cell>
-          <cell r="P26">
-            <v>0.60509090457394321</v>
-          </cell>
-          <cell r="Q26">
-            <v>0.63302818728724553</v>
-          </cell>
-          <cell r="R26">
-            <v>0.62693016126934809</v>
-          </cell>
-          <cell r="S26">
-            <v>0.46242457980659984</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>22</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>SK</v>
-          </cell>
-          <cell r="C27">
-            <v>0.61447072884037635</v>
-          </cell>
-          <cell r="D27">
-            <v>0.44241721816082169</v>
-          </cell>
-          <cell r="E27">
-            <v>0.45821530296862012</v>
-          </cell>
-          <cell r="F27">
-            <v>0.34568271915406229</v>
-          </cell>
-          <cell r="G27">
-            <v>0.45821530296862012</v>
-          </cell>
-          <cell r="H27">
-            <v>0.78145171885805587</v>
-          </cell>
-          <cell r="I27">
-            <v>0.50898846325431268</v>
-          </cell>
-          <cell r="J27">
-            <v>0.52143753442194485</v>
-          </cell>
-          <cell r="K27">
-            <v>0.31086066769154297</v>
-          </cell>
-          <cell r="L27">
-            <v>0.46540217593544181</v>
-          </cell>
-          <cell r="M27">
-            <v>0.44824249497931279</v>
-          </cell>
-          <cell r="N27">
-            <v>0.44388510436752338</v>
-          </cell>
-          <cell r="O27">
-            <v>0.40887123178822632</v>
-          </cell>
-          <cell r="P27">
-            <v>0.50784890563981933</v>
-          </cell>
-          <cell r="Q27">
-            <v>0.60929655735477473</v>
-          </cell>
-          <cell r="R27">
-            <v>0.59306374594148814</v>
-          </cell>
-          <cell r="S27">
-            <v>0.38154358596393695</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>23</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>SI</v>
-          </cell>
-          <cell r="C28">
-            <v>0.60802647784220387</v>
-          </cell>
-          <cell r="D28">
-            <v>0.49185701713568963</v>
-          </cell>
-          <cell r="E28">
-            <v>0.49950714950186054</v>
-          </cell>
-          <cell r="F28">
-            <v>0.48097551385893822</v>
-          </cell>
-          <cell r="G28">
-            <v>0.49950714950186054</v>
-          </cell>
-          <cell r="H28">
-            <v>0.72143340263299982</v>
-          </cell>
-          <cell r="I28">
-            <v>0.52271795697185697</v>
-          </cell>
-          <cell r="J28">
-            <v>0.58775176953159269</v>
-          </cell>
-          <cell r="K28">
-            <v>0.26237247272518116</v>
-          </cell>
-          <cell r="L28">
-            <v>0.50995732083680467</v>
-          </cell>
-          <cell r="M28">
-            <v>0.49930854996865626</v>
-          </cell>
-          <cell r="N28">
-            <v>0.50942340330083891</v>
-          </cell>
-          <cell r="O28">
-            <v>0.45404792681327089</v>
-          </cell>
-          <cell r="P28">
-            <v>0.402209228869639</v>
-          </cell>
-          <cell r="Q28">
-            <v>0.5387841909518003</v>
-          </cell>
-          <cell r="R28">
-            <v>0.49155428970472198</v>
-          </cell>
-          <cell r="S28">
-            <v>0.33610050760237109</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>24</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>ES</v>
-          </cell>
-          <cell r="C29">
-            <v>0.74559562886045383</v>
-          </cell>
-          <cell r="D29">
-            <v>0.57295570564200504</v>
-          </cell>
-          <cell r="E29">
-            <v>0.58573814759876774</v>
-          </cell>
-          <cell r="F29">
-            <v>0.48016664737698361</v>
-          </cell>
-          <cell r="G29">
-            <v>0.58573814759876774</v>
-          </cell>
-          <cell r="H29">
-            <v>0.86254660411089401</v>
-          </cell>
-          <cell r="I29">
-            <v>0.62931985629005505</v>
-          </cell>
-          <cell r="J29">
-            <v>0.64936240045249405</v>
-          </cell>
-          <cell r="K29">
-            <v>0.49721844571469909</v>
-          </cell>
-          <cell r="L29">
-            <v>0.59584310301943433</v>
-          </cell>
-          <cell r="M29">
-            <v>0.56922206586993584</v>
-          </cell>
-          <cell r="N29">
-            <v>0.56574742952007773</v>
-          </cell>
-          <cell r="O29">
-            <v>0.52769657403780978</v>
-          </cell>
-          <cell r="P29">
-            <v>0.58892423465906996</v>
-          </cell>
-          <cell r="Q29">
-            <v>0.71536733945009967</v>
-          </cell>
-          <cell r="R29">
-            <v>0.6753158359828656</v>
-          </cell>
-          <cell r="S29">
-            <v>0.41340943816550091</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>25</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>SE</v>
-          </cell>
-          <cell r="C30">
-            <v>0.67264184480124023</v>
-          </cell>
-          <cell r="D30">
-            <v>0.54581770526775919</v>
-          </cell>
-          <cell r="E30">
-            <v>0.56307370061079964</v>
-          </cell>
-          <cell r="F30">
-            <v>0.4027459619027553</v>
-          </cell>
-          <cell r="G30">
-            <v>0.56307370061079964</v>
-          </cell>
-          <cell r="H30">
-            <v>0.76289390035114812</v>
-          </cell>
-          <cell r="I30">
-            <v>0.60658608054091201</v>
-          </cell>
-          <cell r="J30">
-            <v>0.57157165937949128</v>
-          </cell>
-          <cell r="K30">
-            <v>0.4251340911894218</v>
-          </cell>
-          <cell r="L30">
-            <v>0.56850294219969078</v>
-          </cell>
-          <cell r="M30">
-            <v>0.54230834514944759</v>
-          </cell>
-          <cell r="N30">
-            <v>0.52892443770271413</v>
-          </cell>
-          <cell r="O30">
-            <v>0.49546486663571787</v>
-          </cell>
-          <cell r="P30">
-            <v>0.51368604963363595</v>
-          </cell>
-          <cell r="Q30">
-            <v>0.6135540408142558</v>
-          </cell>
-          <cell r="R30">
-            <v>0.54244478107991523</v>
-          </cell>
-          <cell r="S30">
-            <v>0.4304613414284178</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>0</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>EU27</v>
-          </cell>
-          <cell r="C31">
-            <v>0.67593217160277674</v>
-          </cell>
-          <cell r="D31">
-            <v>0.55818763495127666</v>
-          </cell>
-          <cell r="E31">
-            <v>0.56889837619550732</v>
-          </cell>
-          <cell r="F31">
-            <v>0.46466447212273693</v>
-          </cell>
-          <cell r="G31">
-            <v>0.56889837619550732</v>
-          </cell>
-          <cell r="H31">
-            <v>0.78642917649067057</v>
-          </cell>
-          <cell r="I31">
-            <v>0.60813125006160829</v>
-          </cell>
-          <cell r="J31">
-            <v>0.60309150672508605</v>
-          </cell>
-          <cell r="K31">
-            <v>0.4056841526577501</v>
-          </cell>
-          <cell r="L31">
-            <v>0.57815207144298297</v>
-          </cell>
-          <cell r="M31">
-            <v>0.55903032294647814</v>
-          </cell>
-          <cell r="N31">
-            <v>0.55296213629396329</v>
-          </cell>
-          <cell r="O31">
-            <v>0.52185995095479409</v>
-          </cell>
-          <cell r="P31">
-            <v>0.53986368033509846</v>
-          </cell>
-          <cell r="Q31">
-            <v>0.64124805366874715</v>
-          </cell>
-          <cell r="R31">
-            <v>0.59312098252166445</v>
-          </cell>
-          <cell r="S31">
-            <v>0.43889414936328275</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>1</v>
-          </cell>
-          <cell r="D35">
-            <v>2</v>
-          </cell>
-          <cell r="E35">
-            <v>3</v>
-          </cell>
-          <cell r="F35">
-            <v>4</v>
-          </cell>
-          <cell r="G35">
-            <v>5</v>
-          </cell>
-          <cell r="H35">
-            <v>6</v>
-          </cell>
-          <cell r="I35">
-            <v>7</v>
-          </cell>
-          <cell r="J35">
-            <v>8</v>
-          </cell>
-          <cell r="K35">
-            <v>9</v>
-          </cell>
-          <cell r="L35">
-            <v>10</v>
-          </cell>
-          <cell r="M35">
-            <v>11</v>
-          </cell>
-          <cell r="N35">
-            <v>12</v>
-          </cell>
-          <cell r="O35">
-            <v>13</v>
-          </cell>
-          <cell r="P35">
-            <v>14</v>
-          </cell>
-          <cell r="Q35">
-            <v>15</v>
-          </cell>
-          <cell r="R35">
-            <v>16</v>
-          </cell>
-          <cell r="S35">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>id</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v>Employment per 1m$ of Investments</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>Building envelope</v>
-          </cell>
-          <cell r="D36" t="str">
-            <v>Heating fuel switch</v>
-          </cell>
-          <cell r="E36" t="str">
-            <v>Energy-efficient heating</v>
-          </cell>
-          <cell r="F36" t="str">
-            <v>Electric appliances</v>
-          </cell>
-          <cell r="G36" t="str">
-            <v>Cooking and water heating</v>
-          </cell>
-          <cell r="H36" t="str">
-            <v>Behavioural changes</v>
-          </cell>
-          <cell r="I36" t="str">
-            <v>Behavioural changes</v>
-          </cell>
-          <cell r="J36" t="str">
-            <v>Cross-cutting technologies</v>
-          </cell>
-          <cell r="K36" t="str">
-            <v>Process change</v>
-          </cell>
-          <cell r="L36" t="str">
-            <v>Fuel switch</v>
-          </cell>
-          <cell r="M36" t="str">
-            <v>Process-specific savings</v>
-          </cell>
-          <cell r="N36" t="str">
-            <v>Space heating and cooling</v>
-          </cell>
-          <cell r="O36" t="str">
-            <v>Consumption reduction</v>
-          </cell>
-          <cell r="P36" t="str">
-            <v>Modal shift</v>
-          </cell>
-          <cell r="Q36" t="str">
-            <v>Behavioural changes</v>
-          </cell>
-          <cell r="R36" t="str">
-            <v>Emission thresholds</v>
-          </cell>
-          <cell r="S36" t="str">
-            <v>Fuel switch</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>1</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>AT</v>
-          </cell>
-          <cell r="C37">
-            <v>9.4327152656947124</v>
-          </cell>
-          <cell r="D37">
-            <v>7.1397024841540278</v>
-          </cell>
-          <cell r="E37">
-            <v>7.2892240904536552</v>
-          </cell>
-          <cell r="F37">
-            <v>5.4419928476351789</v>
-          </cell>
-          <cell r="G37">
-            <v>7.2892240904536552</v>
-          </cell>
-          <cell r="H37">
-            <v>21.259889521782199</v>
-          </cell>
-          <cell r="I37">
-            <v>8.7501187284034732</v>
-          </cell>
-          <cell r="J37">
-            <v>7.9832247484416214</v>
-          </cell>
-          <cell r="K37">
-            <v>3.7256418843349319</v>
-          </cell>
-          <cell r="L37">
-            <v>7.4617324739712529</v>
-          </cell>
-          <cell r="M37">
-            <v>7.2682469880309348</v>
-          </cell>
-          <cell r="N37">
-            <v>7.2003808065176376</v>
-          </cell>
-          <cell r="O37">
-            <v>7.5913829699627922</v>
-          </cell>
-          <cell r="P37">
-            <v>5.342740340119378</v>
-          </cell>
-          <cell r="Q37">
-            <v>7.1380876038643839</v>
-          </cell>
-          <cell r="R37">
-            <v>6.6890625474151211</v>
-          </cell>
-          <cell r="S37">
-            <v>5.1165966373412886</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>2</v>
-          </cell>
-          <cell r="B38" t="str">
-            <v>BE</v>
-          </cell>
-          <cell r="C38">
-            <v>7.4767840472958795</v>
-          </cell>
-          <cell r="D38">
-            <v>5.1357591853214837</v>
-          </cell>
-          <cell r="E38">
-            <v>5.3255718434058652</v>
-          </cell>
-          <cell r="F38">
-            <v>4.1255950313065703</v>
-          </cell>
-          <cell r="G38">
-            <v>5.3255718434058652</v>
-          </cell>
-          <cell r="H38">
-            <v>26.517810937986418</v>
-          </cell>
-          <cell r="I38">
-            <v>6.0994963900889996</v>
-          </cell>
-          <cell r="J38">
-            <v>5.4625091687779035</v>
-          </cell>
-          <cell r="K38">
-            <v>3.0036603203053414</v>
-          </cell>
-          <cell r="L38">
-            <v>5.4571261720635071</v>
-          </cell>
-          <cell r="M38">
-            <v>5.3320030173641229</v>
-          </cell>
-          <cell r="N38">
-            <v>5.3712643272881095</v>
-          </cell>
-          <cell r="O38">
-            <v>5.3455480896956509</v>
-          </cell>
-          <cell r="P38">
-            <v>3.8531565892180799</v>
-          </cell>
-          <cell r="Q38">
-            <v>5.8896312698767606</v>
-          </cell>
-          <cell r="R38">
-            <v>4.8124026425294719</v>
-          </cell>
-          <cell r="S38">
-            <v>3.44164683346348</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>27</v>
-          </cell>
-          <cell r="B39" t="str">
-            <v>BG</v>
-          </cell>
-          <cell r="C39">
-            <v>22.957640748134359</v>
-          </cell>
-          <cell r="D39">
-            <v>17.658493513691468</v>
-          </cell>
-          <cell r="E39">
-            <v>17.946445626444774</v>
-          </cell>
-          <cell r="F39">
-            <v>14.816035366936648</v>
-          </cell>
-          <cell r="G39">
-            <v>17.946445626444774</v>
-          </cell>
-          <cell r="H39">
-            <v>47.002755372706666</v>
-          </cell>
-          <cell r="I39">
-            <v>20.582186229527007</v>
-          </cell>
-          <cell r="J39">
-            <v>18.07182043975865</v>
-          </cell>
-          <cell r="K39">
-            <v>13.438712817899248</v>
-          </cell>
-          <cell r="L39">
-            <v>18.187190828697751</v>
-          </cell>
-          <cell r="M39">
-            <v>17.38648209440905</v>
-          </cell>
-          <cell r="N39">
-            <v>17.410386592611847</v>
-          </cell>
-          <cell r="O39">
-            <v>16.261406178564055</v>
-          </cell>
-          <cell r="P39">
-            <v>20.389537153808615</v>
-          </cell>
-          <cell r="Q39">
-            <v>24.972176092734578</v>
-          </cell>
-          <cell r="R39">
-            <v>27.162838011972575</v>
-          </cell>
-          <cell r="S39">
-            <v>10.406826899908939</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>11</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v>HR</v>
-          </cell>
-          <cell r="C40">
-            <v>22.957640748134359</v>
-          </cell>
-          <cell r="D40">
-            <v>17.658493513691468</v>
-          </cell>
-          <cell r="E40">
-            <v>17.946445626444774</v>
-          </cell>
-          <cell r="F40">
-            <v>14.816035366936648</v>
-          </cell>
-          <cell r="G40">
-            <v>17.946445626444774</v>
-          </cell>
-          <cell r="H40">
-            <v>47.002755372706666</v>
-          </cell>
-          <cell r="I40">
-            <v>20.582186229527007</v>
-          </cell>
-          <cell r="J40">
-            <v>18.07182043975865</v>
-          </cell>
-          <cell r="K40">
-            <v>13.438712817899248</v>
-          </cell>
-          <cell r="L40">
-            <v>18.187190828697751</v>
-          </cell>
-          <cell r="M40">
-            <v>17.38648209440905</v>
-          </cell>
-          <cell r="N40">
-            <v>17.410386592611847</v>
-          </cell>
-          <cell r="O40">
-            <v>16.261406178564055</v>
-          </cell>
-          <cell r="P40">
-            <v>20.389537153808615</v>
-          </cell>
-          <cell r="Q40">
-            <v>24.972176092734578</v>
-          </cell>
-          <cell r="R40">
-            <v>27.162838011972575</v>
-          </cell>
-          <cell r="S40">
-            <v>10.406826899908939</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>3</v>
-          </cell>
-          <cell r="B41" t="str">
-            <v>CY</v>
-          </cell>
-          <cell r="C41">
-            <v>17.914548973749199</v>
-          </cell>
-          <cell r="D41">
-            <v>10.504988555638942</v>
-          </cell>
-          <cell r="E41">
-            <v>11.007025284883929</v>
-          </cell>
-          <cell r="F41">
-            <v>7.4733458719306309</v>
-          </cell>
-          <cell r="G41">
-            <v>11.007025284883929</v>
-          </cell>
-          <cell r="H41">
-            <v>41.140208345997095</v>
-          </cell>
-          <cell r="I41">
-            <v>12.271956680237299</v>
-          </cell>
-          <cell r="J41">
-            <v>10.388169383945845</v>
-          </cell>
-          <cell r="K41">
-            <v>4.3103703950983103</v>
-          </cell>
-          <cell r="L41">
-            <v>11.646822287008852</v>
-          </cell>
-          <cell r="M41">
-            <v>11.366752164976884</v>
-          </cell>
-          <cell r="N41">
-            <v>11.386371449114836</v>
-          </cell>
-          <cell r="O41">
-            <v>10.560805684766221</v>
-          </cell>
-          <cell r="P41">
-            <v>8.9233404951631119</v>
-          </cell>
-          <cell r="Q41">
-            <v>13.266257016966501</v>
-          </cell>
-          <cell r="R41">
-            <v>12.385272661398698</v>
-          </cell>
-          <cell r="S41">
-            <v>5.1851426565641336</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>4</v>
-          </cell>
-          <cell r="B42" t="str">
-            <v>CZ</v>
-          </cell>
-          <cell r="C42">
-            <v>20.128146425411202</v>
-          </cell>
-          <cell r="D42">
-            <v>15.211088765937061</v>
-          </cell>
-          <cell r="E42">
-            <v>15.710056665102689</v>
-          </cell>
-          <cell r="F42">
-            <v>12.058956309960271</v>
-          </cell>
-          <cell r="G42">
-            <v>15.710056665102689</v>
-          </cell>
-          <cell r="H42">
-            <v>48.103470659133976</v>
-          </cell>
-          <cell r="I42">
-            <v>18.666331543365253</v>
-          </cell>
-          <cell r="J42">
-            <v>19.321913673573402</v>
-          </cell>
-          <cell r="K42">
-            <v>8.3474080189095154</v>
-          </cell>
-          <cell r="L42">
-            <v>15.760994382906127</v>
-          </cell>
-          <cell r="M42">
-            <v>15.240701456646974</v>
-          </cell>
-          <cell r="N42">
-            <v>15.191292662224321</v>
-          </cell>
-          <cell r="O42">
-            <v>15.023754145108423</v>
-          </cell>
-          <cell r="P42">
-            <v>14.992394449643642</v>
-          </cell>
-          <cell r="Q42">
-            <v>17.923294768906452</v>
-          </cell>
-          <cell r="R42">
-            <v>16.562150369434054</v>
-          </cell>
-          <cell r="S42">
-            <v>13.662231159891675</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>6</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v>DK</v>
-          </cell>
-          <cell r="C43">
-            <v>8.2657077312631628</v>
-          </cell>
-          <cell r="D43">
-            <v>6.7265632707633873</v>
-          </cell>
-          <cell r="E43">
-            <v>6.9299264836255059</v>
-          </cell>
-          <cell r="F43">
-            <v>4.7375678941186914</v>
-          </cell>
-          <cell r="G43">
-            <v>6.9299264836255059</v>
-          </cell>
-          <cell r="H43">
-            <v>15.869261173044791</v>
-          </cell>
-          <cell r="I43">
-            <v>8.5377775327186924</v>
-          </cell>
-          <cell r="J43">
-            <v>6.806086165150079</v>
-          </cell>
-          <cell r="K43">
-            <v>3.1736278836554201</v>
-          </cell>
-          <cell r="L43">
-            <v>7.0192912179187559</v>
-          </cell>
-          <cell r="M43">
-            <v>6.8389139089479265</v>
-          </cell>
-          <cell r="N43">
-            <v>6.7258072989311337</v>
-          </cell>
-          <cell r="O43">
-            <v>7.4433089462170887</v>
-          </cell>
-          <cell r="P43">
-            <v>3.8849677288633027</v>
-          </cell>
-          <cell r="Q43">
-            <v>5.8642241724890694</v>
-          </cell>
-          <cell r="R43">
-            <v>5.7762801687819554</v>
-          </cell>
-          <cell r="S43">
-            <v>4.1587199731345281</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>7</v>
-          </cell>
-          <cell r="B44" t="str">
-            <v>EE</v>
-          </cell>
-          <cell r="C44">
-            <v>20.450568151913295</v>
-          </cell>
-          <cell r="D44">
-            <v>13.649683993739366</v>
-          </cell>
-          <cell r="E44">
-            <v>13.875558264944882</v>
-          </cell>
-          <cell r="F44">
-            <v>12.933666128524438</v>
-          </cell>
-          <cell r="G44">
-            <v>13.875558264944882</v>
-          </cell>
-          <cell r="H44">
-            <v>25.609158184725729</v>
-          </cell>
-          <cell r="I44">
-            <v>16.785750127334222</v>
-          </cell>
-          <cell r="J44">
-            <v>15.381805815139824</v>
-          </cell>
-          <cell r="K44">
-            <v>4.9217074201219226</v>
-          </cell>
-          <cell r="L44">
-            <v>14.592853987926384</v>
-          </cell>
-          <cell r="M44">
-            <v>14.536287408456507</v>
-          </cell>
-          <cell r="N44">
-            <v>15.04834359228154</v>
-          </cell>
-          <cell r="O44">
-            <v>14.474981669148383</v>
-          </cell>
-          <cell r="P44">
-            <v>11.686315682703047</v>
-          </cell>
-          <cell r="Q44">
-            <v>16.505679810314046</v>
-          </cell>
-          <cell r="R44">
-            <v>14.574857753994181</v>
-          </cell>
-          <cell r="S44">
-            <v>10.042247602369171</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>9</v>
-          </cell>
-          <cell r="B45" t="str">
-            <v>FI</v>
-          </cell>
-          <cell r="C45">
-            <v>10.124387782704389</v>
-          </cell>
-          <cell r="D45">
-            <v>8.2111830176579588</v>
-          </cell>
-          <cell r="E45">
-            <v>8.4604887659377113</v>
-          </cell>
-          <cell r="F45">
-            <v>6.2452684497268427</v>
-          </cell>
-          <cell r="G45">
-            <v>8.4604887659377113</v>
-          </cell>
-          <cell r="H45">
-            <v>18.320003555312034</v>
-          </cell>
-          <cell r="I45">
-            <v>9.3637335064283853</v>
-          </cell>
-          <cell r="J45">
-            <v>7.6198762667305617</v>
-          </cell>
-          <cell r="K45">
-            <v>5.0717134635963008</v>
-          </cell>
-          <cell r="L45">
-            <v>8.5412533700520843</v>
-          </cell>
-          <cell r="M45">
-            <v>8.3503725343120951</v>
-          </cell>
-          <cell r="N45">
-            <v>8.2045077059917624</v>
-          </cell>
-          <cell r="O45">
-            <v>8.2861814504593969</v>
-          </cell>
-          <cell r="P45">
-            <v>6.8152951421093553</v>
-          </cell>
-          <cell r="Q45">
-            <v>8.9868224374310657</v>
-          </cell>
-          <cell r="R45">
-            <v>8.5021442503441467</v>
-          </cell>
-          <cell r="S45">
-            <v>5.0197565591549278</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>10</v>
-          </cell>
-          <cell r="B46" t="str">
-            <v>FR</v>
-          </cell>
-          <cell r="C46">
-            <v>10.293642613613557</v>
-          </cell>
-          <cell r="D46">
-            <v>7.3472671158845388</v>
-          </cell>
-          <cell r="E46">
-            <v>7.5093831823619785</v>
-          </cell>
-          <cell r="F46">
-            <v>5.9395270400620452</v>
-          </cell>
-          <cell r="G46">
-            <v>7.5093831823619785</v>
-          </cell>
-          <cell r="H46">
-            <v>21.059326245366503</v>
-          </cell>
-          <cell r="I46">
-            <v>8.8933062996616652</v>
-          </cell>
-          <cell r="J46">
-            <v>8.4243636714395596</v>
-          </cell>
-          <cell r="K46">
-            <v>5.0233322124783237</v>
-          </cell>
-          <cell r="L46">
-            <v>7.6133467349419925</v>
-          </cell>
-          <cell r="M46">
-            <v>7.4215031276243826</v>
-          </cell>
-          <cell r="N46">
-            <v>7.3853135191998893</v>
-          </cell>
-          <cell r="O46">
-            <v>7.637185047848007</v>
-          </cell>
-          <cell r="P46">
-            <v>7.4597566976340843</v>
-          </cell>
-          <cell r="Q46">
-            <v>8.8794943637760131</v>
-          </cell>
-          <cell r="R46">
-            <v>8.4459579734299322</v>
-          </cell>
-          <cell r="S46">
-            <v>6.089886827428872</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>5</v>
-          </cell>
-          <cell r="B47" t="str">
-            <v>DE</v>
-          </cell>
-          <cell r="C47">
-            <v>11.934934613131688</v>
-          </cell>
-          <cell r="D47">
-            <v>10.386586091803004</v>
-          </cell>
-          <cell r="E47">
-            <v>10.507472295017593</v>
-          </cell>
-          <cell r="F47">
-            <v>8.2249791497255131</v>
-          </cell>
-          <cell r="G47">
-            <v>10.507472295017593</v>
-          </cell>
-          <cell r="H47">
-            <v>38.018427663073517</v>
-          </cell>
-          <cell r="I47">
-            <v>12.121273826201366</v>
-          </cell>
-          <cell r="J47">
-            <v>10.813009685406508</v>
-          </cell>
-          <cell r="K47">
-            <v>5.6218494180862457</v>
-          </cell>
-          <cell r="L47">
-            <v>10.711245428449237</v>
-          </cell>
-          <cell r="M47">
-            <v>10.285195913801186</v>
-          </cell>
-          <cell r="N47">
-            <v>10.144243056032701</v>
-          </cell>
-          <cell r="O47">
-            <v>10.312866627611932</v>
-          </cell>
-          <cell r="P47">
-            <v>8.5664477923070237</v>
-          </cell>
-          <cell r="Q47">
-            <v>10.30282400721994</v>
-          </cell>
-          <cell r="R47">
-            <v>9.0922809839462104</v>
-          </cell>
-          <cell r="S47">
-            <v>8.6646342408201349</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>8</v>
-          </cell>
-          <cell r="B48" t="str">
-            <v>EL</v>
-          </cell>
-          <cell r="C48">
-            <v>25.080583620742818</v>
-          </cell>
-          <cell r="D48">
-            <v>15.232607866753646</v>
-          </cell>
-          <cell r="E48">
-            <v>15.53488619906015</v>
-          </cell>
-          <cell r="F48">
-            <v>11.660317853410524</v>
-          </cell>
-          <cell r="G48">
-            <v>15.53488619906015</v>
-          </cell>
-          <cell r="H48">
-            <v>38.451210464003445</v>
-          </cell>
-          <cell r="I48">
-            <v>17.939040180706517</v>
-          </cell>
-          <cell r="J48">
-            <v>19.651322219640196</v>
-          </cell>
-          <cell r="K48">
-            <v>7.8504960593226016</v>
-          </cell>
-          <cell r="L48">
-            <v>16.862154698082573</v>
-          </cell>
-          <cell r="M48">
-            <v>16.426712020763762</v>
-          </cell>
-          <cell r="N48">
-            <v>16.503300053403464</v>
-          </cell>
-          <cell r="O48">
-            <v>16.26884789165846</v>
-          </cell>
-          <cell r="P48">
-            <v>12.038542453372763</v>
-          </cell>
-          <cell r="Q48">
-            <v>18.611505317916031</v>
-          </cell>
-          <cell r="R48">
-            <v>21.343566860612459</v>
-          </cell>
-          <cell r="S48">
-            <v>8.8245312976935324</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>12</v>
-          </cell>
-          <cell r="B49" t="str">
-            <v>HU</v>
-          </cell>
-          <cell r="C49">
-            <v>28.050430904276865</v>
-          </cell>
-          <cell r="D49">
-            <v>18.220549030814176</v>
-          </cell>
-          <cell r="E49">
-            <v>18.650264266440267</v>
-          </cell>
-          <cell r="F49">
-            <v>16.035214700451398</v>
-          </cell>
-          <cell r="G49">
-            <v>18.650264266440267</v>
-          </cell>
-          <cell r="H49">
-            <v>107.23672159327511</v>
-          </cell>
-          <cell r="I49">
-            <v>22.745579853370572</v>
-          </cell>
-          <cell r="J49">
-            <v>20.794835909980623</v>
-          </cell>
-          <cell r="K49">
-            <v>8.1904351295053761</v>
-          </cell>
-          <cell r="L49">
-            <v>19.124681231809216</v>
-          </cell>
-          <cell r="M49">
-            <v>19.190751074804837</v>
-          </cell>
-          <cell r="N49">
-            <v>19.538408995122754</v>
-          </cell>
-          <cell r="O49">
-            <v>19.892771975780352</v>
-          </cell>
-          <cell r="P49">
-            <v>19.617433695162951</v>
-          </cell>
-          <cell r="Q49">
-            <v>23.735990172949457</v>
-          </cell>
-          <cell r="R49">
-            <v>23.640331844372561</v>
-          </cell>
-          <cell r="S49">
-            <v>16.26491700917213</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>13</v>
-          </cell>
-          <cell r="B50" t="str">
-            <v>IE</v>
-          </cell>
-          <cell r="C50">
-            <v>9.3905161337161456</v>
-          </cell>
-          <cell r="D50">
-            <v>6.9577141564009928</v>
-          </cell>
-          <cell r="E50">
-            <v>7.194287481120929</v>
-          </cell>
-          <cell r="F50">
-            <v>4.4448781651789897</v>
-          </cell>
-          <cell r="G50">
-            <v>7.194287481120929</v>
-          </cell>
-          <cell r="H50">
-            <v>19.670982028544238</v>
-          </cell>
-          <cell r="I50">
-            <v>9.148260736828604</v>
-          </cell>
-          <cell r="J50">
-            <v>7.4344046463551701</v>
-          </cell>
-          <cell r="K50">
-            <v>2.8312351562527223</v>
-          </cell>
-          <cell r="L50">
-            <v>7.4523048042819404</v>
-          </cell>
-          <cell r="M50">
-            <v>7.2375250469058869</v>
-          </cell>
-          <cell r="N50">
-            <v>7.1147028725975048</v>
-          </cell>
-          <cell r="O50">
-            <v>7.9632161350870447</v>
-          </cell>
-          <cell r="P50">
-            <v>5.9339452689545595</v>
-          </cell>
-          <cell r="Q50">
-            <v>7.5547322753636177</v>
-          </cell>
-          <cell r="R50">
-            <v>6.1567603465024154</v>
-          </cell>
-          <cell r="S50">
-            <v>5.5790177371627339</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>14</v>
-          </cell>
-          <cell r="B51" t="str">
-            <v>IT</v>
-          </cell>
-          <cell r="C51">
-            <v>13.878198749609055</v>
-          </cell>
-          <cell r="D51">
-            <v>11.716094519689074</v>
-          </cell>
-          <cell r="E51">
-            <v>11.876904312356574</v>
-          </cell>
-          <cell r="F51">
-            <v>9.6432778431842312</v>
-          </cell>
-          <cell r="G51">
-            <v>11.876904312356574</v>
-          </cell>
-          <cell r="H51">
-            <v>30.366645715568872</v>
-          </cell>
-          <cell r="I51">
-            <v>12.811703010433176</v>
-          </cell>
-          <cell r="J51">
-            <v>11.256680193367595</v>
-          </cell>
-          <cell r="K51">
-            <v>7.0567695481475461</v>
-          </cell>
-          <cell r="L51">
-            <v>12.204294524877458</v>
-          </cell>
-          <cell r="M51">
-            <v>11.744091342032604</v>
-          </cell>
-          <cell r="N51">
-            <v>11.609495677133221</v>
-          </cell>
-          <cell r="O51">
-            <v>10.898127706934417</v>
-          </cell>
-          <cell r="P51">
-            <v>9.5832352084443411</v>
-          </cell>
-          <cell r="Q51">
-            <v>12.046207911642187</v>
-          </cell>
-          <cell r="R51">
-            <v>11.646050377106295</v>
-          </cell>
-          <cell r="S51">
-            <v>8.3415465129430029</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>15</v>
-          </cell>
-          <cell r="B52" t="str">
-            <v>LV</v>
-          </cell>
-          <cell r="C52">
-            <v>25.888011718776745</v>
-          </cell>
-          <cell r="D52">
-            <v>17.144026405972976</v>
-          </cell>
-          <cell r="E52">
-            <v>18.109802746759073</v>
-          </cell>
-          <cell r="F52">
-            <v>12.45050898928589</v>
-          </cell>
-          <cell r="G52">
-            <v>18.109802746759073</v>
-          </cell>
-          <cell r="H52">
-            <v>29.875621315649575</v>
-          </cell>
-          <cell r="I52">
-            <v>21.271214904736389</v>
-          </cell>
-          <cell r="J52">
-            <v>17.199281560285254</v>
-          </cell>
-          <cell r="K52">
-            <v>7.2607271725520608</v>
-          </cell>
-          <cell r="L52">
-            <v>18.857149106562577</v>
-          </cell>
-          <cell r="M52">
-            <v>18.555396381058124</v>
-          </cell>
-          <cell r="N52">
-            <v>18.660739923607181</v>
-          </cell>
-          <cell r="O52">
-            <v>18.109404198347178</v>
-          </cell>
-          <cell r="P52">
-            <v>16.444836642451161</v>
-          </cell>
-          <cell r="Q52">
-            <v>21.813094334006554</v>
-          </cell>
-          <cell r="R52">
-            <v>19.891959960453839</v>
-          </cell>
-          <cell r="S52">
-            <v>10.993156997665622</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>16</v>
-          </cell>
-          <cell r="B53" t="str">
-            <v>LT</v>
-          </cell>
-          <cell r="C53">
-            <v>23.026925012878344</v>
-          </cell>
-          <cell r="D53">
-            <v>14.657129533431169</v>
-          </cell>
-          <cell r="E53">
-            <v>15.408002896108618</v>
-          </cell>
-          <cell r="F53">
-            <v>10.40195084111653</v>
-          </cell>
-          <cell r="G53">
-            <v>15.408002896108618</v>
-          </cell>
-          <cell r="H53">
-            <v>33.538935474483992</v>
-          </cell>
-          <cell r="I53">
-            <v>18.377608208125459</v>
-          </cell>
-          <cell r="J53">
-            <v>23.340155054903946</v>
-          </cell>
-          <cell r="K53">
-            <v>6.1325470743503407</v>
-          </cell>
-          <cell r="L53">
-            <v>15.97846120192116</v>
-          </cell>
-          <cell r="M53">
-            <v>15.745200279133794</v>
-          </cell>
-          <cell r="N53">
-            <v>15.735268982398924</v>
-          </cell>
-          <cell r="O53">
-            <v>15.3113595831664</v>
-          </cell>
-          <cell r="P53">
-            <v>13.35099735334283</v>
-          </cell>
-          <cell r="Q53">
-            <v>18.613757694716217</v>
-          </cell>
-          <cell r="R53">
-            <v>17.950328488110401</v>
-          </cell>
-          <cell r="S53">
-            <v>9.3663774227274317</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>17</v>
-          </cell>
-          <cell r="B54" t="str">
-            <v>LU</v>
-          </cell>
-          <cell r="C54">
-            <v>9.3905161337161456</v>
-          </cell>
-          <cell r="D54">
-            <v>6.9577141564009928</v>
-          </cell>
-          <cell r="E54">
-            <v>7.194287481120929</v>
-          </cell>
-          <cell r="F54">
-            <v>4.4448781651789897</v>
-          </cell>
-          <cell r="G54">
-            <v>7.194287481120929</v>
-          </cell>
-          <cell r="H54">
-            <v>19.670982028544238</v>
-          </cell>
-          <cell r="I54">
-            <v>9.148260736828604</v>
-          </cell>
-          <cell r="J54">
-            <v>7.4344046463551701</v>
-          </cell>
-          <cell r="K54">
-            <v>2.8312351562527223</v>
-          </cell>
-          <cell r="L54">
-            <v>7.4523048042819404</v>
-          </cell>
-          <cell r="M54">
-            <v>7.2375250469058869</v>
-          </cell>
-          <cell r="N54">
-            <v>7.1147028725975048</v>
-          </cell>
-          <cell r="O54">
-            <v>7.9632161350870447</v>
-          </cell>
-          <cell r="P54">
-            <v>5.9339452689545595</v>
-          </cell>
-          <cell r="Q54">
-            <v>7.5547322753636177</v>
-          </cell>
-          <cell r="R54">
-            <v>6.1567603465024154</v>
-          </cell>
-          <cell r="S54">
-            <v>5.5790177371627339</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>18</v>
-          </cell>
-          <cell r="B55" t="str">
-            <v>MT</v>
-          </cell>
-          <cell r="C55">
-            <v>17.914548973749199</v>
-          </cell>
-          <cell r="D55">
-            <v>10.504988555638942</v>
-          </cell>
-          <cell r="E55">
-            <v>11.007025284883929</v>
-          </cell>
-          <cell r="F55">
-            <v>7.4733458719306309</v>
-          </cell>
-          <cell r="G55">
-            <v>11.007025284883929</v>
-          </cell>
-          <cell r="H55">
-            <v>41.140208345997095</v>
-          </cell>
-          <cell r="I55">
-            <v>12.271956680237299</v>
-          </cell>
-          <cell r="J55">
-            <v>10.388169383945845</v>
-          </cell>
-          <cell r="K55">
-            <v>4.3103703950983103</v>
-          </cell>
-          <cell r="L55">
-            <v>11.646822287008852</v>
-          </cell>
-          <cell r="M55">
-            <v>11.366752164976884</v>
-          </cell>
-          <cell r="N55">
-            <v>11.386371449114836</v>
-          </cell>
-          <cell r="O55">
-            <v>10.560805684766221</v>
-          </cell>
-          <cell r="P55">
-            <v>8.9233404951631119</v>
-          </cell>
-          <cell r="Q55">
-            <v>13.266257016966501</v>
-          </cell>
-          <cell r="R55">
-            <v>12.385272661398698</v>
-          </cell>
-          <cell r="S55">
-            <v>5.1851426565641336</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>19</v>
-          </cell>
-          <cell r="B56" t="str">
-            <v>NL</v>
-          </cell>
-          <cell r="C56">
-            <v>9.3905161337161456</v>
-          </cell>
-          <cell r="D56">
-            <v>6.9577141564009928</v>
-          </cell>
-          <cell r="E56">
-            <v>7.194287481120929</v>
-          </cell>
-          <cell r="F56">
-            <v>4.4448781651789897</v>
-          </cell>
-          <cell r="G56">
-            <v>7.194287481120929</v>
-          </cell>
-          <cell r="H56">
-            <v>19.670982028544238</v>
-          </cell>
-          <cell r="I56">
-            <v>9.148260736828604</v>
-          </cell>
-          <cell r="J56">
-            <v>7.4344046463551701</v>
-          </cell>
-          <cell r="K56">
-            <v>2.8312351562527223</v>
-          </cell>
-          <cell r="L56">
-            <v>7.4523048042819404</v>
-          </cell>
-          <cell r="M56">
-            <v>7.2375250469058869</v>
-          </cell>
-          <cell r="N56">
-            <v>7.1147028725975048</v>
-          </cell>
-          <cell r="O56">
-            <v>7.9632161350870447</v>
-          </cell>
-          <cell r="P56">
-            <v>5.9339452689545595</v>
-          </cell>
-          <cell r="Q56">
-            <v>7.5547322753636177</v>
-          </cell>
-          <cell r="R56">
-            <v>6.1567603465024154</v>
-          </cell>
-          <cell r="S56">
-            <v>5.5790177371627339</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>20</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v>PL</v>
-          </cell>
-          <cell r="C57">
-            <v>24.837332739769714</v>
-          </cell>
-          <cell r="D57">
-            <v>17.458417557459192</v>
-          </cell>
-          <cell r="E57">
-            <v>17.567763576614876</v>
-          </cell>
-          <cell r="F57">
-            <v>15.594505750092067</v>
-          </cell>
-          <cell r="G57">
-            <v>17.567763576614876</v>
-          </cell>
-          <cell r="H57">
-            <v>34.24610944560137</v>
-          </cell>
-          <cell r="I57">
-            <v>20.054190983972166</v>
-          </cell>
-          <cell r="J57">
-            <v>18.349756820924224</v>
-          </cell>
-          <cell r="K57">
-            <v>13.597694858967589</v>
-          </cell>
-          <cell r="L57">
-            <v>18.087184261087181</v>
-          </cell>
-          <cell r="M57">
-            <v>17.542159815476786</v>
-          </cell>
-          <cell r="N57">
-            <v>17.675286864937682</v>
-          </cell>
-          <cell r="O57">
-            <v>17.756504614700866</v>
-          </cell>
-          <cell r="P57">
-            <v>14.225495057468212</v>
-          </cell>
-          <cell r="Q57">
-            <v>18.144069551306679</v>
-          </cell>
-          <cell r="R57">
-            <v>19.700257137294454</v>
-          </cell>
-          <cell r="S57">
-            <v>16.217362454004732</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>21</v>
-          </cell>
-          <cell r="B58" t="str">
-            <v>PT</v>
-          </cell>
-          <cell r="C58">
-            <v>22.003847643338069</v>
-          </cell>
-          <cell r="D58">
-            <v>14.31770587587553</v>
-          </cell>
-          <cell r="E58">
-            <v>14.889328349746938</v>
-          </cell>
-          <cell r="F58">
-            <v>12.362249646534746</v>
-          </cell>
-          <cell r="G58">
-            <v>14.889328349746938</v>
-          </cell>
-          <cell r="H58">
-            <v>44.383424549791691</v>
-          </cell>
-          <cell r="I58">
-            <v>16.705308788763443</v>
-          </cell>
-          <cell r="J58">
-            <v>16.70585037979637</v>
-          </cell>
-          <cell r="K58">
-            <v>8.05905756349404</v>
-          </cell>
-          <cell r="L58">
-            <v>15.202623734824577</v>
-          </cell>
-          <cell r="M58">
-            <v>15.264026671931394</v>
-          </cell>
-          <cell r="N58">
-            <v>15.465549838244009</v>
-          </cell>
-          <cell r="O58">
-            <v>14.88331303248053</v>
-          </cell>
-          <cell r="P58">
-            <v>13.788064034486114</v>
-          </cell>
-          <cell r="Q58">
-            <v>18.161804718200933</v>
-          </cell>
-          <cell r="R58">
-            <v>18.820312429279113</v>
-          </cell>
-          <cell r="S58">
-            <v>11.0477025710798</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>26</v>
-          </cell>
-          <cell r="B59" t="str">
-            <v>RO</v>
-          </cell>
-          <cell r="C59">
-            <v>32.221372989303006</v>
-          </cell>
-          <cell r="D59">
-            <v>22.959297855928476</v>
-          </cell>
-          <cell r="E59">
-            <v>23.661273870797999</v>
-          </cell>
-          <cell r="F59">
-            <v>21.411715519594047</v>
-          </cell>
-          <cell r="G59">
-            <v>23.661273870797999</v>
-          </cell>
-          <cell r="H59">
-            <v>75.583633782583661</v>
-          </cell>
-          <cell r="I59">
-            <v>28.590184856009181</v>
-          </cell>
-          <cell r="J59">
-            <v>24.28364546278177</v>
-          </cell>
-          <cell r="K59">
-            <v>14.737331120861484</v>
-          </cell>
-          <cell r="L59">
-            <v>23.055836276579477</v>
-          </cell>
-          <cell r="M59">
-            <v>23.007430621899591</v>
-          </cell>
-          <cell r="N59">
-            <v>23.461353272051113</v>
-          </cell>
-          <cell r="O59">
-            <v>24.134849397416087</v>
-          </cell>
-          <cell r="P59">
-            <v>31.357797639674924</v>
-          </cell>
-          <cell r="Q59">
-            <v>31.688930345264826</v>
-          </cell>
-          <cell r="R59">
-            <v>37.701785057866552</v>
-          </cell>
-          <cell r="S59">
-            <v>28.014738227909028</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>22</v>
-          </cell>
-          <cell r="B60" t="str">
-            <v>SK</v>
-          </cell>
-          <cell r="C60">
-            <v>20.128146425411202</v>
-          </cell>
-          <cell r="D60">
-            <v>15.211088765937061</v>
-          </cell>
-          <cell r="E60">
-            <v>15.710056665102689</v>
-          </cell>
-          <cell r="F60">
-            <v>12.058956309960271</v>
-          </cell>
-          <cell r="G60">
-            <v>15.710056665102689</v>
-          </cell>
-          <cell r="H60">
-            <v>48.103470659133976</v>
-          </cell>
-          <cell r="I60">
-            <v>18.666331543365253</v>
-          </cell>
-          <cell r="J60">
-            <v>19.321913673573402</v>
-          </cell>
-          <cell r="K60">
-            <v>8.3474080189095154</v>
-          </cell>
-          <cell r="L60">
-            <v>15.760994382906127</v>
-          </cell>
-          <cell r="M60">
-            <v>15.240701456646974</v>
-          </cell>
-          <cell r="N60">
-            <v>15.191292662224321</v>
-          </cell>
-          <cell r="O60">
-            <v>15.023754145108423</v>
-          </cell>
-          <cell r="P60">
-            <v>14.992394449643642</v>
-          </cell>
-          <cell r="Q60">
-            <v>17.923294768906452</v>
-          </cell>
-          <cell r="R60">
-            <v>16.562150369434054</v>
-          </cell>
-          <cell r="S60">
-            <v>13.662231159891675</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>23</v>
-          </cell>
-          <cell r="B61" t="str">
-            <v>SI</v>
-          </cell>
-          <cell r="C61">
-            <v>19.280766350496176</v>
-          </cell>
-          <cell r="D61">
-            <v>15.648350770524591</v>
-          </cell>
-          <cell r="E61">
-            <v>15.981580789673597</v>
-          </cell>
-          <cell r="F61">
-            <v>14.911214995820508</v>
-          </cell>
-          <cell r="G61">
-            <v>15.981580789673597</v>
-          </cell>
-          <cell r="H61">
-            <v>31.407883829739568</v>
-          </cell>
-          <cell r="I61">
-            <v>17.075845881332324</v>
-          </cell>
-          <cell r="J61">
-            <v>16.739757667784115</v>
-          </cell>
-          <cell r="K61">
-            <v>6.7921513967239369</v>
-          </cell>
-          <cell r="L61">
-            <v>16.185871698473818</v>
-          </cell>
-          <cell r="M61">
-            <v>15.753118041332851</v>
-          </cell>
-          <cell r="N61">
-            <v>16.050108012220285</v>
-          </cell>
-          <cell r="O61">
-            <v>13.992450147126547</v>
-          </cell>
-          <cell r="P61">
-            <v>11.311808935485166</v>
-          </cell>
-          <cell r="Q61">
-            <v>16.401245513010952</v>
-          </cell>
-          <cell r="R61">
-            <v>14.467468262842498</v>
-          </cell>
-          <cell r="S61">
-            <v>9.9470287115139051</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>24</v>
-          </cell>
-          <cell r="B62" t="str">
-            <v>ES</v>
-          </cell>
-          <cell r="C62">
-            <v>14.590189767978215</v>
-          </cell>
-          <cell r="D62">
-            <v>11.113427894302321</v>
-          </cell>
-          <cell r="E62">
-            <v>11.280834026898832</v>
-          </cell>
-          <cell r="F62">
-            <v>8.8927791975693644</v>
-          </cell>
-          <cell r="G62">
-            <v>11.280834026898832</v>
-          </cell>
-          <cell r="H62">
-            <v>27.926423005837908</v>
-          </cell>
-          <cell r="I62">
-            <v>13.546047673276206</v>
-          </cell>
-          <cell r="J62">
-            <v>11.59447422442733</v>
-          </cell>
-          <cell r="K62">
-            <v>7.67549158665273</v>
-          </cell>
-          <cell r="L62">
-            <v>11.545475808436963</v>
-          </cell>
-          <cell r="M62">
-            <v>11.138700967540361</v>
-          </cell>
-          <cell r="N62">
-            <v>11.087776387606981</v>
-          </cell>
-          <cell r="O62">
-            <v>11.73171803149453</v>
-          </cell>
-          <cell r="P62">
-            <v>10.546753354251239</v>
-          </cell>
-          <cell r="Q62">
-            <v>12.64368741452928</v>
-          </cell>
-          <cell r="R62">
-            <v>12.06807080496206</v>
-          </cell>
-          <cell r="S62">
-            <v>9.4676781378516104</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>25</v>
-          </cell>
-          <cell r="B63" t="str">
-            <v>SE</v>
-          </cell>
-          <cell r="C63">
-            <v>7.9635798108200095</v>
-          </cell>
-          <cell r="D63">
-            <v>6.3299933756521352</v>
-          </cell>
-          <cell r="E63">
-            <v>6.5754496246057581</v>
-          </cell>
-          <cell r="F63">
-            <v>4.6851563883730307</v>
-          </cell>
-          <cell r="G63">
-            <v>6.5754496246057581</v>
-          </cell>
-          <cell r="H63">
-            <v>11.963112174702776</v>
-          </cell>
-          <cell r="I63">
-            <v>7.3682389045744721</v>
-          </cell>
-          <cell r="J63">
-            <v>6.3789417514576519</v>
-          </cell>
-          <cell r="K63">
-            <v>4.0586799215370402</v>
-          </cell>
-          <cell r="L63">
-            <v>6.5790888188991907</v>
-          </cell>
-          <cell r="M63">
-            <v>6.3020037568469061</v>
-          </cell>
-          <cell r="N63">
-            <v>6.1856421166952469</v>
-          </cell>
-          <cell r="O63">
-            <v>5.8623350015416609</v>
-          </cell>
-          <cell r="P63">
-            <v>5.1427414132875553</v>
-          </cell>
-          <cell r="Q63">
-            <v>6.9664618403216583</v>
-          </cell>
-          <cell r="R63">
-            <v>6.2026208340359457</v>
-          </cell>
-          <cell r="S63">
-            <v>4.4240670283293433</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>0</v>
-          </cell>
-          <cell r="B64" t="str">
-            <v>EU27</v>
-          </cell>
-          <cell r="C64">
-            <v>12.94476883976516</v>
-          </cell>
-          <cell r="D64">
-            <v>10.046372027317455</v>
-          </cell>
-          <cell r="E64">
-            <v>10.232314386382919</v>
-          </cell>
-          <cell r="F64">
-            <v>8.0806370130367196</v>
-          </cell>
-          <cell r="G64">
-            <v>10.232314386382919</v>
-          </cell>
-          <cell r="H64">
-            <v>30.069013389574728</v>
-          </cell>
-          <cell r="I64">
-            <v>11.842936954845236</v>
-          </cell>
-          <cell r="J64">
-            <v>10.638036258194562</v>
-          </cell>
-          <cell r="K64">
-            <v>6.0248855599525033</v>
-          </cell>
-          <cell r="L64">
-            <v>10.452224033178426</v>
-          </cell>
-          <cell r="M64">
-            <v>10.124949213683193</v>
-          </cell>
-          <cell r="N64">
-            <v>10.06002130510689</v>
-          </cell>
-          <cell r="O64">
-            <v>10.163010148791944</v>
-          </cell>
-          <cell r="P64">
-            <v>8.8770076236250972</v>
-          </cell>
-          <cell r="Q64">
-            <v>10.96460329375337</v>
-          </cell>
-          <cell r="R64">
-            <v>10.450714939736411</v>
-          </cell>
-          <cell r="S64">
-            <v>8.0970148786181664</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3985,7 +426,7 @@
   <dimension ref="A1:D785"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4020,7 +461,6 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <f>VLOOKUP(A2,[1]data!$A$2:$S$31,MATCH(C2,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.67593217160277674</v>
       </c>
     </row>
@@ -4035,7 +475,6 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <f>VLOOKUP(A3,[1]data!$A$2:$S$31,MATCH(C3,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.55818763495127666</v>
       </c>
     </row>
@@ -4050,7 +489,6 @@
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <f>VLOOKUP(A4,[1]data!$A$2:$S$31,MATCH(C4,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.56889837619550732</v>
       </c>
     </row>
@@ -4065,7 +503,6 @@
         <v>4</v>
       </c>
       <c r="D5" s="1">
-        <f>VLOOKUP(A5,[1]data!$A$2:$S$31,MATCH(C5,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.46466447212273693</v>
       </c>
     </row>
@@ -4080,7 +517,6 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <f>VLOOKUP(A6,[1]data!$A$2:$S$31,MATCH(C6,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.56889837619550732</v>
       </c>
     </row>
@@ -4095,7 +531,6 @@
         <v>6</v>
       </c>
       <c r="D7" s="1">
-        <f>VLOOKUP(A7,[1]data!$A$2:$S$31,MATCH(C7,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.78642917649067057</v>
       </c>
     </row>
@@ -4110,7 +545,6 @@
         <v>7</v>
       </c>
       <c r="D8" s="1">
-        <f>VLOOKUP(A8,[1]data!$A$2:$S$31,MATCH(C8,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.60813125006160829</v>
       </c>
     </row>
@@ -4125,7 +559,6 @@
         <v>8</v>
       </c>
       <c r="D9" s="1">
-        <f>VLOOKUP(A9,[1]data!$A$2:$S$31,MATCH(C9,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.60309150672508605</v>
       </c>
     </row>
@@ -4140,7 +573,6 @@
         <v>10</v>
       </c>
       <c r="D10" s="1">
-        <f>VLOOKUP(A10,[1]data!$A$2:$S$31,MATCH(C10,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.57815207144298297</v>
       </c>
     </row>
@@ -4155,7 +587,6 @@
         <v>11</v>
       </c>
       <c r="D11" s="1">
-        <f>VLOOKUP(A11,[1]data!$A$2:$S$31,MATCH(C11,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.55903032294647814</v>
       </c>
     </row>
@@ -4170,7 +601,6 @@
         <v>12</v>
       </c>
       <c r="D12" s="1">
-        <f>VLOOKUP(A12,[1]data!$A$2:$S$31,MATCH(C12,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.55296213629396329</v>
       </c>
     </row>
@@ -4185,7 +615,6 @@
         <v>13</v>
       </c>
       <c r="D13" s="1">
-        <f>VLOOKUP(A13,[1]data!$A$2:$S$31,MATCH(C13,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.52185995095479409</v>
       </c>
     </row>
@@ -4200,7 +629,6 @@
         <v>15</v>
       </c>
       <c r="D14" s="1">
-        <f>VLOOKUP(A14,[1]data!$A$2:$S$31,MATCH(C14,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.64124805366874715</v>
       </c>
     </row>
@@ -4215,7 +643,6 @@
         <v>17</v>
       </c>
       <c r="D15" s="1">
-        <f>VLOOKUP(A15,[1]data!$A$2:$S$31,MATCH(C15,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43889414936328275</v>
       </c>
     </row>
@@ -4230,7 +657,6 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <f>VLOOKUP(A2,[1]data!$A$35:$S$64,MATCH(C2,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.294476883976516E-5</v>
       </c>
     </row>
@@ -4245,7 +671,6 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <f>VLOOKUP(A3,[1]data!$A$35:$S$64,MATCH(C3,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0046372027317456E-5</v>
       </c>
     </row>
@@ -4260,7 +685,6 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <f>VLOOKUP(A4,[1]data!$A$35:$S$64,MATCH(C4,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0232314386382919E-5</v>
       </c>
     </row>
@@ -4275,7 +699,6 @@
         <v>4</v>
       </c>
       <c r="D19">
-        <f>VLOOKUP(A5,[1]data!$A$35:$S$64,MATCH(C5,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.0806370130367194E-6</v>
       </c>
     </row>
@@ -4290,7 +713,6 @@
         <v>5</v>
       </c>
       <c r="D20">
-        <f>VLOOKUP(A6,[1]data!$A$35:$S$64,MATCH(C6,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0232314386382919E-5</v>
       </c>
     </row>
@@ -4305,7 +727,6 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <f>VLOOKUP(A7,[1]data!$A$35:$S$64,MATCH(C7,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>3.0069013389574727E-5</v>
       </c>
     </row>
@@ -4320,7 +741,6 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <f>VLOOKUP(A8,[1]data!$A$35:$S$64,MATCH(C8,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1842936954845235E-5</v>
       </c>
     </row>
@@ -4335,7 +755,6 @@
         <v>8</v>
       </c>
       <c r="D23">
-        <f>VLOOKUP(A9,[1]data!$A$35:$S$64,MATCH(C9,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0638036258194562E-5</v>
       </c>
     </row>
@@ -4350,7 +769,6 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <f>VLOOKUP(A10,[1]data!$A$35:$S$64,MATCH(C10,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0452224033178427E-5</v>
       </c>
     </row>
@@ -4365,7 +783,6 @@
         <v>11</v>
       </c>
       <c r="D25">
-        <f>VLOOKUP(A11,[1]data!$A$35:$S$64,MATCH(C11,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0124949213683193E-5</v>
       </c>
     </row>
@@ -4380,7 +797,6 @@
         <v>12</v>
       </c>
       <c r="D26">
-        <f>VLOOKUP(A12,[1]data!$A$35:$S$64,MATCH(C12,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.006002130510689E-5</v>
       </c>
     </row>
@@ -4395,7 +811,6 @@
         <v>13</v>
       </c>
       <c r="D27">
-        <f>VLOOKUP(A13,[1]data!$A$35:$S$64,MATCH(C13,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0163010148791944E-5</v>
       </c>
     </row>
@@ -4410,7 +825,6 @@
         <v>15</v>
       </c>
       <c r="D28">
-        <f>VLOOKUP(A14,[1]data!$A$35:$S$64,MATCH(C14,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0964603293753371E-5</v>
       </c>
     </row>
@@ -4425,7 +839,6 @@
         <v>17</v>
       </c>
       <c r="D29">
-        <f>VLOOKUP(A15,[1]data!$A$35:$S$64,MATCH(C15,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.097014878618166E-6</v>
       </c>
     </row>
@@ -4440,7 +853,6 @@
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <f>VLOOKUP(A30,[1]data!$A$2:$S$31,MATCH(C30,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.65735720858421387</v>
       </c>
     </row>
@@ -4455,7 +867,6 @@
         <v>2</v>
       </c>
       <c r="D31" s="1">
-        <f>VLOOKUP(A31,[1]data!$A$2:$S$31,MATCH(C31,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.51955055534976835</v>
       </c>
     </row>
@@ -4470,7 +881,6 @@
         <v>3</v>
       </c>
       <c r="D32" s="1">
-        <f>VLOOKUP(A32,[1]data!$A$2:$S$31,MATCH(C32,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.5268756615452469</v>
       </c>
     </row>
@@ -4485,7 +895,6 @@
         <v>4</v>
       </c>
       <c r="D33" s="1">
-        <f>VLOOKUP(A33,[1]data!$A$2:$S$31,MATCH(C33,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44760549293547663</v>
       </c>
     </row>
@@ -4500,7 +909,6 @@
         <v>5</v>
       </c>
       <c r="D34" s="1">
-        <f>VLOOKUP(A34,[1]data!$A$2:$S$31,MATCH(C34,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.5268756615452469</v>
       </c>
     </row>
@@ -4515,7 +923,6 @@
         <v>6</v>
       </c>
       <c r="D35" s="1">
-        <f>VLOOKUP(A35,[1]data!$A$2:$S$31,MATCH(C35,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.69620979353877788</v>
       </c>
     </row>
@@ -4530,7 +937,6 @@
         <v>7</v>
       </c>
       <c r="D36" s="1">
-        <f>VLOOKUP(A36,[1]data!$A$2:$S$31,MATCH(C36,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.56173180539043677</v>
       </c>
     </row>
@@ -4545,7 +951,6 @@
         <v>8</v>
       </c>
       <c r="D37" s="1">
-        <f>VLOOKUP(A37,[1]data!$A$2:$S$31,MATCH(C37,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.59207135131026989</v>
       </c>
     </row>
@@ -4560,7 +965,6 @@
         <v>10</v>
       </c>
       <c r="D38" s="1">
-        <f>VLOOKUP(A38,[1]data!$A$2:$S$31,MATCH(C38,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.54100077301055149</v>
       </c>
     </row>
@@ -4575,7 +979,6 @@
         <v>11</v>
       </c>
       <c r="D39" s="1">
-        <f>VLOOKUP(A39,[1]data!$A$2:$S$31,MATCH(C39,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.52808846286800859</v>
       </c>
     </row>
@@ -4590,7 +993,6 @@
         <v>12</v>
       </c>
       <c r="D40" s="1">
-        <f>VLOOKUP(A40,[1]data!$A$2:$S$31,MATCH(C40,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.52591529239737211</v>
       </c>
     </row>
@@ -4605,7 +1007,6 @@
         <v>13</v>
       </c>
       <c r="D41" s="1">
-        <f>VLOOKUP(A41,[1]data!$A$2:$S$31,MATCH(C41,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.4996726565271013</v>
       </c>
     </row>
@@ -4620,7 +1021,6 @@
         <v>15</v>
       </c>
       <c r="D42" s="1">
-        <f>VLOOKUP(A42,[1]data!$A$2:$S$31,MATCH(C42,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.54255173255366096</v>
       </c>
     </row>
@@ -4635,7 +1035,6 @@
         <v>17</v>
       </c>
       <c r="D43" s="1">
-        <f>VLOOKUP(A43,[1]data!$A$2:$S$31,MATCH(C43,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.35462449090414999</v>
       </c>
     </row>
@@ -4650,7 +1049,6 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <f>VLOOKUP(A30,[1]data!$A$35:$S$64,MATCH(C30,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>9.4327152656947128E-6</v>
       </c>
     </row>
@@ -4665,7 +1063,6 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <f>VLOOKUP(A31,[1]data!$A$35:$S$64,MATCH(C31,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.1397024841540276E-6</v>
       </c>
     </row>
@@ -4680,7 +1077,6 @@
         <v>3</v>
       </c>
       <c r="D46">
-        <f>VLOOKUP(A32,[1]data!$A$35:$S$64,MATCH(C32,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.2892240904536551E-6</v>
       </c>
     </row>
@@ -4695,7 +1091,6 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <f>VLOOKUP(A33,[1]data!$A$35:$S$64,MATCH(C33,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.4419928476351787E-6</v>
       </c>
     </row>
@@ -4710,7 +1105,6 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <f>VLOOKUP(A34,[1]data!$A$35:$S$64,MATCH(C34,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.2892240904536551E-6</v>
       </c>
     </row>
@@ -4725,7 +1119,6 @@
         <v>6</v>
       </c>
       <c r="D49">
-        <f>VLOOKUP(A35,[1]data!$A$35:$S$64,MATCH(C35,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.1259889521782198E-5</v>
       </c>
     </row>
@@ -4740,7 +1133,6 @@
         <v>7</v>
       </c>
       <c r="D50">
-        <f>VLOOKUP(A36,[1]data!$A$35:$S$64,MATCH(C36,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.7501187284034728E-6</v>
       </c>
     </row>
@@ -4755,7 +1147,6 @@
         <v>8</v>
       </c>
       <c r="D51">
-        <f>VLOOKUP(A37,[1]data!$A$35:$S$64,MATCH(C37,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.9832247484416214E-6</v>
       </c>
     </row>
@@ -4770,7 +1161,6 @@
         <v>10</v>
       </c>
       <c r="D52">
-        <f>VLOOKUP(A38,[1]data!$A$35:$S$64,MATCH(C38,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.4617324739712533E-6</v>
       </c>
     </row>
@@ -4785,7 +1175,6 @@
         <v>11</v>
       </c>
       <c r="D53">
-        <f>VLOOKUP(A39,[1]data!$A$35:$S$64,MATCH(C39,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.2682469880309352E-6</v>
       </c>
     </row>
@@ -4800,7 +1189,6 @@
         <v>12</v>
       </c>
       <c r="D54">
-        <f>VLOOKUP(A40,[1]data!$A$35:$S$64,MATCH(C40,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.2003808065176377E-6</v>
       </c>
     </row>
@@ -4815,7 +1203,6 @@
         <v>13</v>
       </c>
       <c r="D55">
-        <f>VLOOKUP(A41,[1]data!$A$35:$S$64,MATCH(C41,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.5913829699627921E-6</v>
       </c>
     </row>
@@ -4830,7 +1217,6 @@
         <v>15</v>
       </c>
       <c r="D56">
-        <f>VLOOKUP(A42,[1]data!$A$35:$S$64,MATCH(C42,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.1380876038643839E-6</v>
       </c>
     </row>
@@ -4845,7 +1231,6 @@
         <v>17</v>
       </c>
       <c r="D57">
-        <f>VLOOKUP(A43,[1]data!$A$35:$S$64,MATCH(C43,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.1165966373412889E-6</v>
       </c>
     </row>
@@ -4860,7 +1245,6 @@
         <v>1</v>
       </c>
       <c r="D58" s="1">
-        <f>VLOOKUP(A58,[1]data!$A$2:$S$31,MATCH(C58,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.55814019265076453</v>
       </c>
     </row>
@@ -4875,7 +1259,6 @@
         <v>2</v>
       </c>
       <c r="D59" s="1">
-        <f>VLOOKUP(A59,[1]data!$A$2:$S$31,MATCH(C59,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.39522349284335712</v>
       </c>
     </row>
@@ -4890,7 +1273,6 @@
         <v>3</v>
       </c>
       <c r="D60" s="1">
-        <f>VLOOKUP(A60,[1]data!$A$2:$S$31,MATCH(C60,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.41077789765580808</v>
       </c>
     </row>
@@ -4905,7 +1287,6 @@
         <v>4</v>
       </c>
       <c r="D61" s="1">
-        <f>VLOOKUP(A61,[1]data!$A$2:$S$31,MATCH(C61,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.30754824893966554</v>
       </c>
     </row>
@@ -4920,7 +1301,6 @@
         <v>5</v>
       </c>
       <c r="D62" s="1">
-        <f>VLOOKUP(A62,[1]data!$A$2:$S$31,MATCH(C62,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.41077789765580808</v>
       </c>
     </row>
@@ -4935,7 +1315,6 @@
         <v>6</v>
       </c>
       <c r="D63" s="1">
-        <f>VLOOKUP(A63,[1]data!$A$2:$S$31,MATCH(C63,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.68041742732500055</v>
       </c>
     </row>
@@ -4950,7 +1329,6 @@
         <v>7</v>
       </c>
       <c r="D64" s="1">
-        <f>VLOOKUP(A64,[1]data!$A$2:$S$31,MATCH(C64,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44925316878584132</v>
       </c>
     </row>
@@ -4965,7 +1343,6 @@
         <v>8</v>
       </c>
       <c r="D65" s="1">
-        <f>VLOOKUP(A65,[1]data!$A$2:$S$31,MATCH(C65,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43827236219860399</v>
       </c>
     </row>
@@ -4980,7 +1357,6 @@
         <v>10</v>
       </c>
       <c r="D66" s="1">
-        <f>VLOOKUP(A66,[1]data!$A$2:$S$31,MATCH(C66,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.4164800670710746</v>
       </c>
     </row>
@@ -4995,7 +1371,6 @@
         <v>11</v>
       </c>
       <c r="D67" s="1">
-        <f>VLOOKUP(A67,[1]data!$A$2:$S$31,MATCH(C67,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.40391364293542675</v>
       </c>
     </row>
@@ -5010,7 +1385,6 @@
         <v>12</v>
       </c>
       <c r="D68" s="1">
-        <f>VLOOKUP(A68,[1]data!$A$2:$S$31,MATCH(C68,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.40130518600928894</v>
       </c>
     </row>
@@ -5025,7 +1399,6 @@
         <v>13</v>
       </c>
       <c r="D69" s="1">
-        <f>VLOOKUP(A69,[1]data!$A$2:$S$31,MATCH(C69,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.38394401772463921</v>
       </c>
     </row>
@@ -5040,7 +1413,6 @@
         <v>15</v>
       </c>
       <c r="D70" s="1">
-        <f>VLOOKUP(A70,[1]data!$A$2:$S$31,MATCH(C70,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.47246692384365829</v>
       </c>
     </row>
@@ -5055,7 +1427,6 @@
         <v>17</v>
       </c>
       <c r="D71" s="1">
-        <f>VLOOKUP(A71,[1]data!$A$2:$S$31,MATCH(C71,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.22526826226095348</v>
       </c>
     </row>
@@ -5070,7 +1441,6 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <f>VLOOKUP(A58,[1]data!$A$35:$S$64,MATCH(C58,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.4767840472958792E-6</v>
       </c>
     </row>
@@ -5085,7 +1455,6 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <f>VLOOKUP(A59,[1]data!$A$35:$S$64,MATCH(C59,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.1357591853214834E-6</v>
       </c>
     </row>
@@ -5100,7 +1469,6 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <f>VLOOKUP(A60,[1]data!$A$35:$S$64,MATCH(C60,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.3255718434058651E-6</v>
       </c>
     </row>
@@ -5115,7 +1483,6 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <f>VLOOKUP(A61,[1]data!$A$35:$S$64,MATCH(C61,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>4.1255950313065703E-6</v>
       </c>
     </row>
@@ -5130,7 +1497,6 @@
         <v>5</v>
       </c>
       <c r="D76">
-        <f>VLOOKUP(A62,[1]data!$A$35:$S$64,MATCH(C62,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.3255718434058651E-6</v>
       </c>
     </row>
@@ -5145,7 +1511,6 @@
         <v>6</v>
       </c>
       <c r="D77">
-        <f>VLOOKUP(A63,[1]data!$A$35:$S$64,MATCH(C63,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.651781093798642E-5</v>
       </c>
     </row>
@@ -5160,7 +1525,6 @@
         <v>7</v>
       </c>
       <c r="D78">
-        <f>VLOOKUP(A64,[1]data!$A$35:$S$64,MATCH(C64,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.0994963900889999E-6</v>
       </c>
     </row>
@@ -5175,7 +1539,6 @@
         <v>8</v>
       </c>
       <c r="D79">
-        <f>VLOOKUP(A65,[1]data!$A$35:$S$64,MATCH(C65,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.4625091687779032E-6</v>
       </c>
     </row>
@@ -5190,7 +1553,6 @@
         <v>10</v>
       </c>
       <c r="D80">
-        <f>VLOOKUP(A66,[1]data!$A$35:$S$64,MATCH(C66,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.4571261720635074E-6</v>
       </c>
     </row>
@@ -5205,7 +1567,6 @@
         <v>11</v>
       </c>
       <c r="D81">
-        <f>VLOOKUP(A67,[1]data!$A$35:$S$64,MATCH(C67,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.3320030173641227E-6</v>
       </c>
     </row>
@@ -5220,7 +1581,6 @@
         <v>12</v>
       </c>
       <c r="D82">
-        <f>VLOOKUP(A68,[1]data!$A$35:$S$64,MATCH(C68,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.3712643272881094E-6</v>
       </c>
     </row>
@@ -5235,7 +1595,6 @@
         <v>13</v>
       </c>
       <c r="D83">
-        <f>VLOOKUP(A69,[1]data!$A$35:$S$64,MATCH(C69,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.3455480896956505E-6</v>
       </c>
     </row>
@@ -5250,7 +1609,6 @@
         <v>15</v>
       </c>
       <c r="D84">
-        <f>VLOOKUP(A70,[1]data!$A$35:$S$64,MATCH(C70,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.8896312698767606E-6</v>
       </c>
     </row>
@@ -5265,7 +1623,6 @@
         <v>17</v>
       </c>
       <c r="D85">
-        <f>VLOOKUP(A71,[1]data!$A$35:$S$64,MATCH(C71,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>3.4416468334634801E-6</v>
       </c>
     </row>
@@ -5280,7 +1637,6 @@
         <v>1</v>
       </c>
       <c r="D86" s="1">
-        <f>VLOOKUP(A86,[1]data!$A$2:$S$31,MATCH(C86,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.56273426328641407</v>
       </c>
     </row>
@@ -5295,7 +1651,6 @@
         <v>2</v>
       </c>
       <c r="D87" s="1">
-        <f>VLOOKUP(A87,[1]data!$A$2:$S$31,MATCH(C87,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.32673803625882858</v>
       </c>
     </row>
@@ -5310,7 +1665,6 @@
         <v>3</v>
       </c>
       <c r="D88" s="1">
-        <f>VLOOKUP(A88,[1]data!$A$2:$S$31,MATCH(C88,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.35091937072058454</v>
       </c>
     </row>
@@ -5325,7 +1679,6 @@
         <v>4</v>
       </c>
       <c r="D89" s="1">
-        <f>VLOOKUP(A89,[1]data!$A$2:$S$31,MATCH(C89,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.20824182371601466</v>
       </c>
     </row>
@@ -5340,7 +1693,6 @@
         <v>5</v>
       </c>
       <c r="D90" s="1">
-        <f>VLOOKUP(A90,[1]data!$A$2:$S$31,MATCH(C90,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.35091937072058454</v>
       </c>
     </row>
@@ -5355,7 +1707,6 @@
         <v>6</v>
       </c>
       <c r="D91" s="1">
-        <f>VLOOKUP(A91,[1]data!$A$2:$S$31,MATCH(C91,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.69749426692908079</v>
       </c>
     </row>
@@ -5370,7 +1721,6 @@
         <v>7</v>
       </c>
       <c r="D92" s="1">
-        <f>VLOOKUP(A92,[1]data!$A$2:$S$31,MATCH(C92,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.38152458948556117</v>
       </c>
     </row>
@@ -5385,7 +1735,6 @@
         <v>8</v>
       </c>
       <c r="D93" s="1">
-        <f>VLOOKUP(A93,[1]data!$A$2:$S$31,MATCH(C93,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.40056855724566959</v>
       </c>
     </row>
@@ -5400,7 +1749,6 @@
         <v>10</v>
       </c>
       <c r="D94" s="1">
-        <f>VLOOKUP(A94,[1]data!$A$2:$S$31,MATCH(C94,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.36167935728951622</v>
       </c>
     </row>
@@ -5415,7 +1763,6 @@
         <v>11</v>
       </c>
       <c r="D95" s="1">
-        <f>VLOOKUP(A95,[1]data!$A$2:$S$31,MATCH(C95,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.35676772222284109</v>
       </c>
     </row>
@@ -5430,7 +1777,6 @@
         <v>12</v>
       </c>
       <c r="D96" s="1">
-        <f>VLOOKUP(A96,[1]data!$A$2:$S$31,MATCH(C96,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.35258579941660467</v>
       </c>
     </row>
@@ -5445,7 +1791,6 @@
         <v>13</v>
       </c>
       <c r="D97" s="1">
-        <f>VLOOKUP(A97,[1]data!$A$2:$S$31,MATCH(C97,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.33098863956996105</v>
       </c>
     </row>
@@ -5460,7 +1805,6 @@
         <v>15</v>
       </c>
       <c r="D98" s="1">
-        <f>VLOOKUP(A98,[1]data!$A$2:$S$31,MATCH(C98,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.46924171937247044</v>
       </c>
     </row>
@@ -5475,7 +1819,6 @@
         <v>17</v>
       </c>
       <c r="D99" s="1">
-        <f>VLOOKUP(A99,[1]data!$A$2:$S$31,MATCH(C99,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.15249143204379098</v>
       </c>
     </row>
@@ -5490,7 +1833,6 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <f>VLOOKUP(A86,[1]data!$A$35:$S$64,MATCH(C86,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7914548973749199E-5</v>
       </c>
     </row>
@@ -5505,7 +1847,6 @@
         <v>2</v>
       </c>
       <c r="D101">
-        <f>VLOOKUP(A87,[1]data!$A$35:$S$64,MATCH(C87,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0504988555638942E-5</v>
       </c>
     </row>
@@ -5520,7 +1861,6 @@
         <v>3</v>
       </c>
       <c r="D102">
-        <f>VLOOKUP(A88,[1]data!$A$35:$S$64,MATCH(C88,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1007025284883929E-5</v>
       </c>
     </row>
@@ -5535,7 +1875,6 @@
         <v>4</v>
       </c>
       <c r="D103">
-        <f>VLOOKUP(A89,[1]data!$A$35:$S$64,MATCH(C89,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.473345871930631E-6</v>
       </c>
     </row>
@@ -5550,7 +1889,6 @@
         <v>5</v>
       </c>
       <c r="D104">
-        <f>VLOOKUP(A90,[1]data!$A$35:$S$64,MATCH(C90,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1007025284883929E-5</v>
       </c>
     </row>
@@ -5565,7 +1903,6 @@
         <v>6</v>
       </c>
       <c r="D105">
-        <f>VLOOKUP(A91,[1]data!$A$35:$S$64,MATCH(C91,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>4.1140208345997094E-5</v>
       </c>
     </row>
@@ -5580,7 +1917,6 @@
         <v>7</v>
       </c>
       <c r="D106">
-        <f>VLOOKUP(A92,[1]data!$A$35:$S$64,MATCH(C92,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.22719566802373E-5</v>
       </c>
     </row>
@@ -5595,7 +1931,6 @@
         <v>8</v>
       </c>
       <c r="D107">
-        <f>VLOOKUP(A93,[1]data!$A$35:$S$64,MATCH(C93,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0388169383945846E-5</v>
       </c>
     </row>
@@ -5610,7 +1945,6 @@
         <v>10</v>
       </c>
       <c r="D108">
-        <f>VLOOKUP(A94,[1]data!$A$35:$S$64,MATCH(C94,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1646822287008852E-5</v>
       </c>
     </row>
@@ -5625,7 +1959,6 @@
         <v>11</v>
       </c>
       <c r="D109">
-        <f>VLOOKUP(A95,[1]data!$A$35:$S$64,MATCH(C95,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1366752164976883E-5</v>
       </c>
     </row>
@@ -5640,7 +1973,6 @@
         <v>12</v>
       </c>
       <c r="D110">
-        <f>VLOOKUP(A96,[1]data!$A$35:$S$64,MATCH(C96,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1386371449114837E-5</v>
       </c>
     </row>
@@ -5655,7 +1987,6 @@
         <v>13</v>
       </c>
       <c r="D111">
-        <f>VLOOKUP(A97,[1]data!$A$35:$S$64,MATCH(C97,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0560805684766221E-5</v>
       </c>
     </row>
@@ -5670,7 +2001,6 @@
         <v>15</v>
       </c>
       <c r="D112">
-        <f>VLOOKUP(A98,[1]data!$A$35:$S$64,MATCH(C98,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.3266257016966501E-5</v>
       </c>
     </row>
@@ -5685,7 +2015,6 @@
         <v>17</v>
       </c>
       <c r="D113">
-        <f>VLOOKUP(A99,[1]data!$A$35:$S$64,MATCH(C99,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.1851426565641335E-6</v>
       </c>
     </row>
@@ -5700,7 +2029,6 @@
         <v>1</v>
       </c>
       <c r="D114" s="1">
-        <f>VLOOKUP(A114,[1]data!$A$2:$S$31,MATCH(C114,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.61447072884037635</v>
       </c>
     </row>
@@ -5715,7 +2043,6 @@
         <v>2</v>
       </c>
       <c r="D115" s="1">
-        <f>VLOOKUP(A115,[1]data!$A$2:$S$31,MATCH(C115,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44241721816082169</v>
       </c>
     </row>
@@ -5730,7 +2057,6 @@
         <v>3</v>
       </c>
       <c r="D116" s="1">
-        <f>VLOOKUP(A116,[1]data!$A$2:$S$31,MATCH(C116,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.45821530296862012</v>
       </c>
     </row>
@@ -5745,7 +2071,6 @@
         <v>4</v>
       </c>
       <c r="D117" s="1">
-        <f>VLOOKUP(A117,[1]data!$A$2:$S$31,MATCH(C117,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.34568271915406229</v>
       </c>
     </row>
@@ -5760,7 +2085,6 @@
         <v>5</v>
       </c>
       <c r="D118" s="1">
-        <f>VLOOKUP(A118,[1]data!$A$2:$S$31,MATCH(C118,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.45821530296862012</v>
       </c>
     </row>
@@ -5775,7 +2099,6 @@
         <v>6</v>
       </c>
       <c r="D119" s="1">
-        <f>VLOOKUP(A119,[1]data!$A$2:$S$31,MATCH(C119,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.78145171885805587</v>
       </c>
     </row>
@@ -5790,7 +2113,6 @@
         <v>7</v>
       </c>
       <c r="D120" s="1">
-        <f>VLOOKUP(A120,[1]data!$A$2:$S$31,MATCH(C120,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.50898846325431268</v>
       </c>
     </row>
@@ -5805,7 +2127,6 @@
         <v>8</v>
       </c>
       <c r="D121" s="1">
-        <f>VLOOKUP(A121,[1]data!$A$2:$S$31,MATCH(C121,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.52143753442194485</v>
       </c>
     </row>
@@ -5820,7 +2141,6 @@
         <v>10</v>
       </c>
       <c r="D122" s="1">
-        <f>VLOOKUP(A122,[1]data!$A$2:$S$31,MATCH(C122,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.46540217593544181</v>
       </c>
     </row>
@@ -5835,7 +2155,6 @@
         <v>11</v>
       </c>
       <c r="D123" s="1">
-        <f>VLOOKUP(A123,[1]data!$A$2:$S$31,MATCH(C123,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44824249497931279</v>
       </c>
     </row>
@@ -5850,7 +2169,6 @@
         <v>12</v>
       </c>
       <c r="D124" s="1">
-        <f>VLOOKUP(A124,[1]data!$A$2:$S$31,MATCH(C124,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44388510436752338</v>
       </c>
     </row>
@@ -5865,7 +2183,6 @@
         <v>13</v>
       </c>
       <c r="D125" s="1">
-        <f>VLOOKUP(A125,[1]data!$A$2:$S$31,MATCH(C125,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.40887123178822632</v>
       </c>
     </row>
@@ -5880,7 +2197,6 @@
         <v>15</v>
       </c>
       <c r="D126" s="1">
-        <f>VLOOKUP(A126,[1]data!$A$2:$S$31,MATCH(C126,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.60929655735477473</v>
       </c>
     </row>
@@ -5895,7 +2211,6 @@
         <v>17</v>
       </c>
       <c r="D127" s="1">
-        <f>VLOOKUP(A127,[1]data!$A$2:$S$31,MATCH(C127,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.38154358596393695</v>
       </c>
     </row>
@@ -5910,7 +2225,6 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <f>VLOOKUP(A114,[1]data!$A$35:$S$64,MATCH(C114,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.0128146425411202E-5</v>
       </c>
     </row>
@@ -5925,7 +2239,6 @@
         <v>2</v>
       </c>
       <c r="D129">
-        <f>VLOOKUP(A115,[1]data!$A$35:$S$64,MATCH(C115,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5211088765937062E-5</v>
       </c>
     </row>
@@ -5940,7 +2253,6 @@
         <v>3</v>
       </c>
       <c r="D130">
-        <f>VLOOKUP(A116,[1]data!$A$35:$S$64,MATCH(C116,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5710056665102688E-5</v>
       </c>
     </row>
@@ -5955,7 +2267,6 @@
         <v>4</v>
       </c>
       <c r="D131">
-        <f>VLOOKUP(A117,[1]data!$A$35:$S$64,MATCH(C117,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.2058956309960271E-5</v>
       </c>
     </row>
@@ -5970,7 +2281,6 @@
         <v>5</v>
       </c>
       <c r="D132">
-        <f>VLOOKUP(A118,[1]data!$A$35:$S$64,MATCH(C118,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5710056665102688E-5</v>
       </c>
     </row>
@@ -5985,7 +2295,6 @@
         <v>6</v>
       </c>
       <c r="D133">
-        <f>VLOOKUP(A119,[1]data!$A$35:$S$64,MATCH(C119,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>4.8103470659133978E-5</v>
       </c>
     </row>
@@ -6000,7 +2309,6 @@
         <v>7</v>
       </c>
       <c r="D134">
-        <f>VLOOKUP(A120,[1]data!$A$35:$S$64,MATCH(C120,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8666331543365252E-5</v>
       </c>
     </row>
@@ -6015,7 +2323,6 @@
         <v>8</v>
       </c>
       <c r="D135">
-        <f>VLOOKUP(A121,[1]data!$A$35:$S$64,MATCH(C121,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.9321913673573401E-5</v>
       </c>
     </row>
@@ -6030,7 +2337,6 @@
         <v>10</v>
       </c>
       <c r="D136">
-        <f>VLOOKUP(A122,[1]data!$A$35:$S$64,MATCH(C122,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5760994382906127E-5</v>
       </c>
     </row>
@@ -6045,7 +2351,6 @@
         <v>11</v>
       </c>
       <c r="D137">
-        <f>VLOOKUP(A123,[1]data!$A$35:$S$64,MATCH(C123,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5240701456646974E-5</v>
       </c>
     </row>
@@ -6060,7 +2365,6 @@
         <v>12</v>
       </c>
       <c r="D138">
-        <f>VLOOKUP(A124,[1]data!$A$35:$S$64,MATCH(C124,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.519129266222432E-5</v>
       </c>
     </row>
@@ -6075,7 +2379,6 @@
         <v>13</v>
       </c>
       <c r="D139">
-        <f>VLOOKUP(A125,[1]data!$A$35:$S$64,MATCH(C125,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5023754145108424E-5</v>
       </c>
     </row>
@@ -6090,7 +2393,6 @@
         <v>15</v>
       </c>
       <c r="D140">
-        <f>VLOOKUP(A126,[1]data!$A$35:$S$64,MATCH(C126,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7923294768906452E-5</v>
       </c>
     </row>
@@ -6105,7 +2407,6 @@
         <v>17</v>
       </c>
       <c r="D141">
-        <f>VLOOKUP(A127,[1]data!$A$35:$S$64,MATCH(C127,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.3662231159891674E-5</v>
       </c>
     </row>
@@ -6120,7 +2421,6 @@
         <v>1</v>
       </c>
       <c r="D142" s="1">
-        <f>VLOOKUP(A142,[1]data!$A$2:$S$31,MATCH(C142,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.69777075965681568</v>
       </c>
     </row>
@@ -6135,7 +2435,6 @@
         <v>2</v>
       </c>
       <c r="D143" s="1">
-        <f>VLOOKUP(A143,[1]data!$A$2:$S$31,MATCH(C143,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.64218546879955607</v>
       </c>
     </row>
@@ -6150,7 +2449,6 @@
         <v>3</v>
       </c>
       <c r="D144" s="1">
-        <f>VLOOKUP(A144,[1]data!$A$2:$S$31,MATCH(C144,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.64750779901397293</v>
       </c>
     </row>
@@ -6165,7 +2463,6 @@
         <v>4</v>
       </c>
       <c r="D145" s="1">
-        <f>VLOOKUP(A145,[1]data!$A$2:$S$31,MATCH(C145,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.53761752130531448</v>
       </c>
     </row>
@@ -6180,7 +2477,6 @@
         <v>5</v>
       </c>
       <c r="D146" s="1">
-        <f>VLOOKUP(A146,[1]data!$A$2:$S$31,MATCH(C146,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.64750779901397293</v>
       </c>
     </row>
@@ -6195,7 +2491,6 @@
         <v>6</v>
       </c>
       <c r="D147" s="1">
-        <f>VLOOKUP(A147,[1]data!$A$2:$S$31,MATCH(C147,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.80381091383569347</v>
       </c>
     </row>
@@ -6210,7 +2505,6 @@
         <v>7</v>
       </c>
       <c r="D148" s="1">
-        <f>VLOOKUP(A148,[1]data!$A$2:$S$31,MATCH(C148,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.6854640365325676</v>
       </c>
     </row>
@@ -6225,7 +2519,6 @@
         <v>8</v>
       </c>
       <c r="D149" s="1">
-        <f>VLOOKUP(A149,[1]data!$A$2:$S$31,MATCH(C149,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.65961131245198912</v>
       </c>
     </row>
@@ -6240,7 +2533,6 @@
         <v>10</v>
       </c>
       <c r="D150" s="1">
-        <f>VLOOKUP(A150,[1]data!$A$2:$S$31,MATCH(C150,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.65984208885906925</v>
       </c>
     </row>
@@ -6255,7 +2547,6 @@
         <v>11</v>
       </c>
       <c r="D151" s="1">
-        <f>VLOOKUP(A151,[1]data!$A$2:$S$31,MATCH(C151,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.63364552035187538</v>
       </c>
     </row>
@@ -6270,7 +2561,6 @@
         <v>12</v>
       </c>
       <c r="D152" s="1">
-        <f>VLOOKUP(A152,[1]data!$A$2:$S$31,MATCH(C152,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.62340924198905068</v>
       </c>
     </row>
@@ -6285,7 +2575,6 @@
         <v>13</v>
       </c>
       <c r="D153" s="1">
-        <f>VLOOKUP(A153,[1]data!$A$2:$S$31,MATCH(C153,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.58126682290212828</v>
       </c>
     </row>
@@ -6300,7 +2589,6 @@
         <v>15</v>
       </c>
       <c r="D154" s="1">
-        <f>VLOOKUP(A154,[1]data!$A$2:$S$31,MATCH(C154,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.69388508831571882</v>
       </c>
     </row>
@@ -6315,7 +2603,6 @@
         <v>17</v>
       </c>
       <c r="D155" s="1">
-        <f>VLOOKUP(A155,[1]data!$A$2:$S$31,MATCH(C155,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.57967976630879725</v>
       </c>
     </row>
@@ -6330,7 +2617,6 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <f>VLOOKUP(A142,[1]data!$A$35:$S$64,MATCH(C142,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1934934613131688E-5</v>
       </c>
     </row>
@@ -6345,7 +2631,6 @@
         <v>2</v>
       </c>
       <c r="D157">
-        <f>VLOOKUP(A143,[1]data!$A$35:$S$64,MATCH(C143,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0386586091803004E-5</v>
       </c>
     </row>
@@ -6360,7 +2645,6 @@
         <v>3</v>
       </c>
       <c r="D158">
-        <f>VLOOKUP(A144,[1]data!$A$35:$S$64,MATCH(C144,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0507472295017592E-5</v>
       </c>
     </row>
@@ -6375,7 +2659,6 @@
         <v>4</v>
       </c>
       <c r="D159">
-        <f>VLOOKUP(A145,[1]data!$A$35:$S$64,MATCH(C145,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.2249791497255139E-6</v>
       </c>
     </row>
@@ -6390,7 +2673,6 @@
         <v>5</v>
       </c>
       <c r="D160">
-        <f>VLOOKUP(A146,[1]data!$A$35:$S$64,MATCH(C146,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0507472295017592E-5</v>
       </c>
     </row>
@@ -6405,7 +2687,6 @@
         <v>6</v>
       </c>
       <c r="D161">
-        <f>VLOOKUP(A147,[1]data!$A$35:$S$64,MATCH(C147,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>3.8018427663073514E-5</v>
       </c>
     </row>
@@ -6420,7 +2701,6 @@
         <v>7</v>
       </c>
       <c r="D162">
-        <f>VLOOKUP(A148,[1]data!$A$35:$S$64,MATCH(C148,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.2121273826201366E-5</v>
       </c>
     </row>
@@ -6435,7 +2715,6 @@
         <v>8</v>
       </c>
       <c r="D163">
-        <f>VLOOKUP(A149,[1]data!$A$35:$S$64,MATCH(C149,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0813009685406507E-5</v>
       </c>
     </row>
@@ -6450,7 +2729,6 @@
         <v>10</v>
       </c>
       <c r="D164">
-        <f>VLOOKUP(A150,[1]data!$A$35:$S$64,MATCH(C150,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0711245428449238E-5</v>
       </c>
     </row>
@@ -6465,7 +2743,6 @@
         <v>11</v>
       </c>
       <c r="D165">
-        <f>VLOOKUP(A151,[1]data!$A$35:$S$64,MATCH(C151,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0285195913801186E-5</v>
       </c>
     </row>
@@ -6480,7 +2757,6 @@
         <v>12</v>
       </c>
       <c r="D166">
-        <f>VLOOKUP(A152,[1]data!$A$35:$S$64,MATCH(C152,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0144243056032701E-5</v>
       </c>
     </row>
@@ -6495,7 +2771,6 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <f>VLOOKUP(A153,[1]data!$A$35:$S$64,MATCH(C153,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0312866627611931E-5</v>
       </c>
     </row>
@@ -6510,7 +2785,6 @@
         <v>15</v>
       </c>
       <c r="D168">
-        <f>VLOOKUP(A154,[1]data!$A$35:$S$64,MATCH(C154,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0302824007219939E-5</v>
       </c>
     </row>
@@ -6525,7 +2799,6 @@
         <v>17</v>
       </c>
       <c r="D169">
-        <f>VLOOKUP(A155,[1]data!$A$35:$S$64,MATCH(C155,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.6646342408201351E-6</v>
       </c>
     </row>
@@ -6540,7 +2813,6 @@
         <v>1</v>
       </c>
       <c r="D170" s="1">
-        <f>VLOOKUP(A170,[1]data!$A$2:$S$31,MATCH(C170,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.59890404295763544</v>
       </c>
     </row>
@@ -6555,7 +2827,6 @@
         <v>2</v>
       </c>
       <c r="D171" s="1">
-        <f>VLOOKUP(A171,[1]data!$A$2:$S$31,MATCH(C171,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.49359101607068567</v>
       </c>
     </row>
@@ -6570,7 +2841,6 @@
         <v>3</v>
       </c>
       <c r="D172" s="1">
-        <f>VLOOKUP(A172,[1]data!$A$2:$S$31,MATCH(C172,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.5083424368964361</v>
       </c>
     </row>
@@ -6585,7 +2855,6 @@
         <v>4</v>
       </c>
       <c r="D173" s="1">
-        <f>VLOOKUP(A173,[1]data!$A$2:$S$31,MATCH(C173,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.38172536755755965</v>
       </c>
     </row>
@@ -6600,7 +2869,6 @@
         <v>5</v>
       </c>
       <c r="D174" s="1">
-        <f>VLOOKUP(A174,[1]data!$A$2:$S$31,MATCH(C174,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.5083424368964361</v>
       </c>
     </row>
@@ -6615,7 +2883,6 @@
         <v>6</v>
       </c>
       <c r="D175" s="1">
-        <f>VLOOKUP(A175,[1]data!$A$2:$S$31,MATCH(C175,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.70600840578136292</v>
       </c>
     </row>
@@ -6630,7 +2897,6 @@
         <v>7</v>
       </c>
       <c r="D176" s="1">
-        <f>VLOOKUP(A176,[1]data!$A$2:$S$31,MATCH(C176,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.54829172047091723</v>
       </c>
     </row>
@@ -6645,7 +2911,6 @@
         <v>8</v>
       </c>
       <c r="D177" s="1">
-        <f>VLOOKUP(A177,[1]data!$A$2:$S$31,MATCH(C177,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.51453946306376575</v>
       </c>
     </row>
@@ -6660,7 +2925,6 @@
         <v>10</v>
       </c>
       <c r="D178" s="1">
-        <f>VLOOKUP(A178,[1]data!$A$2:$S$31,MATCH(C178,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.51600251622999405</v>
       </c>
     </row>
@@ -6675,7 +2939,6 @@
         <v>11</v>
       </c>
       <c r="D179" s="1">
-        <f>VLOOKUP(A179,[1]data!$A$2:$S$31,MATCH(C179,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.50605140103918667</v>
       </c>
     </row>
@@ -6690,7 +2953,6 @@
         <v>12</v>
       </c>
       <c r="D180" s="1">
-        <f>VLOOKUP(A180,[1]data!$A$2:$S$31,MATCH(C180,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.49701115445948829</v>
       </c>
     </row>
@@ -6705,7 +2967,6 @@
         <v>13</v>
       </c>
       <c r="D181" s="1">
-        <f>VLOOKUP(A181,[1]data!$A$2:$S$31,MATCH(C181,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.48788299751841946</v>
       </c>
     </row>
@@ -6720,7 +2981,6 @@
         <v>15</v>
       </c>
       <c r="D182" s="1">
-        <f>VLOOKUP(A182,[1]data!$A$2:$S$31,MATCH(C182,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.48859684175505558</v>
       </c>
     </row>
@@ -6735,7 +2995,6 @@
         <v>17</v>
       </c>
       <c r="D183" s="1">
-        <f>VLOOKUP(A183,[1]data!$A$2:$S$31,MATCH(C183,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.23263000922203553</v>
       </c>
     </row>
@@ -6750,7 +3009,6 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <f>VLOOKUP(A170,[1]data!$A$35:$S$64,MATCH(C170,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.2657077312631627E-6</v>
       </c>
     </row>
@@ -6765,7 +3023,6 @@
         <v>2</v>
       </c>
       <c r="D185">
-        <f>VLOOKUP(A171,[1]data!$A$35:$S$64,MATCH(C171,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.7265632707633877E-6</v>
       </c>
     </row>
@@ -6780,7 +3037,6 @@
         <v>3</v>
       </c>
       <c r="D186">
-        <f>VLOOKUP(A172,[1]data!$A$35:$S$64,MATCH(C172,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.9299264836255058E-6</v>
       </c>
     </row>
@@ -6795,7 +3051,6 @@
         <v>4</v>
       </c>
       <c r="D187">
-        <f>VLOOKUP(A173,[1]data!$A$35:$S$64,MATCH(C173,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>4.7375678941186913E-6</v>
       </c>
     </row>
@@ -6810,7 +3065,6 @@
         <v>5</v>
       </c>
       <c r="D188">
-        <f>VLOOKUP(A174,[1]data!$A$35:$S$64,MATCH(C174,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.9299264836255058E-6</v>
       </c>
     </row>
@@ -6825,7 +3079,6 @@
         <v>6</v>
       </c>
       <c r="D189">
-        <f>VLOOKUP(A175,[1]data!$A$35:$S$64,MATCH(C175,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.586926117304479E-5</v>
       </c>
     </row>
@@ -6840,7 +3093,6 @@
         <v>7</v>
       </c>
       <c r="D190">
-        <f>VLOOKUP(A176,[1]data!$A$35:$S$64,MATCH(C176,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.5377775327186923E-6</v>
       </c>
     </row>
@@ -6855,7 +3107,6 @@
         <v>8</v>
       </c>
       <c r="D191">
-        <f>VLOOKUP(A177,[1]data!$A$35:$S$64,MATCH(C177,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.8060861651500786E-6</v>
       </c>
     </row>
@@ -6870,7 +3121,6 @@
         <v>10</v>
       </c>
       <c r="D192">
-        <f>VLOOKUP(A178,[1]data!$A$35:$S$64,MATCH(C178,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.019291217918756E-6</v>
       </c>
     </row>
@@ -6885,7 +3135,6 @@
         <v>11</v>
       </c>
       <c r="D193">
-        <f>VLOOKUP(A179,[1]data!$A$35:$S$64,MATCH(C179,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.8389139089479263E-6</v>
       </c>
     </row>
@@ -6900,7 +3149,6 @@
         <v>12</v>
       </c>
       <c r="D194">
-        <f>VLOOKUP(A180,[1]data!$A$35:$S$64,MATCH(C180,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.7258072989311341E-6</v>
       </c>
     </row>
@@ -6915,7 +3163,6 @@
         <v>13</v>
       </c>
       <c r="D195">
-        <f>VLOOKUP(A181,[1]data!$A$35:$S$64,MATCH(C181,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.443308946217089E-6</v>
       </c>
     </row>
@@ -6930,7 +3177,6 @@
         <v>15</v>
       </c>
       <c r="D196">
-        <f>VLOOKUP(A182,[1]data!$A$35:$S$64,MATCH(C182,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.8642241724890698E-6</v>
       </c>
     </row>
@@ -6945,7 +3191,6 @@
         <v>17</v>
       </c>
       <c r="D197">
-        <f>VLOOKUP(A183,[1]data!$A$35:$S$64,MATCH(C183,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>4.1587199731345283E-6</v>
       </c>
     </row>
@@ -6960,7 +3205,6 @@
         <v>1</v>
       </c>
       <c r="D198" s="1">
-        <f>VLOOKUP(A198,[1]data!$A$2:$S$31,MATCH(C198,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.51518711061197797</v>
       </c>
     </row>
@@ -6975,7 +3219,6 @@
         <v>2</v>
       </c>
       <c r="D199" s="1">
-        <f>VLOOKUP(A199,[1]data!$A$2:$S$31,MATCH(C199,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.36304603975468014</v>
       </c>
     </row>
@@ -6990,7 +3233,6 @@
         <v>3</v>
       </c>
       <c r="D200" s="1">
-        <f>VLOOKUP(A200,[1]data!$A$2:$S$31,MATCH(C200,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.37507433706499277</v>
       </c>
     </row>
@@ -7005,7 +3247,6 @@
         <v>4</v>
       </c>
       <c r="D201" s="1">
-        <f>VLOOKUP(A201,[1]data!$A$2:$S$31,MATCH(C201,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.32539348342442626</v>
       </c>
     </row>
@@ -7020,7 +3261,6 @@
         <v>5</v>
       </c>
       <c r="D202" s="1">
-        <f>VLOOKUP(A202,[1]data!$A$2:$S$31,MATCH(C202,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.37507433706499277</v>
       </c>
     </row>
@@ -7035,7 +3275,6 @@
         <v>6</v>
       </c>
       <c r="D203" s="1">
-        <f>VLOOKUP(A203,[1]data!$A$2:$S$31,MATCH(C203,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.72455926067045429</v>
       </c>
     </row>
@@ -7050,7 +3289,6 @@
         <v>7</v>
       </c>
       <c r="D204" s="1">
-        <f>VLOOKUP(A204,[1]data!$A$2:$S$31,MATCH(C204,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.41636317614708501</v>
       </c>
     </row>
@@ -7065,7 +3303,6 @@
         <v>8</v>
       </c>
       <c r="D205" s="1">
-        <f>VLOOKUP(A205,[1]data!$A$2:$S$31,MATCH(C205,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.50080430302987122</v>
       </c>
     </row>
@@ -7080,7 +3317,6 @@
         <v>10</v>
       </c>
       <c r="D206" s="1">
-        <f>VLOOKUP(A206,[1]data!$A$2:$S$31,MATCH(C206,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.38865204105971773</v>
       </c>
     </row>
@@ -7095,7 +3331,6 @@
         <v>11</v>
       </c>
       <c r="D207" s="1">
-        <f>VLOOKUP(A207,[1]data!$A$2:$S$31,MATCH(C207,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.38262004790520721</v>
       </c>
     </row>
@@ -7110,7 +3345,6 @@
         <v>12</v>
       </c>
       <c r="D208" s="1">
-        <f>VLOOKUP(A208,[1]data!$A$2:$S$31,MATCH(C208,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.39037518205972366</v>
       </c>
     </row>
@@ -7125,7 +3359,6 @@
         <v>13</v>
       </c>
       <c r="D209" s="1">
-        <f>VLOOKUP(A209,[1]data!$A$2:$S$31,MATCH(C209,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.33706822267788289</v>
       </c>
     </row>
@@ -7140,7 +3373,6 @@
         <v>15</v>
       </c>
       <c r="D210" s="1">
-        <f>VLOOKUP(A210,[1]data!$A$2:$S$31,MATCH(C210,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.50180037255585541</v>
       </c>
     </row>
@@ -7155,7 +3387,6 @@
         <v>17</v>
       </c>
       <c r="D211" s="1">
-        <f>VLOOKUP(A211,[1]data!$A$2:$S$31,MATCH(C211,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.22948322792827208</v>
       </c>
     </row>
@@ -7170,7 +3401,6 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <f>VLOOKUP(A198,[1]data!$A$35:$S$64,MATCH(C198,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.0450568151913295E-5</v>
       </c>
     </row>
@@ -7185,7 +3415,6 @@
         <v>2</v>
       </c>
       <c r="D213">
-        <f>VLOOKUP(A199,[1]data!$A$35:$S$64,MATCH(C199,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.3649683993739366E-5</v>
       </c>
     </row>
@@ -7200,7 +3429,6 @@
         <v>3</v>
       </c>
       <c r="D214">
-        <f>VLOOKUP(A200,[1]data!$A$35:$S$64,MATCH(C200,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.3875558264944882E-5</v>
       </c>
     </row>
@@ -7215,7 +3443,6 @@
         <v>4</v>
       </c>
       <c r="D215">
-        <f>VLOOKUP(A201,[1]data!$A$35:$S$64,MATCH(C201,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.2933666128524437E-5</v>
       </c>
     </row>
@@ -7230,7 +3457,6 @@
         <v>5</v>
       </c>
       <c r="D216">
-        <f>VLOOKUP(A202,[1]data!$A$35:$S$64,MATCH(C202,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.3875558264944882E-5</v>
       </c>
     </row>
@@ -7245,7 +3471,6 @@
         <v>6</v>
       </c>
       <c r="D217">
-        <f>VLOOKUP(A203,[1]data!$A$35:$S$64,MATCH(C203,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.560915818472573E-5</v>
       </c>
     </row>
@@ -7260,7 +3485,6 @@
         <v>7</v>
       </c>
       <c r="D218">
-        <f>VLOOKUP(A204,[1]data!$A$35:$S$64,MATCH(C204,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.678575012733422E-5</v>
       </c>
     </row>
@@ -7275,7 +3499,6 @@
         <v>8</v>
       </c>
       <c r="D219">
-        <f>VLOOKUP(A205,[1]data!$A$35:$S$64,MATCH(C205,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5381805815139825E-5</v>
       </c>
     </row>
@@ -7290,7 +3513,6 @@
         <v>10</v>
       </c>
       <c r="D220">
-        <f>VLOOKUP(A206,[1]data!$A$35:$S$64,MATCH(C206,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.4592853987926384E-5</v>
       </c>
     </row>
@@ -7305,7 +3527,6 @@
         <v>11</v>
       </c>
       <c r="D221">
-        <f>VLOOKUP(A207,[1]data!$A$35:$S$64,MATCH(C207,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.4536287408456507E-5</v>
       </c>
     </row>
@@ -7320,7 +3541,6 @@
         <v>12</v>
       </c>
       <c r="D222">
-        <f>VLOOKUP(A208,[1]data!$A$35:$S$64,MATCH(C208,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5048343592281539E-5</v>
       </c>
     </row>
@@ -7335,7 +3555,6 @@
         <v>13</v>
       </c>
       <c r="D223">
-        <f>VLOOKUP(A209,[1]data!$A$35:$S$64,MATCH(C209,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.4474981669148382E-5</v>
       </c>
     </row>
@@ -7350,7 +3569,6 @@
         <v>15</v>
       </c>
       <c r="D224">
-        <f>VLOOKUP(A210,[1]data!$A$35:$S$64,MATCH(C210,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.6505679810314045E-5</v>
       </c>
     </row>
@@ -7365,7 +3583,6 @@
         <v>17</v>
       </c>
       <c r="D225">
-        <f>VLOOKUP(A211,[1]data!$A$35:$S$64,MATCH(C211,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0042247602369172E-5</v>
       </c>
     </row>
@@ -7380,7 +3597,6 @@
         <v>1</v>
       </c>
       <c r="D226" s="1">
-        <f>VLOOKUP(A226,[1]data!$A$2:$S$31,MATCH(C226,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.69137704515953768</v>
       </c>
     </row>
@@ -7395,7 +3611,6 @@
         <v>2</v>
       </c>
       <c r="D227" s="1">
-        <f>VLOOKUP(A227,[1]data!$A$2:$S$31,MATCH(C227,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44671621407832651</v>
       </c>
     </row>
@@ -7410,7 +3625,6 @@
         <v>3</v>
       </c>
       <c r="D228" s="1">
-        <f>VLOOKUP(A228,[1]data!$A$2:$S$31,MATCH(C228,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.45662289536690703</v>
       </c>
     </row>
@@ -7425,7 +3639,6 @@
         <v>4</v>
       </c>
       <c r="D229" s="1">
-        <f>VLOOKUP(A229,[1]data!$A$2:$S$31,MATCH(C229,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.41748143973418456</v>
       </c>
     </row>
@@ -7440,7 +3653,6 @@
         <v>5</v>
       </c>
       <c r="D230" s="1">
-        <f>VLOOKUP(A230,[1]data!$A$2:$S$31,MATCH(C230,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.45662289536690703</v>
       </c>
     </row>
@@ -7455,7 +3667,6 @@
         <v>6</v>
       </c>
       <c r="D231" s="1">
-        <f>VLOOKUP(A231,[1]data!$A$2:$S$31,MATCH(C231,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.79235423071803313</v>
       </c>
     </row>
@@ -7470,7 +3681,6 @@
         <v>7</v>
       </c>
       <c r="D232" s="1">
-        <f>VLOOKUP(A232,[1]data!$A$2:$S$31,MATCH(C232,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.49898091317703669</v>
       </c>
     </row>
@@ -7485,7 +3695,6 @@
         <v>8</v>
       </c>
       <c r="D233" s="1">
-        <f>VLOOKUP(A233,[1]data!$A$2:$S$31,MATCH(C233,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.57694005366135692</v>
       </c>
     </row>
@@ -7500,7 +3709,6 @@
         <v>10</v>
       </c>
       <c r="D234" s="1">
-        <f>VLOOKUP(A234,[1]data!$A$2:$S$31,MATCH(C234,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.47385837063716918</v>
       </c>
     </row>
@@ -7515,7 +3723,6 @@
         <v>11</v>
       </c>
       <c r="D235" s="1">
-        <f>VLOOKUP(A235,[1]data!$A$2:$S$31,MATCH(C235,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.45882393210312755</v>
       </c>
     </row>
@@ -7530,7 +3737,6 @@
         <v>12</v>
       </c>
       <c r="D236" s="1">
-        <f>VLOOKUP(A236,[1]data!$A$2:$S$31,MATCH(C236,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.46873570103281392</v>
       </c>
     </row>
@@ -7545,7 +3751,6 @@
         <v>13</v>
       </c>
       <c r="D237" s="1">
-        <f>VLOOKUP(A237,[1]data!$A$2:$S$31,MATCH(C237,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43697167017899785</v>
       </c>
     </row>
@@ -7560,7 +3765,6 @@
         <v>15</v>
       </c>
       <c r="D238" s="1">
-        <f>VLOOKUP(A238,[1]data!$A$2:$S$31,MATCH(C238,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.57830087164812882</v>
       </c>
     </row>
@@ -7575,7 +3779,6 @@
         <v>17</v>
       </c>
       <c r="D239" s="1">
-        <f>VLOOKUP(A239,[1]data!$A$2:$S$31,MATCH(C239,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.21912705710999281</v>
       </c>
     </row>
@@ -7590,7 +3793,6 @@
         <v>1</v>
       </c>
       <c r="D240">
-        <f>VLOOKUP(A226,[1]data!$A$35:$S$64,MATCH(C226,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.5080583620742819E-5</v>
       </c>
     </row>
@@ -7605,7 +3807,6 @@
         <v>2</v>
       </c>
       <c r="D241">
-        <f>VLOOKUP(A227,[1]data!$A$35:$S$64,MATCH(C227,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5232607866753646E-5</v>
       </c>
     </row>
@@ -7620,7 +3821,6 @@
         <v>3</v>
       </c>
       <c r="D242">
-        <f>VLOOKUP(A228,[1]data!$A$35:$S$64,MATCH(C228,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.553488619906015E-5</v>
       </c>
     </row>
@@ -7635,7 +3835,6 @@
         <v>4</v>
       </c>
       <c r="D243">
-        <f>VLOOKUP(A229,[1]data!$A$35:$S$64,MATCH(C229,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1660317853410523E-5</v>
       </c>
     </row>
@@ -7650,7 +3849,6 @@
         <v>5</v>
       </c>
       <c r="D244">
-        <f>VLOOKUP(A230,[1]data!$A$35:$S$64,MATCH(C230,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.553488619906015E-5</v>
       </c>
     </row>
@@ -7665,7 +3863,6 @@
         <v>6</v>
       </c>
       <c r="D245">
-        <f>VLOOKUP(A231,[1]data!$A$35:$S$64,MATCH(C231,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>3.8451210464003445E-5</v>
       </c>
     </row>
@@ -7680,7 +3877,6 @@
         <v>7</v>
       </c>
       <c r="D246">
-        <f>VLOOKUP(A232,[1]data!$A$35:$S$64,MATCH(C232,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7939040180706515E-5</v>
       </c>
     </row>
@@ -7695,7 +3891,6 @@
         <v>8</v>
       </c>
       <c r="D247">
-        <f>VLOOKUP(A233,[1]data!$A$35:$S$64,MATCH(C233,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.9651322219640196E-5</v>
       </c>
     </row>
@@ -7710,7 +3905,6 @@
         <v>10</v>
       </c>
       <c r="D248">
-        <f>VLOOKUP(A234,[1]data!$A$35:$S$64,MATCH(C234,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.6862154698082573E-5</v>
       </c>
     </row>
@@ -7725,7 +3919,6 @@
         <v>11</v>
       </c>
       <c r="D249">
-        <f>VLOOKUP(A235,[1]data!$A$35:$S$64,MATCH(C235,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.6426712020763762E-5</v>
       </c>
     </row>
@@ -7740,7 +3933,6 @@
         <v>12</v>
       </c>
       <c r="D250">
-        <f>VLOOKUP(A236,[1]data!$A$35:$S$64,MATCH(C236,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.6503300053403464E-5</v>
       </c>
     </row>
@@ -7755,7 +3947,6 @@
         <v>13</v>
       </c>
       <c r="D251">
-        <f>VLOOKUP(A237,[1]data!$A$35:$S$64,MATCH(C237,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.6268847891658459E-5</v>
       </c>
     </row>
@@ -7770,7 +3961,6 @@
         <v>15</v>
       </c>
       <c r="D252">
-        <f>VLOOKUP(A238,[1]data!$A$35:$S$64,MATCH(C238,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8611505317916029E-5</v>
       </c>
     </row>
@@ -7785,7 +3975,6 @@
         <v>17</v>
       </c>
       <c r="D253">
-        <f>VLOOKUP(A239,[1]data!$A$35:$S$64,MATCH(C239,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.8245312976935322E-6</v>
       </c>
     </row>
@@ -7800,7 +3989,6 @@
         <v>1</v>
       </c>
       <c r="D254" s="1">
-        <f>VLOOKUP(A254,[1]data!$A$2:$S$31,MATCH(C254,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.67591361555839569</v>
       </c>
     </row>
@@ -7815,7 +4003,6 @@
         <v>2</v>
       </c>
       <c r="D255" s="1">
-        <f>VLOOKUP(A255,[1]data!$A$2:$S$31,MATCH(C255,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.59052361352831106</v>
       </c>
     </row>
@@ -7830,7 +4017,6 @@
         <v>3</v>
       </c>
       <c r="D256" s="1">
-        <f>VLOOKUP(A256,[1]data!$A$2:$S$31,MATCH(C256,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.60715098674065582</v>
       </c>
     </row>
@@ -7845,7 +4031,6 @@
         <v>4</v>
       </c>
       <c r="D257" s="1">
-        <f>VLOOKUP(A257,[1]data!$A$2:$S$31,MATCH(C257,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.49714930354455339</v>
       </c>
     </row>
@@ -7860,7 +4045,6 @@
         <v>5</v>
       </c>
       <c r="D258" s="1">
-        <f>VLOOKUP(A258,[1]data!$A$2:$S$31,MATCH(C258,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.60715098674065582</v>
       </c>
     </row>
@@ -7875,7 +4059,6 @@
         <v>6</v>
       </c>
       <c r="D259" s="1">
-        <f>VLOOKUP(A259,[1]data!$A$2:$S$31,MATCH(C259,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.77080120078513115</v>
       </c>
     </row>
@@ -7890,7 +4073,6 @@
         <v>7</v>
       </c>
       <c r="D260" s="1">
-        <f>VLOOKUP(A260,[1]data!$A$2:$S$31,MATCH(C260,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.61969253980240202</v>
       </c>
     </row>
@@ -7905,7 +4087,6 @@
         <v>8</v>
       </c>
       <c r="D261" s="1">
-        <f>VLOOKUP(A261,[1]data!$A$2:$S$31,MATCH(C261,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.56259758181242481</v>
       </c>
     </row>
@@ -7920,7 +4101,6 @@
         <v>10</v>
       </c>
       <c r="D262" s="1">
-        <f>VLOOKUP(A262,[1]data!$A$2:$S$31,MATCH(C262,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.60679605273121306</v>
       </c>
     </row>
@@ -7935,7 +4115,6 @@
         <v>11</v>
       </c>
       <c r="D263" s="1">
-        <f>VLOOKUP(A263,[1]data!$A$2:$S$31,MATCH(C263,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.60267465015208577</v>
       </c>
     </row>
@@ -7950,7 +4129,6 @@
         <v>12</v>
       </c>
       <c r="D264" s="1">
-        <f>VLOOKUP(A264,[1]data!$A$2:$S$31,MATCH(C264,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.59447297438125335</v>
       </c>
     </row>
@@ -7965,7 +4143,6 @@
         <v>13</v>
       </c>
       <c r="D265" s="1">
-        <f>VLOOKUP(A265,[1]data!$A$2:$S$31,MATCH(C265,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.57917092847227247</v>
       </c>
     </row>
@@ -7980,7 +4157,6 @@
         <v>15</v>
       </c>
       <c r="D266" s="1">
-        <f>VLOOKUP(A266,[1]data!$A$2:$S$31,MATCH(C266,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.61715673979578001</v>
       </c>
     </row>
@@ -7995,7 +4171,6 @@
         <v>17</v>
       </c>
       <c r="D267" s="1">
-        <f>VLOOKUP(A267,[1]data!$A$2:$S$31,MATCH(C267,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.32090935655800379</v>
       </c>
     </row>
@@ -8010,7 +4185,6 @@
         <v>1</v>
       </c>
       <c r="D268">
-        <f>VLOOKUP(A254,[1]data!$A$35:$S$64,MATCH(C254,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0124387782704388E-5</v>
       </c>
     </row>
@@ -8025,7 +4199,6 @@
         <v>2</v>
       </c>
       <c r="D269">
-        <f>VLOOKUP(A255,[1]data!$A$35:$S$64,MATCH(C255,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.2111830176579591E-6</v>
       </c>
     </row>
@@ -8040,7 +4213,6 @@
         <v>3</v>
       </c>
       <c r="D270">
-        <f>VLOOKUP(A256,[1]data!$A$35:$S$64,MATCH(C256,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.4604887659377116E-6</v>
       </c>
     </row>
@@ -8055,7 +4227,6 @@
         <v>4</v>
       </c>
       <c r="D271">
-        <f>VLOOKUP(A257,[1]data!$A$35:$S$64,MATCH(C257,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.2452684497268427E-6</v>
       </c>
     </row>
@@ -8070,7 +4241,6 @@
         <v>5</v>
       </c>
       <c r="D272">
-        <f>VLOOKUP(A258,[1]data!$A$35:$S$64,MATCH(C258,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.4604887659377116E-6</v>
       </c>
     </row>
@@ -8085,7 +4255,6 @@
         <v>6</v>
       </c>
       <c r="D273">
-        <f>VLOOKUP(A259,[1]data!$A$35:$S$64,MATCH(C259,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8320003555312034E-5</v>
       </c>
     </row>
@@ -8100,7 +4269,6 @@
         <v>7</v>
       </c>
       <c r="D274">
-        <f>VLOOKUP(A260,[1]data!$A$35:$S$64,MATCH(C260,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>9.3637335064283852E-6</v>
       </c>
     </row>
@@ -8115,7 +4283,6 @@
         <v>8</v>
       </c>
       <c r="D275">
-        <f>VLOOKUP(A261,[1]data!$A$35:$S$64,MATCH(C261,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.6198762667305614E-6</v>
       </c>
     </row>
@@ -8130,7 +4297,6 @@
         <v>10</v>
       </c>
       <c r="D276">
-        <f>VLOOKUP(A262,[1]data!$A$35:$S$64,MATCH(C262,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.5412533700520848E-6</v>
       </c>
     </row>
@@ -8145,7 +4311,6 @@
         <v>11</v>
       </c>
       <c r="D277">
-        <f>VLOOKUP(A263,[1]data!$A$35:$S$64,MATCH(C263,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.3503725343120955E-6</v>
       </c>
     </row>
@@ -8160,7 +4325,6 @@
         <v>12</v>
       </c>
       <c r="D278">
-        <f>VLOOKUP(A264,[1]data!$A$35:$S$64,MATCH(C264,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.2045077059917632E-6</v>
       </c>
     </row>
@@ -8175,7 +4339,6 @@
         <v>13</v>
       </c>
       <c r="D279">
-        <f>VLOOKUP(A265,[1]data!$A$35:$S$64,MATCH(C265,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.2861814504593974E-6</v>
       </c>
     </row>
@@ -8190,7 +4353,6 @@
         <v>15</v>
       </c>
       <c r="D280">
-        <f>VLOOKUP(A266,[1]data!$A$35:$S$64,MATCH(C266,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.9868224374310653E-6</v>
       </c>
     </row>
@@ -8205,7 +4367,6 @@
         <v>17</v>
       </c>
       <c r="D281">
-        <f>VLOOKUP(A267,[1]data!$A$35:$S$64,MATCH(C267,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.0197565591549277E-6</v>
       </c>
     </row>
@@ -8220,7 +4381,6 @@
         <v>1</v>
       </c>
       <c r="D282" s="1">
-        <f>VLOOKUP(A282,[1]data!$A$2:$S$31,MATCH(C282,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.67315101462256599</v>
       </c>
     </row>
@@ -8235,7 +4395,6 @@
         <v>2</v>
       </c>
       <c r="D283" s="1">
-        <f>VLOOKUP(A283,[1]data!$A$2:$S$31,MATCH(C283,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.49328156675962287</v>
       </c>
     </row>
@@ -8250,7 +4409,6 @@
         <v>3</v>
       </c>
       <c r="D284" s="1">
-        <f>VLOOKUP(A284,[1]data!$A$2:$S$31,MATCH(C284,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.51070275620587069</v>
       </c>
     </row>
@@ -8265,7 +4423,6 @@
         <v>4</v>
       </c>
       <c r="D285" s="1">
-        <f>VLOOKUP(A285,[1]data!$A$2:$S$31,MATCH(C285,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.40909674736585039</v>
       </c>
     </row>
@@ -8280,7 +4437,6 @@
         <v>5</v>
       </c>
       <c r="D286" s="1">
-        <f>VLOOKUP(A286,[1]data!$A$2:$S$31,MATCH(C286,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.51070275620587069</v>
       </c>
     </row>
@@ -8295,7 +4451,6 @@
         <v>6</v>
       </c>
       <c r="D287" s="1">
-        <f>VLOOKUP(A287,[1]data!$A$2:$S$31,MATCH(C287,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.80100940166644663</v>
       </c>
     </row>
@@ -8310,7 +4465,6 @@
         <v>7</v>
       </c>
       <c r="D288" s="1">
-        <f>VLOOKUP(A288,[1]data!$A$2:$S$31,MATCH(C288,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.55070325301052359</v>
       </c>
     </row>
@@ -8325,7 +4479,6 @@
         <v>8</v>
       </c>
       <c r="D289" s="1">
-        <f>VLOOKUP(A289,[1]data!$A$2:$S$31,MATCH(C289,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.56831978739070887</v>
       </c>
     </row>
@@ -8340,7 +4493,6 @@
         <v>10</v>
       </c>
       <c r="D290" s="1">
-        <f>VLOOKUP(A290,[1]data!$A$2:$S$31,MATCH(C290,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.51285127517852191</v>
       </c>
     </row>
@@ -8355,7 +4507,6 @@
         <v>11</v>
       </c>
       <c r="D291" s="1">
-        <f>VLOOKUP(A291,[1]data!$A$2:$S$31,MATCH(C291,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.50497890873575502</v>
       </c>
     </row>
@@ -8370,7 +4521,6 @@
         <v>12</v>
       </c>
       <c r="D292" s="1">
-        <f>VLOOKUP(A292,[1]data!$A$2:$S$31,MATCH(C292,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.50174546201004022</v>
       </c>
     </row>
@@ -8385,7 +4535,6 @@
         <v>13</v>
       </c>
       <c r="D293" s="1">
-        <f>VLOOKUP(A293,[1]data!$A$2:$S$31,MATCH(C293,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.48679636740042337</v>
       </c>
     </row>
@@ -8400,7 +4549,6 @@
         <v>15</v>
       </c>
       <c r="D294" s="1">
-        <f>VLOOKUP(A294,[1]data!$A$2:$S$31,MATCH(C294,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.63809266781721075</v>
       </c>
     </row>
@@ -8415,7 +4563,6 @@
         <v>17</v>
       </c>
       <c r="D295" s="1">
-        <f>VLOOKUP(A295,[1]data!$A$2:$S$31,MATCH(C295,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.41410420626456612</v>
       </c>
     </row>
@@ -8430,7 +4577,6 @@
         <v>1</v>
       </c>
       <c r="D296">
-        <f>VLOOKUP(A282,[1]data!$A$35:$S$64,MATCH(C282,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0293642613613556E-5</v>
       </c>
     </row>
@@ -8445,7 +4591,6 @@
         <v>2</v>
       </c>
       <c r="D297">
-        <f>VLOOKUP(A283,[1]data!$A$35:$S$64,MATCH(C283,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.3472671158845389E-6</v>
       </c>
     </row>
@@ -8460,7 +4605,6 @@
         <v>3</v>
       </c>
       <c r="D298">
-        <f>VLOOKUP(A284,[1]data!$A$35:$S$64,MATCH(C284,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.5093831823619785E-6</v>
       </c>
     </row>
@@ -8475,7 +4619,6 @@
         <v>4</v>
       </c>
       <c r="D299">
-        <f>VLOOKUP(A285,[1]data!$A$35:$S$64,MATCH(C285,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.9395270400620455E-6</v>
       </c>
     </row>
@@ -8490,7 +4633,6 @@
         <v>5</v>
       </c>
       <c r="D300">
-        <f>VLOOKUP(A286,[1]data!$A$35:$S$64,MATCH(C286,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.5093831823619785E-6</v>
       </c>
     </row>
@@ -8505,7 +4647,6 @@
         <v>6</v>
       </c>
       <c r="D301">
-        <f>VLOOKUP(A287,[1]data!$A$35:$S$64,MATCH(C287,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.1059326245366503E-5</v>
       </c>
     </row>
@@ -8520,7 +4661,6 @@
         <v>7</v>
       </c>
       <c r="D302">
-        <f>VLOOKUP(A288,[1]data!$A$35:$S$64,MATCH(C288,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.8933062996616658E-6</v>
       </c>
     </row>
@@ -8535,7 +4675,6 @@
         <v>8</v>
       </c>
       <c r="D303">
-        <f>VLOOKUP(A289,[1]data!$A$35:$S$64,MATCH(C289,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.4243636714395603E-6</v>
       </c>
     </row>
@@ -8550,7 +4689,6 @@
         <v>10</v>
       </c>
       <c r="D304">
-        <f>VLOOKUP(A290,[1]data!$A$35:$S$64,MATCH(C290,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.6133467349419929E-6</v>
       </c>
     </row>
@@ -8565,7 +4703,6 @@
         <v>11</v>
       </c>
       <c r="D305">
-        <f>VLOOKUP(A291,[1]data!$A$35:$S$64,MATCH(C291,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.4215031276243827E-6</v>
       </c>
     </row>
@@ -8580,7 +4717,6 @@
         <v>12</v>
       </c>
       <c r="D306">
-        <f>VLOOKUP(A292,[1]data!$A$35:$S$64,MATCH(C292,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.3853135191998895E-6</v>
       </c>
     </row>
@@ -8595,7 +4731,6 @@
         <v>13</v>
       </c>
       <c r="D307">
-        <f>VLOOKUP(A293,[1]data!$A$35:$S$64,MATCH(C293,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.6371850478480062E-6</v>
       </c>
     </row>
@@ -8610,7 +4745,6 @@
         <v>15</v>
       </c>
       <c r="D308">
-        <f>VLOOKUP(A294,[1]data!$A$35:$S$64,MATCH(C294,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.8794943637760129E-6</v>
       </c>
     </row>
@@ -8625,7 +4759,6 @@
         <v>17</v>
       </c>
       <c r="D309">
-        <f>VLOOKUP(A295,[1]data!$A$35:$S$64,MATCH(C295,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.0898868274288719E-6</v>
       </c>
     </row>
@@ -8640,7 +4773,6 @@
         <v>1</v>
       </c>
       <c r="D310" s="1">
-        <f>VLOOKUP(A310,[1]data!$A$2:$S$31,MATCH(C310,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.58817510336741941</v>
       </c>
     </row>
@@ -8655,7 +4787,6 @@
         <v>2</v>
       </c>
       <c r="D311" s="1">
-        <f>VLOOKUP(A311,[1]data!$A$2:$S$31,MATCH(C311,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.42411306061975007</v>
       </c>
     </row>
@@ -8670,7 +4801,6 @@
         <v>3</v>
       </c>
       <c r="D312" s="1">
-        <f>VLOOKUP(A312,[1]data!$A$2:$S$31,MATCH(C312,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43083852679632129</v>
       </c>
     </row>
@@ -8685,7 +4815,6 @@
         <v>4</v>
       </c>
       <c r="D313" s="1">
-        <f>VLOOKUP(A313,[1]data!$A$2:$S$31,MATCH(C313,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.40510119664772548</v>
       </c>
     </row>
@@ -8700,7 +4829,6 @@
         <v>5</v>
       </c>
       <c r="D314" s="1">
-        <f>VLOOKUP(A314,[1]data!$A$2:$S$31,MATCH(C314,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43083852679632129</v>
       </c>
     </row>
@@ -8715,7 +4843,6 @@
         <v>6</v>
       </c>
       <c r="D315" s="1">
-        <f>VLOOKUP(A315,[1]data!$A$2:$S$31,MATCH(C315,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.75926195675947072</v>
       </c>
     </row>
@@ -8730,7 +4857,6 @@
         <v>7</v>
       </c>
       <c r="D316" s="1">
-        <f>VLOOKUP(A316,[1]data!$A$2:$S$31,MATCH(C316,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.4529382304496925</v>
       </c>
     </row>
@@ -8745,7 +4871,6 @@
         <v>8</v>
       </c>
       <c r="D317" s="1">
-        <f>VLOOKUP(A317,[1]data!$A$2:$S$31,MATCH(C317,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.50635208736185144</v>
       </c>
     </row>
@@ -8760,7 +4885,6 @@
         <v>10</v>
       </c>
       <c r="D318" s="1">
-        <f>VLOOKUP(A318,[1]data!$A$2:$S$31,MATCH(C318,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44264125163372642</v>
       </c>
     </row>
@@ -8775,7 +4899,6 @@
         <v>11</v>
       </c>
       <c r="D319" s="1">
-        <f>VLOOKUP(A319,[1]data!$A$2:$S$31,MATCH(C319,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.42794786988116312</v>
       </c>
     </row>
@@ -8790,7 +4913,6 @@
         <v>12</v>
       </c>
       <c r="D320" s="1">
-        <f>VLOOKUP(A320,[1]data!$A$2:$S$31,MATCH(C320,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43621522475977309</v>
       </c>
     </row>
@@ -8805,7 +4927,6 @@
         <v>13</v>
       </c>
       <c r="D321" s="1">
-        <f>VLOOKUP(A321,[1]data!$A$2:$S$31,MATCH(C321,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.35551713483447239</v>
       </c>
     </row>
@@ -8820,7 +4941,6 @@
         <v>15</v>
       </c>
       <c r="D322" s="1">
-        <f>VLOOKUP(A322,[1]data!$A$2:$S$31,MATCH(C322,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.57233209132985352</v>
       </c>
     </row>
@@ -8835,7 +4955,6 @@
         <v>17</v>
       </c>
       <c r="D323" s="1">
-        <f>VLOOKUP(A323,[1]data!$A$2:$S$31,MATCH(C323,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.17969675040849464</v>
       </c>
     </row>
@@ -8850,7 +4969,6 @@
         <v>1</v>
       </c>
       <c r="D324">
-        <f>VLOOKUP(A310,[1]data!$A$35:$S$64,MATCH(C310,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.2957640748134361E-5</v>
       </c>
     </row>
@@ -8865,7 +4983,6 @@
         <v>2</v>
       </c>
       <c r="D325">
-        <f>VLOOKUP(A311,[1]data!$A$35:$S$64,MATCH(C311,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7658493513691467E-5</v>
       </c>
     </row>
@@ -8880,7 +4997,6 @@
         <v>3</v>
       </c>
       <c r="D326">
-        <f>VLOOKUP(A312,[1]data!$A$35:$S$64,MATCH(C312,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7946445626444773E-5</v>
       </c>
     </row>
@@ -8895,7 +5011,6 @@
         <v>4</v>
       </c>
       <c r="D327">
-        <f>VLOOKUP(A313,[1]data!$A$35:$S$64,MATCH(C313,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.4816035366936647E-5</v>
       </c>
     </row>
@@ -8910,7 +5025,6 @@
         <v>5</v>
       </c>
       <c r="D328">
-        <f>VLOOKUP(A314,[1]data!$A$35:$S$64,MATCH(C314,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7946445626444773E-5</v>
       </c>
     </row>
@@ -8925,7 +5039,6 @@
         <v>6</v>
       </c>
       <c r="D329">
-        <f>VLOOKUP(A315,[1]data!$A$35:$S$64,MATCH(C315,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>4.7002755372706667E-5</v>
       </c>
     </row>
@@ -8940,7 +5053,6 @@
         <v>7</v>
       </c>
       <c r="D330">
-        <f>VLOOKUP(A316,[1]data!$A$35:$S$64,MATCH(C316,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.0582186229527009E-5</v>
       </c>
     </row>
@@ -8955,7 +5067,6 @@
         <v>8</v>
       </c>
       <c r="D331">
-        <f>VLOOKUP(A317,[1]data!$A$35:$S$64,MATCH(C317,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8071820439758649E-5</v>
       </c>
     </row>
@@ -8970,7 +5081,6 @@
         <v>10</v>
       </c>
       <c r="D332">
-        <f>VLOOKUP(A318,[1]data!$A$35:$S$64,MATCH(C318,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.818719082869775E-5</v>
       </c>
     </row>
@@ -8985,7 +5095,6 @@
         <v>11</v>
       </c>
       <c r="D333">
-        <f>VLOOKUP(A319,[1]data!$A$35:$S$64,MATCH(C319,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.738648209440905E-5</v>
       </c>
     </row>
@@ -9000,7 +5109,6 @@
         <v>12</v>
       </c>
       <c r="D334">
-        <f>VLOOKUP(A320,[1]data!$A$35:$S$64,MATCH(C320,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7410386592611846E-5</v>
       </c>
     </row>
@@ -9015,7 +5123,6 @@
         <v>13</v>
       </c>
       <c r="D335">
-        <f>VLOOKUP(A321,[1]data!$A$35:$S$64,MATCH(C321,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.6261406178564055E-5</v>
       </c>
     </row>
@@ -9030,7 +5137,6 @@
         <v>15</v>
       </c>
       <c r="D336">
-        <f>VLOOKUP(A322,[1]data!$A$35:$S$64,MATCH(C322,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.4972176092734579E-5</v>
       </c>
     </row>
@@ -9045,7 +5151,6 @@
         <v>17</v>
       </c>
       <c r="D337">
-        <f>VLOOKUP(A323,[1]data!$A$35:$S$64,MATCH(C323,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.040682689990894E-5</v>
       </c>
     </row>
@@ -9060,7 +5165,6 @@
         <v>1</v>
       </c>
       <c r="D338" s="1">
-        <f>VLOOKUP(A338,[1]data!$A$2:$S$31,MATCH(C338,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.52512810009765754</v>
       </c>
     </row>
@@ -9075,7 +5179,6 @@
         <v>2</v>
       </c>
       <c r="D339" s="1">
-        <f>VLOOKUP(A339,[1]data!$A$2:$S$31,MATCH(C339,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.38843281003533869</v>
       </c>
     </row>
@@ -9090,7 +5193,6 @@
         <v>3</v>
       </c>
       <c r="D340" s="1">
-        <f>VLOOKUP(A340,[1]data!$A$2:$S$31,MATCH(C340,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.39539558352245974</v>
       </c>
     </row>
@@ -9105,7 +5207,6 @@
         <v>4</v>
       </c>
       <c r="D341" s="1">
-        <f>VLOOKUP(A341,[1]data!$A$2:$S$31,MATCH(C341,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.35232537677460202</v>
       </c>
     </row>
@@ -9120,7 +5221,6 @@
         <v>5</v>
       </c>
       <c r="D342" s="1">
-        <f>VLOOKUP(A342,[1]data!$A$2:$S$31,MATCH(C342,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.39539558352245974</v>
       </c>
     </row>
@@ -9135,7 +5235,6 @@
         <v>6</v>
       </c>
       <c r="D343" s="1">
-        <f>VLOOKUP(A343,[1]data!$A$2:$S$31,MATCH(C343,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.67736483948069126</v>
       </c>
     </row>
@@ -9150,7 +5249,6 @@
         <v>7</v>
       </c>
       <c r="D344" s="1">
-        <f>VLOOKUP(A344,[1]data!$A$2:$S$31,MATCH(C344,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43631902035660908</v>
       </c>
     </row>
@@ -9165,7 +5263,6 @@
         <v>8</v>
       </c>
       <c r="D345" s="1">
-        <f>VLOOKUP(A345,[1]data!$A$2:$S$31,MATCH(C345,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.47429937657002452</v>
       </c>
     </row>
@@ -9180,7 +5277,6 @@
         <v>10</v>
       </c>
       <c r="D346" s="1">
-        <f>VLOOKUP(A346,[1]data!$A$2:$S$31,MATCH(C346,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.40817046321557582</v>
       </c>
     </row>
@@ -9195,7 +5291,6 @@
         <v>11</v>
       </c>
       <c r="D347" s="1">
-        <f>VLOOKUP(A347,[1]data!$A$2:$S$31,MATCH(C347,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.40326357701270693</v>
       </c>
     </row>
@@ -9210,7 +5305,6 @@
         <v>12</v>
       </c>
       <c r="D348" s="1">
-        <f>VLOOKUP(A348,[1]data!$A$2:$S$31,MATCH(C348,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.40759494083955139</v>
       </c>
     </row>
@@ -9225,7 +5319,6 @@
         <v>13</v>
       </c>
       <c r="D349" s="1">
-        <f>VLOOKUP(A349,[1]data!$A$2:$S$31,MATCH(C349,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.38227852783483923</v>
       </c>
     </row>
@@ -9240,7 +5333,6 @@
         <v>15</v>
       </c>
       <c r="D350" s="1">
-        <f>VLOOKUP(A350,[1]data!$A$2:$S$31,MATCH(C350,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.49068691522522545</v>
       </c>
     </row>
@@ -9255,7 +5347,6 @@
         <v>17</v>
       </c>
       <c r="D351" s="1">
-        <f>VLOOKUP(A351,[1]data!$A$2:$S$31,MATCH(C351,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.35544345641027947</v>
       </c>
     </row>
@@ -9270,7 +5361,6 @@
         <v>1</v>
       </c>
       <c r="D352">
-        <f>VLOOKUP(A338,[1]data!$A$35:$S$64,MATCH(C338,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.8050430904276864E-5</v>
       </c>
     </row>
@@ -9285,7 +5375,6 @@
         <v>2</v>
       </c>
       <c r="D353">
-        <f>VLOOKUP(A339,[1]data!$A$35:$S$64,MATCH(C339,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8220549030814178E-5</v>
       </c>
     </row>
@@ -9300,7 +5389,6 @@
         <v>3</v>
       </c>
       <c r="D354">
-        <f>VLOOKUP(A340,[1]data!$A$35:$S$64,MATCH(C340,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8650264266440266E-5</v>
       </c>
     </row>
@@ -9315,7 +5403,6 @@
         <v>4</v>
       </c>
       <c r="D355">
-        <f>VLOOKUP(A341,[1]data!$A$35:$S$64,MATCH(C341,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.6035214700451399E-5</v>
       </c>
     </row>
@@ -9330,7 +5417,6 @@
         <v>5</v>
       </c>
       <c r="D356">
-        <f>VLOOKUP(A342,[1]data!$A$35:$S$64,MATCH(C342,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8650264266440266E-5</v>
       </c>
     </row>
@@ -9345,7 +5431,6 @@
         <v>6</v>
       </c>
       <c r="D357">
-        <f>VLOOKUP(A343,[1]data!$A$35:$S$64,MATCH(C343,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0723672159327511E-4</v>
       </c>
     </row>
@@ -9360,7 +5445,6 @@
         <v>7</v>
       </c>
       <c r="D358">
-        <f>VLOOKUP(A344,[1]data!$A$35:$S$64,MATCH(C344,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.274557985337057E-5</v>
       </c>
     </row>
@@ -9375,7 +5459,6 @@
         <v>8</v>
       </c>
       <c r="D359">
-        <f>VLOOKUP(A345,[1]data!$A$35:$S$64,MATCH(C345,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.0794835909980623E-5</v>
       </c>
     </row>
@@ -9390,7 +5473,6 @@
         <v>10</v>
       </c>
       <c r="D360">
-        <f>VLOOKUP(A346,[1]data!$A$35:$S$64,MATCH(C346,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.9124681231809216E-5</v>
       </c>
     </row>
@@ -9405,7 +5487,6 @@
         <v>11</v>
       </c>
       <c r="D361">
-        <f>VLOOKUP(A347,[1]data!$A$35:$S$64,MATCH(C347,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.9190751074804836E-5</v>
       </c>
     </row>
@@ -9420,7 +5501,6 @@
         <v>12</v>
       </c>
       <c r="D362">
-        <f>VLOOKUP(A348,[1]data!$A$35:$S$64,MATCH(C348,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.9538408995122754E-5</v>
       </c>
     </row>
@@ -9435,7 +5515,6 @@
         <v>13</v>
       </c>
       <c r="D363">
-        <f>VLOOKUP(A349,[1]data!$A$35:$S$64,MATCH(C349,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.9892771975780354E-5</v>
       </c>
     </row>
@@ -9450,7 +5529,6 @@
         <v>15</v>
       </c>
       <c r="D364">
-        <f>VLOOKUP(A350,[1]data!$A$35:$S$64,MATCH(C350,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.3735990172949458E-5</v>
       </c>
     </row>
@@ -9465,7 +5543,6 @@
         <v>17</v>
       </c>
       <c r="D365">
-        <f>VLOOKUP(A351,[1]data!$A$35:$S$64,MATCH(C351,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.6264917009172131E-5</v>
       </c>
     </row>
@@ -9480,7 +5557,6 @@
         <v>1</v>
       </c>
       <c r="D366" s="1">
-        <f>VLOOKUP(A366,[1]data!$A$2:$S$31,MATCH(C366,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.55827575246114081</v>
       </c>
     </row>
@@ -9495,7 +5571,6 @@
         <v>2</v>
       </c>
       <c r="D367" s="1">
-        <f>VLOOKUP(A367,[1]data!$A$2:$S$31,MATCH(C367,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44999464751587276</v>
       </c>
     </row>
@@ -9510,7 +5585,6 @@
         <v>3</v>
       </c>
       <c r="D368" s="1">
-        <f>VLOOKUP(A368,[1]data!$A$2:$S$31,MATCH(C368,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.46505496483431191</v>
       </c>
     </row>
@@ -9525,7 +5599,6 @@
         <v>4</v>
       </c>
       <c r="D369" s="1">
-        <f>VLOOKUP(A369,[1]data!$A$2:$S$31,MATCH(C369,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.31089260916247546</v>
       </c>
     </row>
@@ -9540,7 +5613,6 @@
         <v>5</v>
       </c>
       <c r="D370" s="1">
-        <f>VLOOKUP(A370,[1]data!$A$2:$S$31,MATCH(C370,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.46505496483431191</v>
       </c>
     </row>
@@ -9555,7 +5627,6 @@
         <v>6</v>
       </c>
       <c r="D371" s="1">
-        <f>VLOOKUP(A371,[1]data!$A$2:$S$31,MATCH(C371,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.75820752311003359</v>
       </c>
     </row>
@@ -9570,7 +5641,6 @@
         <v>7</v>
       </c>
       <c r="D372" s="1">
-        <f>VLOOKUP(A372,[1]data!$A$2:$S$31,MATCH(C372,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.50589148055053879</v>
       </c>
     </row>
@@ -9585,7 +5655,6 @@
         <v>8</v>
       </c>
       <c r="D373" s="1">
-        <f>VLOOKUP(A373,[1]data!$A$2:$S$31,MATCH(C373,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43165021317550911</v>
       </c>
     </row>
@@ -9600,7 +5669,6 @@
         <v>10</v>
       </c>
       <c r="D374" s="1">
-        <f>VLOOKUP(A374,[1]data!$A$2:$S$31,MATCH(C374,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.47976680890310835</v>
       </c>
     </row>
@@ -9615,7 +5683,6 @@
         <v>11</v>
       </c>
       <c r="D375" s="1">
-        <f>VLOOKUP(A375,[1]data!$A$2:$S$31,MATCH(C375,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.46124667235037287</v>
       </c>
     </row>
@@ -9630,7 +5697,6 @@
         <v>12</v>
       </c>
       <c r="D376" s="1">
-        <f>VLOOKUP(A376,[1]data!$A$2:$S$31,MATCH(C376,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44993810475254542</v>
       </c>
     </row>
@@ -9645,7 +5711,6 @@
         <v>13</v>
       </c>
       <c r="D377" s="1">
-        <f>VLOOKUP(A377,[1]data!$A$2:$S$31,MATCH(C377,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43331767007839228</v>
       </c>
     </row>
@@ -9660,7 +5725,6 @@
         <v>15</v>
       </c>
       <c r="D378" s="1">
-        <f>VLOOKUP(A378,[1]data!$A$2:$S$31,MATCH(C378,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.55472255606151821</v>
       </c>
     </row>
@@ -9675,7 +5739,6 @@
         <v>17</v>
       </c>
       <c r="D379" s="1">
-        <f>VLOOKUP(A379,[1]data!$A$2:$S$31,MATCH(C379,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.29080101456586827</v>
       </c>
     </row>
@@ -9690,7 +5753,6 @@
         <v>1</v>
       </c>
       <c r="D380">
-        <f>VLOOKUP(A366,[1]data!$A$35:$S$64,MATCH(C366,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>9.3905161337161461E-6</v>
       </c>
     </row>
@@ -9705,7 +5767,6 @@
         <v>2</v>
       </c>
       <c r="D381">
-        <f>VLOOKUP(A367,[1]data!$A$35:$S$64,MATCH(C367,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.9577141564009926E-6</v>
       </c>
     </row>
@@ -9720,7 +5781,6 @@
         <v>3</v>
       </c>
       <c r="D382">
-        <f>VLOOKUP(A368,[1]data!$A$35:$S$64,MATCH(C368,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.1942874811209289E-6</v>
       </c>
     </row>
@@ -9735,7 +5795,6 @@
         <v>4</v>
       </c>
       <c r="D383">
-        <f>VLOOKUP(A369,[1]data!$A$35:$S$64,MATCH(C369,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>4.4448781651789898E-6</v>
       </c>
     </row>
@@ -9750,7 +5809,6 @@
         <v>5</v>
       </c>
       <c r="D384">
-        <f>VLOOKUP(A370,[1]data!$A$35:$S$64,MATCH(C370,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.1942874811209289E-6</v>
       </c>
     </row>
@@ -9765,7 +5823,6 @@
         <v>6</v>
       </c>
       <c r="D385">
-        <f>VLOOKUP(A371,[1]data!$A$35:$S$64,MATCH(C371,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.9670982028544237E-5</v>
       </c>
     </row>
@@ -9780,7 +5837,6 @@
         <v>7</v>
       </c>
       <c r="D386">
-        <f>VLOOKUP(A372,[1]data!$A$35:$S$64,MATCH(C372,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>9.1482607368286032E-6</v>
       </c>
     </row>
@@ -9795,7 +5851,6 @@
         <v>8</v>
       </c>
       <c r="D387">
-        <f>VLOOKUP(A373,[1]data!$A$35:$S$64,MATCH(C373,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.4344046463551699E-6</v>
       </c>
     </row>
@@ -9810,7 +5865,6 @@
         <v>10</v>
       </c>
       <c r="D388">
-        <f>VLOOKUP(A374,[1]data!$A$35:$S$64,MATCH(C374,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.4523048042819407E-6</v>
       </c>
     </row>
@@ -9825,7 +5879,6 @@
         <v>11</v>
       </c>
       <c r="D389">
-        <f>VLOOKUP(A375,[1]data!$A$35:$S$64,MATCH(C375,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.2375250469058867E-6</v>
       </c>
     </row>
@@ -9840,7 +5893,6 @@
         <v>12</v>
       </c>
       <c r="D390">
-        <f>VLOOKUP(A376,[1]data!$A$35:$S$64,MATCH(C376,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.1147028725975047E-6</v>
       </c>
     </row>
@@ -9855,7 +5907,6 @@
         <v>13</v>
       </c>
       <c r="D391">
-        <f>VLOOKUP(A377,[1]data!$A$35:$S$64,MATCH(C377,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.9632161350870445E-6</v>
       </c>
     </row>
@@ -9870,7 +5921,6 @@
         <v>15</v>
       </c>
       <c r="D392">
-        <f>VLOOKUP(A378,[1]data!$A$35:$S$64,MATCH(C378,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.5547322753636178E-6</v>
       </c>
     </row>
@@ -9885,7 +5935,6 @@
         <v>17</v>
       </c>
       <c r="D393">
-        <f>VLOOKUP(A379,[1]data!$A$35:$S$64,MATCH(C379,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.5790177371627342E-6</v>
       </c>
     </row>
@@ -9900,7 +5949,6 @@
         <v>1</v>
       </c>
       <c r="D394" s="1">
-        <f>VLOOKUP(A394,[1]data!$A$2:$S$31,MATCH(C394,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.72489394142534613</v>
       </c>
     </row>
@@ -9915,7 +5963,6 @@
         <v>2</v>
       </c>
       <c r="D395" s="1">
-        <f>VLOOKUP(A395,[1]data!$A$2:$S$31,MATCH(C395,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.67878725827857933</v>
       </c>
     </row>
@@ -9930,7 +5977,6 @@
         <v>3</v>
       </c>
       <c r="D396" s="1">
-        <f>VLOOKUP(A396,[1]data!$A$2:$S$31,MATCH(C396,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.68434364753895383</v>
       </c>
     </row>
@@ -9945,7 +5991,6 @@
         <v>4</v>
       </c>
       <c r="D397" s="1">
-        <f>VLOOKUP(A397,[1]data!$A$2:$S$31,MATCH(C397,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.57449913630392335</v>
       </c>
     </row>
@@ -9960,7 +6005,6 @@
         <v>5</v>
       </c>
       <c r="D398" s="1">
-        <f>VLOOKUP(A398,[1]data!$A$2:$S$31,MATCH(C398,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.68434364753895383</v>
       </c>
     </row>
@@ -9975,7 +6019,6 @@
         <v>6</v>
       </c>
       <c r="D399" s="1">
-        <f>VLOOKUP(A399,[1]data!$A$2:$S$31,MATCH(C399,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.82145308673415873</v>
       </c>
     </row>
@@ -9990,7 +6033,6 @@
         <v>7</v>
       </c>
       <c r="D400" s="1">
-        <f>VLOOKUP(A400,[1]data!$A$2:$S$31,MATCH(C400,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.72254493084116922</v>
       </c>
     </row>
@@ -10005,7 +6047,6 @@
         <v>8</v>
       </c>
       <c r="D401" s="1">
-        <f>VLOOKUP(A401,[1]data!$A$2:$S$31,MATCH(C401,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.70080117344685622</v>
       </c>
     </row>
@@ -10020,7 +6061,6 @@
         <v>10</v>
       </c>
       <c r="D402" s="1">
-        <f>VLOOKUP(A402,[1]data!$A$2:$S$31,MATCH(C402,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.69444756711310296</v>
       </c>
     </row>
@@ -10035,7 +6075,6 @@
         <v>11</v>
       </c>
       <c r="D403" s="1">
-        <f>VLOOKUP(A403,[1]data!$A$2:$S$31,MATCH(C403,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.66697954352035715</v>
       </c>
     </row>
@@ -10050,7 +6089,6 @@
         <v>12</v>
       </c>
       <c r="D404" s="1">
-        <f>VLOOKUP(A404,[1]data!$A$2:$S$31,MATCH(C404,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.6559945262715221</v>
       </c>
     </row>
@@ -10065,7 +6103,6 @@
         <v>13</v>
       </c>
       <c r="D405" s="1">
-        <f>VLOOKUP(A405,[1]data!$A$2:$S$31,MATCH(C405,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.61804696487820543</v>
       </c>
     </row>
@@ -10080,7 +6117,6 @@
         <v>15</v>
       </c>
       <c r="D406" s="1">
-        <f>VLOOKUP(A406,[1]data!$A$2:$S$31,MATCH(C406,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.70456782980770027</v>
       </c>
     </row>
@@ -10095,7 +6131,6 @@
         <v>17</v>
       </c>
       <c r="D407" s="1">
-        <f>VLOOKUP(A407,[1]data!$A$2:$S$31,MATCH(C407,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.48953701821963591</v>
       </c>
     </row>
@@ -10110,7 +6145,6 @@
         <v>1</v>
       </c>
       <c r="D408">
-        <f>VLOOKUP(A394,[1]data!$A$35:$S$64,MATCH(C394,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.3878198749609056E-5</v>
       </c>
     </row>
@@ -10125,7 +6159,6 @@
         <v>2</v>
       </c>
       <c r="D409">
-        <f>VLOOKUP(A395,[1]data!$A$35:$S$64,MATCH(C395,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1716094519689074E-5</v>
       </c>
     </row>
@@ -10140,7 +6173,6 @@
         <v>3</v>
       </c>
       <c r="D410">
-        <f>VLOOKUP(A396,[1]data!$A$35:$S$64,MATCH(C396,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1876904312356575E-5</v>
       </c>
     </row>
@@ -10155,7 +6187,6 @@
         <v>4</v>
       </c>
       <c r="D411">
-        <f>VLOOKUP(A397,[1]data!$A$35:$S$64,MATCH(C397,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>9.6432778431842312E-6</v>
       </c>
     </row>
@@ -10170,7 +6201,6 @@
         <v>5</v>
       </c>
       <c r="D412">
-        <f>VLOOKUP(A398,[1]data!$A$35:$S$64,MATCH(C398,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1876904312356575E-5</v>
       </c>
     </row>
@@ -10185,7 +6215,6 @@
         <v>6</v>
       </c>
       <c r="D413">
-        <f>VLOOKUP(A399,[1]data!$A$35:$S$64,MATCH(C399,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>3.0366645715568871E-5</v>
       </c>
     </row>
@@ -10200,7 +6229,6 @@
         <v>7</v>
       </c>
       <c r="D414">
-        <f>VLOOKUP(A400,[1]data!$A$35:$S$64,MATCH(C400,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.2811703010433175E-5</v>
       </c>
     </row>
@@ -10215,7 +6243,6 @@
         <v>8</v>
       </c>
       <c r="D415">
-        <f>VLOOKUP(A401,[1]data!$A$35:$S$64,MATCH(C401,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1256680193367595E-5</v>
       </c>
     </row>
@@ -10230,7 +6257,6 @@
         <v>10</v>
       </c>
       <c r="D416">
-        <f>VLOOKUP(A402,[1]data!$A$35:$S$64,MATCH(C402,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.2204294524877459E-5</v>
       </c>
     </row>
@@ -10245,7 +6271,6 @@
         <v>11</v>
       </c>
       <c r="D417">
-        <f>VLOOKUP(A403,[1]data!$A$35:$S$64,MATCH(C403,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1744091342032604E-5</v>
       </c>
     </row>
@@ -10260,7 +6285,6 @@
         <v>12</v>
       </c>
       <c r="D418">
-        <f>VLOOKUP(A404,[1]data!$A$35:$S$64,MATCH(C404,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1609495677133221E-5</v>
       </c>
     </row>
@@ -10275,7 +6299,6 @@
         <v>13</v>
       </c>
       <c r="D419">
-        <f>VLOOKUP(A405,[1]data!$A$35:$S$64,MATCH(C405,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0898127706934418E-5</v>
       </c>
     </row>
@@ -10290,7 +6313,6 @@
         <v>15</v>
       </c>
       <c r="D420">
-        <f>VLOOKUP(A406,[1]data!$A$35:$S$64,MATCH(C406,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.2046207911642187E-5</v>
       </c>
     </row>
@@ -10305,7 +6327,6 @@
         <v>17</v>
       </c>
       <c r="D421">
-        <f>VLOOKUP(A407,[1]data!$A$35:$S$64,MATCH(C407,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.3415465129430025E-6</v>
       </c>
     </row>
@@ -10320,7 +6341,6 @@
         <v>1</v>
       </c>
       <c r="D422" s="1">
-        <f>VLOOKUP(A422,[1]data!$A$2:$S$31,MATCH(C422,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.55636842746514703</v>
       </c>
     </row>
@@ -10335,7 +6355,6 @@
         <v>2</v>
       </c>
       <c r="D423" s="1">
-        <f>VLOOKUP(A423,[1]data!$A$2:$S$31,MATCH(C423,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.3462455337228536</v>
       </c>
     </row>
@@ -10350,7 +6369,6 @@
         <v>3</v>
       </c>
       <c r="D424" s="1">
-        <f>VLOOKUP(A424,[1]data!$A$2:$S$31,MATCH(C424,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.37057706017903069</v>
       </c>
     </row>
@@ -10365,7 +6383,6 @@
         <v>4</v>
       </c>
       <c r="D425" s="1">
-        <f>VLOOKUP(A425,[1]data!$A$2:$S$31,MATCH(C425,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.27263748594664033</v>
       </c>
     </row>
@@ -10380,7 +6397,6 @@
         <v>5</v>
       </c>
       <c r="D426" s="1">
-        <f>VLOOKUP(A426,[1]data!$A$2:$S$31,MATCH(C426,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.37057706017903069</v>
       </c>
     </row>
@@ -10395,7 +6411,6 @@
         <v>6</v>
       </c>
       <c r="D427" s="1">
-        <f>VLOOKUP(A427,[1]data!$A$2:$S$31,MATCH(C427,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.79838294222053219</v>
       </c>
     </row>
@@ -10410,7 +6425,6 @@
         <v>7</v>
       </c>
       <c r="D428" s="1">
-        <f>VLOOKUP(A428,[1]data!$A$2:$S$31,MATCH(C428,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.41206715070830041</v>
       </c>
     </row>
@@ -10425,7 +6439,6 @@
         <v>8</v>
       </c>
       <c r="D429" s="1">
-        <f>VLOOKUP(A429,[1]data!$A$2:$S$31,MATCH(C429,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.50323610123353224</v>
       </c>
     </row>
@@ -10440,7 +6453,6 @@
         <v>10</v>
       </c>
       <c r="D430" s="1">
-        <f>VLOOKUP(A430,[1]data!$A$2:$S$31,MATCH(C430,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.37987448927390932</v>
       </c>
     </row>
@@ -10455,7 +6467,6 @@
         <v>11</v>
       </c>
       <c r="D431" s="1">
-        <f>VLOOKUP(A431,[1]data!$A$2:$S$31,MATCH(C431,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.38012343374970065</v>
       </c>
     </row>
@@ -10470,7 +6481,6 @@
         <v>12</v>
       </c>
       <c r="D432" s="1">
-        <f>VLOOKUP(A432,[1]data!$A$2:$S$31,MATCH(C432,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.3851491671597061</v>
       </c>
     </row>
@@ -10485,7 +6495,6 @@
         <v>13</v>
       </c>
       <c r="D433" s="1">
-        <f>VLOOKUP(A433,[1]data!$A$2:$S$31,MATCH(C433,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.34932651725149644</v>
       </c>
     </row>
@@ -10500,7 +6509,6 @@
         <v>15</v>
       </c>
       <c r="D434" s="1">
-        <f>VLOOKUP(A434,[1]data!$A$2:$S$31,MATCH(C434,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.55045737140333928</v>
       </c>
     </row>
@@ -10515,7 +6523,6 @@
         <v>17</v>
       </c>
       <c r="D435" s="1">
-        <f>VLOOKUP(A435,[1]data!$A$2:$S$31,MATCH(C435,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.21527927033044186</v>
       </c>
     </row>
@@ -10530,7 +6537,6 @@
         <v>1</v>
       </c>
       <c r="D436">
-        <f>VLOOKUP(A422,[1]data!$A$35:$S$64,MATCH(C422,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.5888011718776747E-5</v>
       </c>
     </row>
@@ -10545,7 +6551,6 @@
         <v>2</v>
       </c>
       <c r="D437">
-        <f>VLOOKUP(A423,[1]data!$A$35:$S$64,MATCH(C423,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7144026405972976E-5</v>
       </c>
     </row>
@@ -10560,7 +6565,6 @@
         <v>3</v>
       </c>
       <c r="D438">
-        <f>VLOOKUP(A424,[1]data!$A$35:$S$64,MATCH(C424,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8109802746759072E-5</v>
       </c>
     </row>
@@ -10575,7 +6579,6 @@
         <v>4</v>
       </c>
       <c r="D439">
-        <f>VLOOKUP(A425,[1]data!$A$35:$S$64,MATCH(C425,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.2450508989285891E-5</v>
       </c>
     </row>
@@ -10590,7 +6593,6 @@
         <v>5</v>
       </c>
       <c r="D440">
-        <f>VLOOKUP(A426,[1]data!$A$35:$S$64,MATCH(C426,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8109802746759072E-5</v>
       </c>
     </row>
@@ -10605,7 +6607,6 @@
         <v>6</v>
       </c>
       <c r="D441">
-        <f>VLOOKUP(A427,[1]data!$A$35:$S$64,MATCH(C427,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.9875621315649575E-5</v>
       </c>
     </row>
@@ -10620,7 +6621,6 @@
         <v>7</v>
       </c>
       <c r="D442">
-        <f>VLOOKUP(A428,[1]data!$A$35:$S$64,MATCH(C428,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.1271214904736388E-5</v>
       </c>
     </row>
@@ -10635,7 +6635,6 @@
         <v>8</v>
       </c>
       <c r="D443">
-        <f>VLOOKUP(A429,[1]data!$A$35:$S$64,MATCH(C429,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7199281560285255E-5</v>
       </c>
     </row>
@@ -10650,7 +6649,6 @@
         <v>10</v>
       </c>
       <c r="D444">
-        <f>VLOOKUP(A430,[1]data!$A$35:$S$64,MATCH(C430,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8857149106562576E-5</v>
       </c>
     </row>
@@ -10665,7 +6663,6 @@
         <v>11</v>
       </c>
       <c r="D445">
-        <f>VLOOKUP(A431,[1]data!$A$35:$S$64,MATCH(C431,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8555396381058125E-5</v>
       </c>
     </row>
@@ -10680,7 +6677,6 @@
         <v>12</v>
       </c>
       <c r="D446">
-        <f>VLOOKUP(A432,[1]data!$A$35:$S$64,MATCH(C432,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8660739923607181E-5</v>
       </c>
     </row>
@@ -10695,7 +6691,6 @@
         <v>13</v>
       </c>
       <c r="D447">
-        <f>VLOOKUP(A433,[1]data!$A$35:$S$64,MATCH(C433,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8109404198347178E-5</v>
       </c>
     </row>
@@ -10710,7 +6705,6 @@
         <v>15</v>
       </c>
       <c r="D448">
-        <f>VLOOKUP(A434,[1]data!$A$35:$S$64,MATCH(C434,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.1813094334006555E-5</v>
       </c>
     </row>
@@ -10725,7 +6719,6 @@
         <v>17</v>
       </c>
       <c r="D449">
-        <f>VLOOKUP(A435,[1]data!$A$35:$S$64,MATCH(C435,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0993156997665622E-5</v>
       </c>
     </row>
@@ -10740,7 +6733,6 @@
         <v>1</v>
       </c>
       <c r="D450" s="1">
-        <f>VLOOKUP(A450,[1]data!$A$2:$S$31,MATCH(C450,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.57112602743452445</v>
       </c>
     </row>
@@ -10755,7 +6747,6 @@
         <v>2</v>
       </c>
       <c r="D451" s="1">
-        <f>VLOOKUP(A451,[1]data!$A$2:$S$31,MATCH(C451,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.36834074270890643</v>
       </c>
     </row>
@@ -10770,7 +6761,6 @@
         <v>3</v>
       </c>
       <c r="D452" s="1">
-        <f>VLOOKUP(A452,[1]data!$A$2:$S$31,MATCH(C452,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.39173626976127374</v>
       </c>
     </row>
@@ -10785,7 +6775,6 @@
         <v>4</v>
       </c>
       <c r="D453" s="1">
-        <f>VLOOKUP(A453,[1]data!$A$2:$S$31,MATCH(C453,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.28103107807650179</v>
       </c>
     </row>
@@ -10800,7 +6789,6 @@
         <v>5</v>
       </c>
       <c r="D454" s="1">
-        <f>VLOOKUP(A454,[1]data!$A$2:$S$31,MATCH(C454,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.39173626976127374</v>
       </c>
     </row>
@@ -10815,7 +6803,6 @@
         <v>6</v>
       </c>
       <c r="D455" s="1">
-        <f>VLOOKUP(A455,[1]data!$A$2:$S$31,MATCH(C455,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.71782945299250045</v>
       </c>
     </row>
@@ -10830,7 +6817,6 @@
         <v>7</v>
       </c>
       <c r="D456" s="1">
-        <f>VLOOKUP(A456,[1]data!$A$2:$S$31,MATCH(C456,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44195032661827505</v>
       </c>
     </row>
@@ -10845,7 +6831,6 @@
         <v>8</v>
       </c>
       <c r="D457" s="1">
-        <f>VLOOKUP(A457,[1]data!$A$2:$S$31,MATCH(C457,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.51070772201835724</v>
       </c>
     </row>
@@ -10860,7 +6845,6 @@
         <v>10</v>
       </c>
       <c r="D458" s="1">
-        <f>VLOOKUP(A458,[1]data!$A$2:$S$31,MATCH(C458,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.40329883178757775</v>
       </c>
     </row>
@@ -10875,7 +6859,6 @@
         <v>11</v>
       </c>
       <c r="D459" s="1">
-        <f>VLOOKUP(A459,[1]data!$A$2:$S$31,MATCH(C459,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.40246011406671944</v>
       </c>
     </row>
@@ -10890,7 +6873,6 @@
         <v>12</v>
       </c>
       <c r="D460" s="1">
-        <f>VLOOKUP(A460,[1]data!$A$2:$S$31,MATCH(C460,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.40489584763132319</v>
       </c>
     </row>
@@ -10905,7 +6887,6 @@
         <v>13</v>
       </c>
       <c r="D461" s="1">
-        <f>VLOOKUP(A461,[1]data!$A$2:$S$31,MATCH(C461,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.38006364866066428</v>
       </c>
     </row>
@@ -10920,7 +6901,6 @@
         <v>15</v>
       </c>
       <c r="D462" s="1">
-        <f>VLOOKUP(A462,[1]data!$A$2:$S$31,MATCH(C462,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.51305368716640154</v>
       </c>
     </row>
@@ -10935,7 +6915,6 @@
         <v>17</v>
       </c>
       <c r="D463" s="1">
-        <f>VLOOKUP(A463,[1]data!$A$2:$S$31,MATCH(C463,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.21721221909775587</v>
       </c>
     </row>
@@ -10950,7 +6929,6 @@
         <v>1</v>
       </c>
       <c r="D464">
-        <f>VLOOKUP(A450,[1]data!$A$35:$S$64,MATCH(C450,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.3026925012878343E-5</v>
       </c>
     </row>
@@ -10965,7 +6943,6 @@
         <v>2</v>
       </c>
       <c r="D465">
-        <f>VLOOKUP(A451,[1]data!$A$35:$S$64,MATCH(C451,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.4657129533431169E-5</v>
       </c>
     </row>
@@ -10980,7 +6957,6 @@
         <v>3</v>
       </c>
       <c r="D466">
-        <f>VLOOKUP(A452,[1]data!$A$35:$S$64,MATCH(C452,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5408002896108618E-5</v>
       </c>
     </row>
@@ -10995,7 +6971,6 @@
         <v>4</v>
       </c>
       <c r="D467">
-        <f>VLOOKUP(A453,[1]data!$A$35:$S$64,MATCH(C453,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.040195084111653E-5</v>
       </c>
     </row>
@@ -11010,7 +6985,6 @@
         <v>5</v>
       </c>
       <c r="D468">
-        <f>VLOOKUP(A454,[1]data!$A$35:$S$64,MATCH(C454,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5408002896108618E-5</v>
       </c>
     </row>
@@ -11025,7 +6999,6 @@
         <v>6</v>
       </c>
       <c r="D469">
-        <f>VLOOKUP(A455,[1]data!$A$35:$S$64,MATCH(C455,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>3.3538935474483992E-5</v>
       </c>
     </row>
@@ -11040,7 +7013,6 @@
         <v>7</v>
       </c>
       <c r="D470">
-        <f>VLOOKUP(A456,[1]data!$A$35:$S$64,MATCH(C456,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8377608208125458E-5</v>
       </c>
     </row>
@@ -11055,7 +7027,6 @@
         <v>8</v>
       </c>
       <c r="D471">
-        <f>VLOOKUP(A457,[1]data!$A$35:$S$64,MATCH(C457,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.3340155054903945E-5</v>
       </c>
     </row>
@@ -11070,7 +7041,6 @@
         <v>10</v>
       </c>
       <c r="D472">
-        <f>VLOOKUP(A458,[1]data!$A$35:$S$64,MATCH(C458,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5978461201921162E-5</v>
       </c>
     </row>
@@ -11085,7 +7055,6 @@
         <v>11</v>
       </c>
       <c r="D473">
-        <f>VLOOKUP(A459,[1]data!$A$35:$S$64,MATCH(C459,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5745200279133795E-5</v>
       </c>
     </row>
@@ -11100,7 +7069,6 @@
         <v>12</v>
       </c>
       <c r="D474">
-        <f>VLOOKUP(A460,[1]data!$A$35:$S$64,MATCH(C460,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5735268982398923E-5</v>
       </c>
     </row>
@@ -11115,7 +7083,6 @@
         <v>13</v>
       </c>
       <c r="D475">
-        <f>VLOOKUP(A461,[1]data!$A$35:$S$64,MATCH(C461,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5311359583166401E-5</v>
       </c>
     </row>
@@ -11130,7 +7097,6 @@
         <v>15</v>
       </c>
       <c r="D476">
-        <f>VLOOKUP(A462,[1]data!$A$35:$S$64,MATCH(C462,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8613757694716217E-5</v>
       </c>
     </row>
@@ -11145,7 +7111,6 @@
         <v>17</v>
       </c>
       <c r="D477">
-        <f>VLOOKUP(A463,[1]data!$A$35:$S$64,MATCH(C463,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>9.3663774227274313E-6</v>
       </c>
     </row>
@@ -11160,7 +7125,6 @@
         <v>1</v>
       </c>
       <c r="D478" s="1">
-        <f>VLOOKUP(A478,[1]data!$A$2:$S$31,MATCH(C478,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.55827575246114081</v>
       </c>
     </row>
@@ -11175,7 +7139,6 @@
         <v>2</v>
       </c>
       <c r="D479" s="1">
-        <f>VLOOKUP(A479,[1]data!$A$2:$S$31,MATCH(C479,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44999464751587276</v>
       </c>
     </row>
@@ -11190,7 +7153,6 @@
         <v>3</v>
       </c>
       <c r="D480" s="1">
-        <f>VLOOKUP(A480,[1]data!$A$2:$S$31,MATCH(C480,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.46505496483431191</v>
       </c>
     </row>
@@ -11205,7 +7167,6 @@
         <v>4</v>
       </c>
       <c r="D481" s="1">
-        <f>VLOOKUP(A481,[1]data!$A$2:$S$31,MATCH(C481,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.31089260916247546</v>
       </c>
     </row>
@@ -11220,7 +7181,6 @@
         <v>5</v>
       </c>
       <c r="D482" s="1">
-        <f>VLOOKUP(A482,[1]data!$A$2:$S$31,MATCH(C482,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.46505496483431191</v>
       </c>
     </row>
@@ -11235,7 +7195,6 @@
         <v>6</v>
       </c>
       <c r="D483" s="1">
-        <f>VLOOKUP(A483,[1]data!$A$2:$S$31,MATCH(C483,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.75820752311003359</v>
       </c>
     </row>
@@ -11250,7 +7209,6 @@
         <v>7</v>
       </c>
       <c r="D484" s="1">
-        <f>VLOOKUP(A484,[1]data!$A$2:$S$31,MATCH(C484,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.50589148055053879</v>
       </c>
     </row>
@@ -11265,7 +7223,6 @@
         <v>8</v>
       </c>
       <c r="D485" s="1">
-        <f>VLOOKUP(A485,[1]data!$A$2:$S$31,MATCH(C485,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43165021317550911</v>
       </c>
     </row>
@@ -11280,7 +7237,6 @@
         <v>10</v>
       </c>
       <c r="D486" s="1">
-        <f>VLOOKUP(A486,[1]data!$A$2:$S$31,MATCH(C486,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.47976680890310835</v>
       </c>
     </row>
@@ -11295,7 +7251,6 @@
         <v>11</v>
       </c>
       <c r="D487" s="1">
-        <f>VLOOKUP(A487,[1]data!$A$2:$S$31,MATCH(C487,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.46124667235037287</v>
       </c>
     </row>
@@ -11310,7 +7265,6 @@
         <v>12</v>
       </c>
       <c r="D488" s="1">
-        <f>VLOOKUP(A488,[1]data!$A$2:$S$31,MATCH(C488,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44993810475254542</v>
       </c>
     </row>
@@ -11325,7 +7279,6 @@
         <v>13</v>
       </c>
       <c r="D489" s="1">
-        <f>VLOOKUP(A489,[1]data!$A$2:$S$31,MATCH(C489,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43331767007839228</v>
       </c>
     </row>
@@ -11340,7 +7293,6 @@
         <v>15</v>
       </c>
       <c r="D490" s="1">
-        <f>VLOOKUP(A490,[1]data!$A$2:$S$31,MATCH(C490,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.55472255606151821</v>
       </c>
     </row>
@@ -11355,7 +7307,6 @@
         <v>17</v>
       </c>
       <c r="D491" s="1">
-        <f>VLOOKUP(A491,[1]data!$A$2:$S$31,MATCH(C491,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.29080101456586827</v>
       </c>
     </row>
@@ -11370,7 +7321,6 @@
         <v>1</v>
       </c>
       <c r="D492">
-        <f>VLOOKUP(A478,[1]data!$A$35:$S$64,MATCH(C478,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>9.3905161337161461E-6</v>
       </c>
     </row>
@@ -11385,7 +7335,6 @@
         <v>2</v>
       </c>
       <c r="D493">
-        <f>VLOOKUP(A479,[1]data!$A$35:$S$64,MATCH(C479,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.9577141564009926E-6</v>
       </c>
     </row>
@@ -11400,7 +7349,6 @@
         <v>3</v>
       </c>
       <c r="D494">
-        <f>VLOOKUP(A480,[1]data!$A$35:$S$64,MATCH(C480,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.1942874811209289E-6</v>
       </c>
     </row>
@@ -11415,7 +7363,6 @@
         <v>4</v>
       </c>
       <c r="D495">
-        <f>VLOOKUP(A481,[1]data!$A$35:$S$64,MATCH(C481,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>4.4448781651789898E-6</v>
       </c>
     </row>
@@ -11430,7 +7377,6 @@
         <v>5</v>
       </c>
       <c r="D496">
-        <f>VLOOKUP(A482,[1]data!$A$35:$S$64,MATCH(C482,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.1942874811209289E-6</v>
       </c>
     </row>
@@ -11445,7 +7391,6 @@
         <v>6</v>
       </c>
       <c r="D497">
-        <f>VLOOKUP(A483,[1]data!$A$35:$S$64,MATCH(C483,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.9670982028544237E-5</v>
       </c>
     </row>
@@ -11460,7 +7405,6 @@
         <v>7</v>
       </c>
       <c r="D498">
-        <f>VLOOKUP(A484,[1]data!$A$35:$S$64,MATCH(C484,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>9.1482607368286032E-6</v>
       </c>
     </row>
@@ -11475,7 +7419,6 @@
         <v>8</v>
       </c>
       <c r="D499">
-        <f>VLOOKUP(A485,[1]data!$A$35:$S$64,MATCH(C485,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.4344046463551699E-6</v>
       </c>
     </row>
@@ -11490,7 +7433,6 @@
         <v>10</v>
       </c>
       <c r="D500">
-        <f>VLOOKUP(A486,[1]data!$A$35:$S$64,MATCH(C486,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.4523048042819407E-6</v>
       </c>
     </row>
@@ -11505,7 +7447,6 @@
         <v>11</v>
       </c>
       <c r="D501">
-        <f>VLOOKUP(A487,[1]data!$A$35:$S$64,MATCH(C487,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.2375250469058867E-6</v>
       </c>
     </row>
@@ -11520,7 +7461,6 @@
         <v>12</v>
       </c>
       <c r="D502">
-        <f>VLOOKUP(A488,[1]data!$A$35:$S$64,MATCH(C488,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.1147028725975047E-6</v>
       </c>
     </row>
@@ -11535,7 +7475,6 @@
         <v>13</v>
       </c>
       <c r="D503">
-        <f>VLOOKUP(A489,[1]data!$A$35:$S$64,MATCH(C489,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.9632161350870445E-6</v>
       </c>
     </row>
@@ -11550,7 +7489,6 @@
         <v>15</v>
       </c>
       <c r="D504">
-        <f>VLOOKUP(A490,[1]data!$A$35:$S$64,MATCH(C490,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.5547322753636178E-6</v>
       </c>
     </row>
@@ -11565,7 +7503,6 @@
         <v>17</v>
       </c>
       <c r="D505">
-        <f>VLOOKUP(A491,[1]data!$A$35:$S$64,MATCH(C491,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.5790177371627342E-6</v>
       </c>
     </row>
@@ -11580,7 +7517,6 @@
         <v>1</v>
       </c>
       <c r="D506" s="1">
-        <f>VLOOKUP(A506,[1]data!$A$2:$S$31,MATCH(C506,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.56273426328641407</v>
       </c>
     </row>
@@ -11595,7 +7531,6 @@
         <v>2</v>
       </c>
       <c r="D507" s="1">
-        <f>VLOOKUP(A507,[1]data!$A$2:$S$31,MATCH(C507,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.32673803625882858</v>
       </c>
     </row>
@@ -11610,7 +7545,6 @@
         <v>3</v>
       </c>
       <c r="D508" s="1">
-        <f>VLOOKUP(A508,[1]data!$A$2:$S$31,MATCH(C508,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.35091937072058454</v>
       </c>
     </row>
@@ -11625,7 +7559,6 @@
         <v>4</v>
       </c>
       <c r="D509" s="1">
-        <f>VLOOKUP(A509,[1]data!$A$2:$S$31,MATCH(C509,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.20824182371601466</v>
       </c>
     </row>
@@ -11640,7 +7573,6 @@
         <v>5</v>
       </c>
       <c r="D510" s="1">
-        <f>VLOOKUP(A510,[1]data!$A$2:$S$31,MATCH(C510,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.35091937072058454</v>
       </c>
     </row>
@@ -11655,7 +7587,6 @@
         <v>6</v>
       </c>
       <c r="D511" s="1">
-        <f>VLOOKUP(A511,[1]data!$A$2:$S$31,MATCH(C511,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.69749426692908079</v>
       </c>
     </row>
@@ -11670,7 +7601,6 @@
         <v>7</v>
       </c>
       <c r="D512" s="1">
-        <f>VLOOKUP(A512,[1]data!$A$2:$S$31,MATCH(C512,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.38152458948556117</v>
       </c>
     </row>
@@ -11685,7 +7615,6 @@
         <v>8</v>
       </c>
       <c r="D513" s="1">
-        <f>VLOOKUP(A513,[1]data!$A$2:$S$31,MATCH(C513,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.40056855724566959</v>
       </c>
     </row>
@@ -11700,7 +7629,6 @@
         <v>10</v>
       </c>
       <c r="D514" s="1">
-        <f>VLOOKUP(A514,[1]data!$A$2:$S$31,MATCH(C514,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.36167935728951622</v>
       </c>
     </row>
@@ -11715,7 +7643,6 @@
         <v>11</v>
       </c>
       <c r="D515" s="1">
-        <f>VLOOKUP(A515,[1]data!$A$2:$S$31,MATCH(C515,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.35676772222284109</v>
       </c>
     </row>
@@ -11730,7 +7657,6 @@
         <v>12</v>
       </c>
       <c r="D516" s="1">
-        <f>VLOOKUP(A516,[1]data!$A$2:$S$31,MATCH(C516,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.35258579941660467</v>
       </c>
     </row>
@@ -11745,7 +7671,6 @@
         <v>13</v>
       </c>
       <c r="D517" s="1">
-        <f>VLOOKUP(A517,[1]data!$A$2:$S$31,MATCH(C517,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.33098863956996105</v>
       </c>
     </row>
@@ -11760,7 +7685,6 @@
         <v>15</v>
       </c>
       <c r="D518" s="1">
-        <f>VLOOKUP(A518,[1]data!$A$2:$S$31,MATCH(C518,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.46924171937247044</v>
       </c>
     </row>
@@ -11775,7 +7699,6 @@
         <v>17</v>
       </c>
       <c r="D519" s="1">
-        <f>VLOOKUP(A519,[1]data!$A$2:$S$31,MATCH(C519,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.15249143204379098</v>
       </c>
     </row>
@@ -11790,7 +7713,6 @@
         <v>1</v>
       </c>
       <c r="D520">
-        <f>VLOOKUP(A506,[1]data!$A$35:$S$64,MATCH(C506,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7914548973749199E-5</v>
       </c>
     </row>
@@ -11805,7 +7727,6 @@
         <v>2</v>
       </c>
       <c r="D521">
-        <f>VLOOKUP(A507,[1]data!$A$35:$S$64,MATCH(C507,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0504988555638942E-5</v>
       </c>
     </row>
@@ -11820,7 +7741,6 @@
         <v>3</v>
       </c>
       <c r="D522">
-        <f>VLOOKUP(A508,[1]data!$A$35:$S$64,MATCH(C508,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1007025284883929E-5</v>
       </c>
     </row>
@@ -11835,7 +7755,6 @@
         <v>4</v>
       </c>
       <c r="D523">
-        <f>VLOOKUP(A509,[1]data!$A$35:$S$64,MATCH(C509,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.473345871930631E-6</v>
       </c>
     </row>
@@ -11850,7 +7769,6 @@
         <v>5</v>
       </c>
       <c r="D524">
-        <f>VLOOKUP(A510,[1]data!$A$35:$S$64,MATCH(C510,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1007025284883929E-5</v>
       </c>
     </row>
@@ -11865,7 +7783,6 @@
         <v>6</v>
       </c>
       <c r="D525">
-        <f>VLOOKUP(A511,[1]data!$A$35:$S$64,MATCH(C511,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>4.1140208345997094E-5</v>
       </c>
     </row>
@@ -11880,7 +7797,6 @@
         <v>7</v>
       </c>
       <c r="D526">
-        <f>VLOOKUP(A512,[1]data!$A$35:$S$64,MATCH(C512,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.22719566802373E-5</v>
       </c>
     </row>
@@ -11895,7 +7811,6 @@
         <v>8</v>
       </c>
       <c r="D527">
-        <f>VLOOKUP(A513,[1]data!$A$35:$S$64,MATCH(C513,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0388169383945846E-5</v>
       </c>
     </row>
@@ -11910,7 +7825,6 @@
         <v>10</v>
       </c>
       <c r="D528">
-        <f>VLOOKUP(A514,[1]data!$A$35:$S$64,MATCH(C514,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1646822287008852E-5</v>
       </c>
     </row>
@@ -11925,7 +7839,6 @@
         <v>11</v>
       </c>
       <c r="D529">
-        <f>VLOOKUP(A515,[1]data!$A$35:$S$64,MATCH(C515,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1366752164976883E-5</v>
       </c>
     </row>
@@ -11940,7 +7853,6 @@
         <v>12</v>
       </c>
       <c r="D530">
-        <f>VLOOKUP(A516,[1]data!$A$35:$S$64,MATCH(C516,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1386371449114837E-5</v>
       </c>
     </row>
@@ -11955,7 +7867,6 @@
         <v>13</v>
       </c>
       <c r="D531">
-        <f>VLOOKUP(A517,[1]data!$A$35:$S$64,MATCH(C517,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.0560805684766221E-5</v>
       </c>
     </row>
@@ -11970,7 +7881,6 @@
         <v>15</v>
       </c>
       <c r="D532">
-        <f>VLOOKUP(A518,[1]data!$A$35:$S$64,MATCH(C518,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.3266257016966501E-5</v>
       </c>
     </row>
@@ -11985,7 +7895,6 @@
         <v>17</v>
       </c>
       <c r="D533">
-        <f>VLOOKUP(A519,[1]data!$A$35:$S$64,MATCH(C519,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.1851426565641335E-6</v>
       </c>
     </row>
@@ -12000,7 +7909,6 @@
         <v>1</v>
       </c>
       <c r="D534" s="1">
-        <f>VLOOKUP(A534,[1]data!$A$2:$S$31,MATCH(C534,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.55827575246114081</v>
       </c>
     </row>
@@ -12015,7 +7923,6 @@
         <v>2</v>
       </c>
       <c r="D535" s="1">
-        <f>VLOOKUP(A535,[1]data!$A$2:$S$31,MATCH(C535,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44999464751587276</v>
       </c>
     </row>
@@ -12030,7 +7937,6 @@
         <v>3</v>
       </c>
       <c r="D536" s="1">
-        <f>VLOOKUP(A536,[1]data!$A$2:$S$31,MATCH(C536,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.46505496483431191</v>
       </c>
     </row>
@@ -12045,7 +7951,6 @@
         <v>4</v>
       </c>
       <c r="D537" s="1">
-        <f>VLOOKUP(A537,[1]data!$A$2:$S$31,MATCH(C537,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.31089260916247546</v>
       </c>
     </row>
@@ -12060,7 +7965,6 @@
         <v>5</v>
       </c>
       <c r="D538" s="1">
-        <f>VLOOKUP(A538,[1]data!$A$2:$S$31,MATCH(C538,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.46505496483431191</v>
       </c>
     </row>
@@ -12075,7 +7979,6 @@
         <v>6</v>
       </c>
       <c r="D539" s="1">
-        <f>VLOOKUP(A539,[1]data!$A$2:$S$31,MATCH(C539,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.75820752311003359</v>
       </c>
     </row>
@@ -12090,7 +7993,6 @@
         <v>7</v>
       </c>
       <c r="D540" s="1">
-        <f>VLOOKUP(A540,[1]data!$A$2:$S$31,MATCH(C540,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.50589148055053879</v>
       </c>
     </row>
@@ -12105,7 +8007,6 @@
         <v>8</v>
       </c>
       <c r="D541" s="1">
-        <f>VLOOKUP(A541,[1]data!$A$2:$S$31,MATCH(C541,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43165021317550911</v>
       </c>
     </row>
@@ -12120,7 +8021,6 @@
         <v>10</v>
       </c>
       <c r="D542" s="1">
-        <f>VLOOKUP(A542,[1]data!$A$2:$S$31,MATCH(C542,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.47976680890310835</v>
       </c>
     </row>
@@ -12135,7 +8035,6 @@
         <v>11</v>
       </c>
       <c r="D543" s="1">
-        <f>VLOOKUP(A543,[1]data!$A$2:$S$31,MATCH(C543,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.46124667235037287</v>
       </c>
     </row>
@@ -12150,7 +8049,6 @@
         <v>12</v>
       </c>
       <c r="D544" s="1">
-        <f>VLOOKUP(A544,[1]data!$A$2:$S$31,MATCH(C544,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44993810475254542</v>
       </c>
     </row>
@@ -12165,7 +8063,6 @@
         <v>13</v>
       </c>
       <c r="D545" s="1">
-        <f>VLOOKUP(A545,[1]data!$A$2:$S$31,MATCH(C545,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43331767007839228</v>
       </c>
     </row>
@@ -12180,7 +8077,6 @@
         <v>15</v>
       </c>
       <c r="D546" s="1">
-        <f>VLOOKUP(A546,[1]data!$A$2:$S$31,MATCH(C546,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.55472255606151821</v>
       </c>
     </row>
@@ -12195,7 +8091,6 @@
         <v>17</v>
       </c>
       <c r="D547" s="1">
-        <f>VLOOKUP(A547,[1]data!$A$2:$S$31,MATCH(C547,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.29080101456586827</v>
       </c>
     </row>
@@ -12210,7 +8105,6 @@
         <v>1</v>
       </c>
       <c r="D548">
-        <f>VLOOKUP(A534,[1]data!$A$35:$S$64,MATCH(C534,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>9.3905161337161461E-6</v>
       </c>
     </row>
@@ -12225,7 +8119,6 @@
         <v>2</v>
       </c>
       <c r="D549">
-        <f>VLOOKUP(A535,[1]data!$A$35:$S$64,MATCH(C535,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.9577141564009926E-6</v>
       </c>
     </row>
@@ -12240,7 +8133,6 @@
         <v>3</v>
       </c>
       <c r="D550">
-        <f>VLOOKUP(A536,[1]data!$A$35:$S$64,MATCH(C536,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.1942874811209289E-6</v>
       </c>
     </row>
@@ -12255,7 +8147,6 @@
         <v>4</v>
       </c>
       <c r="D551">
-        <f>VLOOKUP(A537,[1]data!$A$35:$S$64,MATCH(C537,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>4.4448781651789898E-6</v>
       </c>
     </row>
@@ -12270,7 +8161,6 @@
         <v>5</v>
       </c>
       <c r="D552">
-        <f>VLOOKUP(A538,[1]data!$A$35:$S$64,MATCH(C538,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.1942874811209289E-6</v>
       </c>
     </row>
@@ -12285,7 +8175,6 @@
         <v>6</v>
       </c>
       <c r="D553">
-        <f>VLOOKUP(A539,[1]data!$A$35:$S$64,MATCH(C539,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.9670982028544237E-5</v>
       </c>
     </row>
@@ -12300,7 +8189,6 @@
         <v>7</v>
       </c>
       <c r="D554">
-        <f>VLOOKUP(A540,[1]data!$A$35:$S$64,MATCH(C540,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>9.1482607368286032E-6</v>
       </c>
     </row>
@@ -12315,7 +8203,6 @@
         <v>8</v>
       </c>
       <c r="D555">
-        <f>VLOOKUP(A541,[1]data!$A$35:$S$64,MATCH(C541,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.4344046463551699E-6</v>
       </c>
     </row>
@@ -12330,7 +8217,6 @@
         <v>10</v>
       </c>
       <c r="D556">
-        <f>VLOOKUP(A542,[1]data!$A$35:$S$64,MATCH(C542,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.4523048042819407E-6</v>
       </c>
     </row>
@@ -12345,7 +8231,6 @@
         <v>11</v>
       </c>
       <c r="D557">
-        <f>VLOOKUP(A543,[1]data!$A$35:$S$64,MATCH(C543,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.2375250469058867E-6</v>
       </c>
     </row>
@@ -12360,7 +8245,6 @@
         <v>12</v>
       </c>
       <c r="D558">
-        <f>VLOOKUP(A544,[1]data!$A$35:$S$64,MATCH(C544,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.1147028725975047E-6</v>
       </c>
     </row>
@@ -12375,7 +8259,6 @@
         <v>13</v>
       </c>
       <c r="D559">
-        <f>VLOOKUP(A545,[1]data!$A$35:$S$64,MATCH(C545,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.9632161350870445E-6</v>
       </c>
     </row>
@@ -12390,7 +8273,6 @@
         <v>15</v>
       </c>
       <c r="D560">
-        <f>VLOOKUP(A546,[1]data!$A$35:$S$64,MATCH(C546,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.5547322753636178E-6</v>
       </c>
     </row>
@@ -12405,7 +8287,6 @@
         <v>17</v>
       </c>
       <c r="D561">
-        <f>VLOOKUP(A547,[1]data!$A$35:$S$64,MATCH(C547,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.5790177371627342E-6</v>
       </c>
     </row>
@@ -12420,7 +8301,6 @@
         <v>1</v>
       </c>
       <c r="D562" s="1">
-        <f>VLOOKUP(A562,[1]data!$A$2:$S$31,MATCH(C562,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.66299667211783808</v>
       </c>
     </row>
@@ -12435,7 +8315,6 @@
         <v>2</v>
       </c>
       <c r="D563" s="1">
-        <f>VLOOKUP(A563,[1]data!$A$2:$S$31,MATCH(C563,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.46693809344781301</v>
       </c>
     </row>
@@ -12450,7 +8329,6 @@
         <v>3</v>
       </c>
       <c r="D564" s="1">
-        <f>VLOOKUP(A564,[1]data!$A$2:$S$31,MATCH(C564,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.47284618699856429</v>
       </c>
     </row>
@@ -12465,7 +8343,6 @@
         <v>4</v>
       </c>
       <c r="D565" s="1">
-        <f>VLOOKUP(A565,[1]data!$A$2:$S$31,MATCH(C565,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.4440614460503739</v>
       </c>
     </row>
@@ -12480,7 +8357,6 @@
         <v>5</v>
       </c>
       <c r="D566" s="1">
-        <f>VLOOKUP(A566,[1]data!$A$2:$S$31,MATCH(C566,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.47284618699856429</v>
       </c>
     </row>
@@ -12495,7 +8371,6 @@
         <v>6</v>
       </c>
       <c r="D567" s="1">
-        <f>VLOOKUP(A567,[1]data!$A$2:$S$31,MATCH(C567,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.67604408132895077</v>
       </c>
     </row>
@@ -12510,7 +8385,6 @@
         <v>7</v>
       </c>
       <c r="D568" s="1">
-        <f>VLOOKUP(A568,[1]data!$A$2:$S$31,MATCH(C568,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.51475849867407864</v>
       </c>
     </row>
@@ -12525,7 +8399,6 @@
         <v>8</v>
       </c>
       <c r="D569" s="1">
-        <f>VLOOKUP(A569,[1]data!$A$2:$S$31,MATCH(C569,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.57526908691104495</v>
       </c>
     </row>
@@ -12540,7 +8413,6 @@
         <v>10</v>
       </c>
       <c r="D570" s="1">
-        <f>VLOOKUP(A570,[1]data!$A$2:$S$31,MATCH(C570,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.48847779726379537</v>
       </c>
     </row>
@@ -12555,7 +8427,6 @@
         <v>11</v>
       </c>
       <c r="D571" s="1">
-        <f>VLOOKUP(A571,[1]data!$A$2:$S$31,MATCH(C571,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.47405379007470239</v>
       </c>
     </row>
@@ -12570,7 +8441,6 @@
         <v>12</v>
       </c>
       <c r="D572" s="1">
-        <f>VLOOKUP(A572,[1]data!$A$2:$S$31,MATCH(C572,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.48230609177725936</v>
       </c>
     </row>
@@ -12585,7 +8455,6 @@
         <v>13</v>
       </c>
       <c r="D573" s="1">
-        <f>VLOOKUP(A573,[1]data!$A$2:$S$31,MATCH(C573,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44017286612820883</v>
       </c>
     </row>
@@ -12600,7 +8469,6 @@
         <v>15</v>
       </c>
       <c r="D574" s="1">
-        <f>VLOOKUP(A574,[1]data!$A$2:$S$31,MATCH(C574,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.5029681317375625</v>
       </c>
     </row>
@@ -12615,7 +8483,6 @@
         <v>17</v>
       </c>
       <c r="D575" s="1">
-        <f>VLOOKUP(A575,[1]data!$A$2:$S$31,MATCH(C575,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.39533253364562643</v>
       </c>
     </row>
@@ -12630,7 +8497,6 @@
         <v>1</v>
       </c>
       <c r="D576">
-        <f>VLOOKUP(A562,[1]data!$A$35:$S$64,MATCH(C562,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.4837332739769714E-5</v>
       </c>
     </row>
@@ -12645,7 +8511,6 @@
         <v>2</v>
       </c>
       <c r="D577">
-        <f>VLOOKUP(A563,[1]data!$A$35:$S$64,MATCH(C563,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7458417557459191E-5</v>
       </c>
     </row>
@@ -12660,7 +8525,6 @@
         <v>3</v>
       </c>
       <c r="D578">
-        <f>VLOOKUP(A564,[1]data!$A$35:$S$64,MATCH(C564,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7567763576614877E-5</v>
       </c>
     </row>
@@ -12675,7 +8539,6 @@
         <v>4</v>
       </c>
       <c r="D579">
-        <f>VLOOKUP(A565,[1]data!$A$35:$S$64,MATCH(C565,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5594505750092068E-5</v>
       </c>
     </row>
@@ -12690,7 +8553,6 @@
         <v>5</v>
       </c>
       <c r="D580">
-        <f>VLOOKUP(A566,[1]data!$A$35:$S$64,MATCH(C566,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7567763576614877E-5</v>
       </c>
     </row>
@@ -12705,7 +8567,6 @@
         <v>6</v>
       </c>
       <c r="D581">
-        <f>VLOOKUP(A567,[1]data!$A$35:$S$64,MATCH(C567,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>3.4246109445601369E-5</v>
       </c>
     </row>
@@ -12720,7 +8581,6 @@
         <v>7</v>
       </c>
       <c r="D582">
-        <f>VLOOKUP(A568,[1]data!$A$35:$S$64,MATCH(C568,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.0054190983972165E-5</v>
       </c>
     </row>
@@ -12735,7 +8595,6 @@
         <v>8</v>
       </c>
       <c r="D583">
-        <f>VLOOKUP(A569,[1]data!$A$35:$S$64,MATCH(C569,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8349756820924225E-5</v>
       </c>
     </row>
@@ -12750,7 +8609,6 @@
         <v>10</v>
       </c>
       <c r="D584">
-        <f>VLOOKUP(A570,[1]data!$A$35:$S$64,MATCH(C570,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8087184261087181E-5</v>
       </c>
     </row>
@@ -12765,7 +8623,6 @@
         <v>11</v>
       </c>
       <c r="D585">
-        <f>VLOOKUP(A571,[1]data!$A$35:$S$64,MATCH(C571,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7542159815476786E-5</v>
       </c>
     </row>
@@ -12780,7 +8637,6 @@
         <v>12</v>
       </c>
       <c r="D586">
-        <f>VLOOKUP(A572,[1]data!$A$35:$S$64,MATCH(C572,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7675286864937684E-5</v>
       </c>
     </row>
@@ -12795,7 +8651,6 @@
         <v>13</v>
       </c>
       <c r="D587">
-        <f>VLOOKUP(A573,[1]data!$A$35:$S$64,MATCH(C573,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7756504614700866E-5</v>
       </c>
     </row>
@@ -12810,7 +8665,6 @@
         <v>15</v>
       </c>
       <c r="D588">
-        <f>VLOOKUP(A574,[1]data!$A$35:$S$64,MATCH(C574,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8144069551306677E-5</v>
       </c>
     </row>
@@ -12825,7 +8679,6 @@
         <v>17</v>
       </c>
       <c r="D589">
-        <f>VLOOKUP(A575,[1]data!$A$35:$S$64,MATCH(C575,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.6217362454004731E-5</v>
       </c>
     </row>
@@ -12840,7 +8693,6 @@
         <v>1</v>
       </c>
       <c r="D590" s="1">
-        <f>VLOOKUP(A590,[1]data!$A$2:$S$31,MATCH(C590,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.64001331532401107</v>
       </c>
     </row>
@@ -12855,7 +8707,6 @@
         <v>2</v>
       </c>
       <c r="D591" s="1">
-        <f>VLOOKUP(A591,[1]data!$A$2:$S$31,MATCH(C591,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43449917017928763</v>
       </c>
     </row>
@@ -12870,7 +8721,6 @@
         <v>3</v>
       </c>
       <c r="D592" s="1">
-        <f>VLOOKUP(A592,[1]data!$A$2:$S$31,MATCH(C592,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44869232201899256</v>
       </c>
     </row>
@@ -12885,7 +8735,6 @@
         <v>4</v>
       </c>
       <c r="D593" s="1">
-        <f>VLOOKUP(A593,[1]data!$A$2:$S$31,MATCH(C593,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.37645831803246166</v>
       </c>
     </row>
@@ -12900,7 +8749,6 @@
         <v>5</v>
       </c>
       <c r="D594" s="1">
-        <f>VLOOKUP(A594,[1]data!$A$2:$S$31,MATCH(C594,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44869232201899256</v>
       </c>
     </row>
@@ -12915,7 +8763,6 @@
         <v>6</v>
       </c>
       <c r="D595" s="1">
-        <f>VLOOKUP(A595,[1]data!$A$2:$S$31,MATCH(C595,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.79690564658213625</v>
       </c>
     </row>
@@ -12930,7 +8777,6 @@
         <v>7</v>
       </c>
       <c r="D596" s="1">
-        <f>VLOOKUP(A596,[1]data!$A$2:$S$31,MATCH(C596,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.49377699757558313</v>
       </c>
     </row>
@@ -12945,7 +8791,6 @@
         <v>8</v>
       </c>
       <c r="D597" s="1">
-        <f>VLOOKUP(A597,[1]data!$A$2:$S$31,MATCH(C597,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.55453797951655237</v>
       </c>
     </row>
@@ -12960,7 +8805,6 @@
         <v>10</v>
       </c>
       <c r="D598" s="1">
-        <f>VLOOKUP(A598,[1]data!$A$2:$S$31,MATCH(C598,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.46196232217316419</v>
       </c>
     </row>
@@ -12975,7 +8819,6 @@
         <v>11</v>
       </c>
       <c r="D599" s="1">
-        <f>VLOOKUP(A599,[1]data!$A$2:$S$31,MATCH(C599,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.45578688298471443</v>
       </c>
     </row>
@@ -12990,7 +8833,6 @@
         <v>12</v>
       </c>
       <c r="D600" s="1">
-        <f>VLOOKUP(A600,[1]data!$A$2:$S$31,MATCH(C600,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.45993066065878824</v>
       </c>
     </row>
@@ -13005,7 +8847,6 @@
         <v>13</v>
       </c>
       <c r="D601" s="1">
-        <f>VLOOKUP(A601,[1]data!$A$2:$S$31,MATCH(C601,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43626419419836959</v>
       </c>
     </row>
@@ -13020,7 +8861,6 @@
         <v>15</v>
       </c>
       <c r="D602" s="1">
-        <f>VLOOKUP(A602,[1]data!$A$2:$S$31,MATCH(C602,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.59501749563851392</v>
       </c>
     </row>
@@ -13035,7 +8875,6 @@
         <v>17</v>
       </c>
       <c r="D603" s="1">
-        <f>VLOOKUP(A603,[1]data!$A$2:$S$31,MATCH(C603,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.31032711763446991</v>
       </c>
     </row>
@@ -13050,7 +8889,6 @@
         <v>1</v>
       </c>
       <c r="D604">
-        <f>VLOOKUP(A590,[1]data!$A$35:$S$64,MATCH(C590,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.2003847643338071E-5</v>
       </c>
     </row>
@@ -13065,7 +8903,6 @@
         <v>2</v>
       </c>
       <c r="D605">
-        <f>VLOOKUP(A591,[1]data!$A$35:$S$64,MATCH(C591,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.4317705875875531E-5</v>
       </c>
     </row>
@@ -13080,7 +8917,6 @@
         <v>3</v>
       </c>
       <c r="D606">
-        <f>VLOOKUP(A592,[1]data!$A$35:$S$64,MATCH(C592,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.4889328349746938E-5</v>
       </c>
     </row>
@@ -13095,7 +8931,6 @@
         <v>4</v>
       </c>
       <c r="D607">
-        <f>VLOOKUP(A593,[1]data!$A$35:$S$64,MATCH(C593,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.2362249646534745E-5</v>
       </c>
     </row>
@@ -13110,7 +8945,6 @@
         <v>5</v>
       </c>
       <c r="D608">
-        <f>VLOOKUP(A594,[1]data!$A$35:$S$64,MATCH(C594,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.4889328349746938E-5</v>
       </c>
     </row>
@@ -13125,7 +8959,6 @@
         <v>6</v>
       </c>
       <c r="D609">
-        <f>VLOOKUP(A595,[1]data!$A$35:$S$64,MATCH(C595,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>4.438342454979169E-5</v>
       </c>
     </row>
@@ -13140,7 +8973,6 @@
         <v>7</v>
       </c>
       <c r="D610">
-        <f>VLOOKUP(A596,[1]data!$A$35:$S$64,MATCH(C596,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.6705308788763443E-5</v>
       </c>
     </row>
@@ -13155,7 +8987,6 @@
         <v>8</v>
       </c>
       <c r="D611">
-        <f>VLOOKUP(A597,[1]data!$A$35:$S$64,MATCH(C597,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.6705850379796369E-5</v>
       </c>
     </row>
@@ -13170,7 +9001,6 @@
         <v>10</v>
       </c>
       <c r="D612">
-        <f>VLOOKUP(A598,[1]data!$A$35:$S$64,MATCH(C598,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5202623734824577E-5</v>
       </c>
     </row>
@@ -13185,7 +9015,6 @@
         <v>11</v>
       </c>
       <c r="D613">
-        <f>VLOOKUP(A599,[1]data!$A$35:$S$64,MATCH(C599,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5264026671931392E-5</v>
       </c>
     </row>
@@ -13200,7 +9029,6 @@
         <v>12</v>
       </c>
       <c r="D614">
-        <f>VLOOKUP(A600,[1]data!$A$35:$S$64,MATCH(C600,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5465549838244008E-5</v>
       </c>
     </row>
@@ -13215,7 +9043,6 @@
         <v>13</v>
       </c>
       <c r="D615">
-        <f>VLOOKUP(A601,[1]data!$A$35:$S$64,MATCH(C601,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.488331303248053E-5</v>
       </c>
     </row>
@@ -13230,7 +9057,6 @@
         <v>15</v>
       </c>
       <c r="D616">
-        <f>VLOOKUP(A602,[1]data!$A$35:$S$64,MATCH(C602,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8161804718200934E-5</v>
       </c>
     </row>
@@ -13245,7 +9071,6 @@
         <v>17</v>
       </c>
       <c r="D617">
-        <f>VLOOKUP(A603,[1]data!$A$35:$S$64,MATCH(C603,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1047702571079799E-5</v>
       </c>
     </row>
@@ -13260,7 +9085,6 @@
         <v>1</v>
       </c>
       <c r="D618" s="1">
-        <f>VLOOKUP(A618,[1]data!$A$2:$S$31,MATCH(C618,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.61447072884037635</v>
       </c>
     </row>
@@ -13275,7 +9099,6 @@
         <v>2</v>
       </c>
       <c r="D619" s="1">
-        <f>VLOOKUP(A619,[1]data!$A$2:$S$31,MATCH(C619,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44241721816082169</v>
       </c>
     </row>
@@ -13290,7 +9113,6 @@
         <v>3</v>
       </c>
       <c r="D620" s="1">
-        <f>VLOOKUP(A620,[1]data!$A$2:$S$31,MATCH(C620,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.45821530296862012</v>
       </c>
     </row>
@@ -13305,7 +9127,6 @@
         <v>4</v>
       </c>
       <c r="D621" s="1">
-        <f>VLOOKUP(A621,[1]data!$A$2:$S$31,MATCH(C621,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.34568271915406229</v>
       </c>
     </row>
@@ -13320,7 +9141,6 @@
         <v>5</v>
       </c>
       <c r="D622" s="1">
-        <f>VLOOKUP(A622,[1]data!$A$2:$S$31,MATCH(C622,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.45821530296862012</v>
       </c>
     </row>
@@ -13335,7 +9155,6 @@
         <v>6</v>
       </c>
       <c r="D623" s="1">
-        <f>VLOOKUP(A623,[1]data!$A$2:$S$31,MATCH(C623,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.78145171885805587</v>
       </c>
     </row>
@@ -13350,7 +9169,6 @@
         <v>7</v>
       </c>
       <c r="D624" s="1">
-        <f>VLOOKUP(A624,[1]data!$A$2:$S$31,MATCH(C624,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.50898846325431268</v>
       </c>
     </row>
@@ -13365,7 +9183,6 @@
         <v>8</v>
       </c>
       <c r="D625" s="1">
-        <f>VLOOKUP(A625,[1]data!$A$2:$S$31,MATCH(C625,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.52143753442194485</v>
       </c>
     </row>
@@ -13380,7 +9197,6 @@
         <v>10</v>
       </c>
       <c r="D626" s="1">
-        <f>VLOOKUP(A626,[1]data!$A$2:$S$31,MATCH(C626,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.46540217593544181</v>
       </c>
     </row>
@@ -13395,7 +9211,6 @@
         <v>11</v>
       </c>
       <c r="D627" s="1">
-        <f>VLOOKUP(A627,[1]data!$A$2:$S$31,MATCH(C627,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44824249497931279</v>
       </c>
     </row>
@@ -13410,7 +9225,6 @@
         <v>12</v>
       </c>
       <c r="D628" s="1">
-        <f>VLOOKUP(A628,[1]data!$A$2:$S$31,MATCH(C628,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44388510436752338</v>
       </c>
     </row>
@@ -13425,7 +9239,6 @@
         <v>13</v>
       </c>
       <c r="D629" s="1">
-        <f>VLOOKUP(A629,[1]data!$A$2:$S$31,MATCH(C629,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.40887123178822632</v>
       </c>
     </row>
@@ -13440,7 +9253,6 @@
         <v>15</v>
       </c>
       <c r="D630" s="1">
-        <f>VLOOKUP(A630,[1]data!$A$2:$S$31,MATCH(C630,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.60929655735477473</v>
       </c>
     </row>
@@ -13455,7 +9267,6 @@
         <v>17</v>
       </c>
       <c r="D631" s="1">
-        <f>VLOOKUP(A631,[1]data!$A$2:$S$31,MATCH(C631,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.38154358596393695</v>
       </c>
     </row>
@@ -13470,7 +9281,6 @@
         <v>1</v>
       </c>
       <c r="D632">
-        <f>VLOOKUP(A618,[1]data!$A$35:$S$64,MATCH(C618,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.0128146425411202E-5</v>
       </c>
     </row>
@@ -13485,7 +9295,6 @@
         <v>2</v>
       </c>
       <c r="D633">
-        <f>VLOOKUP(A619,[1]data!$A$35:$S$64,MATCH(C619,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5211088765937062E-5</v>
       </c>
     </row>
@@ -13500,7 +9309,6 @@
         <v>3</v>
       </c>
       <c r="D634">
-        <f>VLOOKUP(A620,[1]data!$A$35:$S$64,MATCH(C620,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5710056665102688E-5</v>
       </c>
     </row>
@@ -13515,7 +9323,6 @@
         <v>4</v>
       </c>
       <c r="D635">
-        <f>VLOOKUP(A621,[1]data!$A$35:$S$64,MATCH(C621,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.2058956309960271E-5</v>
       </c>
     </row>
@@ -13530,7 +9337,6 @@
         <v>5</v>
       </c>
       <c r="D636">
-        <f>VLOOKUP(A622,[1]data!$A$35:$S$64,MATCH(C622,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5710056665102688E-5</v>
       </c>
     </row>
@@ -13545,7 +9351,6 @@
         <v>6</v>
       </c>
       <c r="D637">
-        <f>VLOOKUP(A623,[1]data!$A$35:$S$64,MATCH(C623,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>4.8103470659133978E-5</v>
       </c>
     </row>
@@ -13560,7 +9365,6 @@
         <v>7</v>
       </c>
       <c r="D638">
-        <f>VLOOKUP(A624,[1]data!$A$35:$S$64,MATCH(C624,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8666331543365252E-5</v>
       </c>
     </row>
@@ -13575,7 +9379,6 @@
         <v>8</v>
       </c>
       <c r="D639">
-        <f>VLOOKUP(A625,[1]data!$A$35:$S$64,MATCH(C625,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.9321913673573401E-5</v>
       </c>
     </row>
@@ -13590,7 +9393,6 @@
         <v>10</v>
       </c>
       <c r="D640">
-        <f>VLOOKUP(A626,[1]data!$A$35:$S$64,MATCH(C626,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5760994382906127E-5</v>
       </c>
     </row>
@@ -13605,7 +9407,6 @@
         <v>11</v>
       </c>
       <c r="D641">
-        <f>VLOOKUP(A627,[1]data!$A$35:$S$64,MATCH(C627,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5240701456646974E-5</v>
       </c>
     </row>
@@ -13620,7 +9421,6 @@
         <v>12</v>
       </c>
       <c r="D642">
-        <f>VLOOKUP(A628,[1]data!$A$35:$S$64,MATCH(C628,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.519129266222432E-5</v>
       </c>
     </row>
@@ -13635,7 +9435,6 @@
         <v>13</v>
       </c>
       <c r="D643">
-        <f>VLOOKUP(A629,[1]data!$A$35:$S$64,MATCH(C629,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5023754145108424E-5</v>
       </c>
     </row>
@@ -13650,7 +9449,6 @@
         <v>15</v>
       </c>
       <c r="D644">
-        <f>VLOOKUP(A630,[1]data!$A$35:$S$64,MATCH(C630,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7923294768906452E-5</v>
       </c>
     </row>
@@ -13665,7 +9463,6 @@
         <v>17</v>
       </c>
       <c r="D645">
-        <f>VLOOKUP(A631,[1]data!$A$35:$S$64,MATCH(C631,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.3662231159891674E-5</v>
       </c>
     </row>
@@ -13680,7 +9477,6 @@
         <v>1</v>
       </c>
       <c r="D646" s="1">
-        <f>VLOOKUP(A646,[1]data!$A$2:$S$31,MATCH(C646,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.60802647784220387</v>
       </c>
     </row>
@@ -13695,7 +9491,6 @@
         <v>2</v>
       </c>
       <c r="D647" s="1">
-        <f>VLOOKUP(A647,[1]data!$A$2:$S$31,MATCH(C647,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.49185701713568963</v>
       </c>
     </row>
@@ -13710,7 +9505,6 @@
         <v>3</v>
       </c>
       <c r="D648" s="1">
-        <f>VLOOKUP(A648,[1]data!$A$2:$S$31,MATCH(C648,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.49950714950186054</v>
       </c>
     </row>
@@ -13725,7 +9519,6 @@
         <v>4</v>
       </c>
       <c r="D649" s="1">
-        <f>VLOOKUP(A649,[1]data!$A$2:$S$31,MATCH(C649,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.48097551385893822</v>
       </c>
     </row>
@@ -13740,7 +9533,6 @@
         <v>5</v>
       </c>
       <c r="D650" s="1">
-        <f>VLOOKUP(A650,[1]data!$A$2:$S$31,MATCH(C650,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.49950714950186054</v>
       </c>
     </row>
@@ -13755,7 +9547,6 @@
         <v>6</v>
       </c>
       <c r="D651" s="1">
-        <f>VLOOKUP(A651,[1]data!$A$2:$S$31,MATCH(C651,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.72143340263299982</v>
       </c>
     </row>
@@ -13770,7 +9561,6 @@
         <v>7</v>
       </c>
       <c r="D652" s="1">
-        <f>VLOOKUP(A652,[1]data!$A$2:$S$31,MATCH(C652,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.52271795697185697</v>
       </c>
     </row>
@@ -13785,7 +9575,6 @@
         <v>8</v>
       </c>
       <c r="D653" s="1">
-        <f>VLOOKUP(A653,[1]data!$A$2:$S$31,MATCH(C653,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.58775176953159269</v>
       </c>
     </row>
@@ -13800,7 +9589,6 @@
         <v>10</v>
       </c>
       <c r="D654" s="1">
-        <f>VLOOKUP(A654,[1]data!$A$2:$S$31,MATCH(C654,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.50995732083680467</v>
       </c>
     </row>
@@ -13815,7 +9603,6 @@
         <v>11</v>
       </c>
       <c r="D655" s="1">
-        <f>VLOOKUP(A655,[1]data!$A$2:$S$31,MATCH(C655,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.49930854996865626</v>
       </c>
     </row>
@@ -13830,7 +9617,6 @@
         <v>12</v>
       </c>
       <c r="D656" s="1">
-        <f>VLOOKUP(A656,[1]data!$A$2:$S$31,MATCH(C656,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.50942340330083891</v>
       </c>
     </row>
@@ -13845,7 +9631,6 @@
         <v>13</v>
       </c>
       <c r="D657" s="1">
-        <f>VLOOKUP(A657,[1]data!$A$2:$S$31,MATCH(C657,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.45404792681327089</v>
       </c>
     </row>
@@ -13860,7 +9645,6 @@
         <v>15</v>
       </c>
       <c r="D658" s="1">
-        <f>VLOOKUP(A658,[1]data!$A$2:$S$31,MATCH(C658,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.5387841909518003</v>
       </c>
     </row>
@@ -13875,7 +9659,6 @@
         <v>17</v>
       </c>
       <c r="D659" s="1">
-        <f>VLOOKUP(A659,[1]data!$A$2:$S$31,MATCH(C659,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.33610050760237109</v>
       </c>
     </row>
@@ -13890,7 +9673,6 @@
         <v>1</v>
       </c>
       <c r="D660">
-        <f>VLOOKUP(A646,[1]data!$A$35:$S$64,MATCH(C646,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.9280766350496176E-5</v>
       </c>
     </row>
@@ -13905,7 +9687,6 @@
         <v>2</v>
       </c>
       <c r="D661">
-        <f>VLOOKUP(A647,[1]data!$A$35:$S$64,MATCH(C647,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5648350770524592E-5</v>
       </c>
     </row>
@@ -13920,7 +9701,6 @@
         <v>3</v>
       </c>
       <c r="D662">
-        <f>VLOOKUP(A648,[1]data!$A$35:$S$64,MATCH(C648,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5981580789673595E-5</v>
       </c>
     </row>
@@ -13935,7 +9715,6 @@
         <v>4</v>
       </c>
       <c r="D663">
-        <f>VLOOKUP(A649,[1]data!$A$35:$S$64,MATCH(C649,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.4911214995820507E-5</v>
       </c>
     </row>
@@ -13950,7 +9729,6 @@
         <v>5</v>
       </c>
       <c r="D664">
-        <f>VLOOKUP(A650,[1]data!$A$35:$S$64,MATCH(C650,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5981580789673595E-5</v>
       </c>
     </row>
@@ -13965,7 +9743,6 @@
         <v>6</v>
       </c>
       <c r="D665">
-        <f>VLOOKUP(A651,[1]data!$A$35:$S$64,MATCH(C651,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>3.1407883829739565E-5</v>
       </c>
     </row>
@@ -13980,7 +9757,6 @@
         <v>7</v>
       </c>
       <c r="D666">
-        <f>VLOOKUP(A652,[1]data!$A$35:$S$64,MATCH(C652,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7075845881332323E-5</v>
       </c>
     </row>
@@ -13995,7 +9771,6 @@
         <v>8</v>
       </c>
       <c r="D667">
-        <f>VLOOKUP(A653,[1]data!$A$35:$S$64,MATCH(C653,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.6739757667784114E-5</v>
       </c>
     </row>
@@ -14010,7 +9785,6 @@
         <v>10</v>
       </c>
       <c r="D668">
-        <f>VLOOKUP(A654,[1]data!$A$35:$S$64,MATCH(C654,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.6185871698473818E-5</v>
       </c>
     </row>
@@ -14025,7 +9799,6 @@
         <v>11</v>
       </c>
       <c r="D669">
-        <f>VLOOKUP(A655,[1]data!$A$35:$S$64,MATCH(C655,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.5753118041332852E-5</v>
       </c>
     </row>
@@ -14040,7 +9813,6 @@
         <v>12</v>
       </c>
       <c r="D670">
-        <f>VLOOKUP(A656,[1]data!$A$35:$S$64,MATCH(C656,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.6050108012220286E-5</v>
       </c>
     </row>
@@ -14055,7 +9827,6 @@
         <v>13</v>
       </c>
       <c r="D671">
-        <f>VLOOKUP(A657,[1]data!$A$35:$S$64,MATCH(C657,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.3992450147126547E-5</v>
       </c>
     </row>
@@ -14070,7 +9841,6 @@
         <v>15</v>
       </c>
       <c r="D672">
-        <f>VLOOKUP(A658,[1]data!$A$35:$S$64,MATCH(C658,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.6401245513010954E-5</v>
       </c>
     </row>
@@ -14085,7 +9855,6 @@
         <v>17</v>
       </c>
       <c r="D673">
-        <f>VLOOKUP(A659,[1]data!$A$35:$S$64,MATCH(C659,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>9.9470287115139045E-6</v>
       </c>
     </row>
@@ -14100,7 +9869,6 @@
         <v>1</v>
       </c>
       <c r="D674" s="1">
-        <f>VLOOKUP(A674,[1]data!$A$2:$S$31,MATCH(C674,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.74559562886045383</v>
       </c>
     </row>
@@ -14115,7 +9883,6 @@
         <v>2</v>
       </c>
       <c r="D675" s="1">
-        <f>VLOOKUP(A675,[1]data!$A$2:$S$31,MATCH(C675,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.57295570564200504</v>
       </c>
     </row>
@@ -14130,7 +9897,6 @@
         <v>3</v>
       </c>
       <c r="D676" s="1">
-        <f>VLOOKUP(A676,[1]data!$A$2:$S$31,MATCH(C676,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.58573814759876774</v>
       </c>
     </row>
@@ -14145,7 +9911,6 @@
         <v>4</v>
       </c>
       <c r="D677" s="1">
-        <f>VLOOKUP(A677,[1]data!$A$2:$S$31,MATCH(C677,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.48016664737698361</v>
       </c>
     </row>
@@ -14160,7 +9925,6 @@
         <v>5</v>
       </c>
       <c r="D678" s="1">
-        <f>VLOOKUP(A678,[1]data!$A$2:$S$31,MATCH(C678,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.58573814759876774</v>
       </c>
     </row>
@@ -14175,7 +9939,6 @@
         <v>6</v>
       </c>
       <c r="D679" s="1">
-        <f>VLOOKUP(A679,[1]data!$A$2:$S$31,MATCH(C679,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.86254660411089401</v>
       </c>
     </row>
@@ -14190,7 +9953,6 @@
         <v>7</v>
       </c>
       <c r="D680" s="1">
-        <f>VLOOKUP(A680,[1]data!$A$2:$S$31,MATCH(C680,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.62931985629005505</v>
       </c>
     </row>
@@ -14205,7 +9967,6 @@
         <v>8</v>
       </c>
       <c r="D681" s="1">
-        <f>VLOOKUP(A681,[1]data!$A$2:$S$31,MATCH(C681,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.64936240045249405</v>
       </c>
     </row>
@@ -14220,7 +9981,6 @@
         <v>10</v>
       </c>
       <c r="D682" s="1">
-        <f>VLOOKUP(A682,[1]data!$A$2:$S$31,MATCH(C682,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.59584310301943433</v>
       </c>
     </row>
@@ -14235,7 +9995,6 @@
         <v>11</v>
       </c>
       <c r="D683" s="1">
-        <f>VLOOKUP(A683,[1]data!$A$2:$S$31,MATCH(C683,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.56922206586993584</v>
       </c>
     </row>
@@ -14250,7 +10009,6 @@
         <v>12</v>
       </c>
       <c r="D684" s="1">
-        <f>VLOOKUP(A684,[1]data!$A$2:$S$31,MATCH(C684,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.56574742952007773</v>
       </c>
     </row>
@@ -14265,7 +10023,6 @@
         <v>13</v>
       </c>
       <c r="D685" s="1">
-        <f>VLOOKUP(A685,[1]data!$A$2:$S$31,MATCH(C685,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.52769657403780978</v>
       </c>
     </row>
@@ -14280,7 +10037,6 @@
         <v>15</v>
       </c>
       <c r="D686" s="1">
-        <f>VLOOKUP(A686,[1]data!$A$2:$S$31,MATCH(C686,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.71536733945009967</v>
       </c>
     </row>
@@ -14295,7 +10051,6 @@
         <v>17</v>
       </c>
       <c r="D687" s="1">
-        <f>VLOOKUP(A687,[1]data!$A$2:$S$31,MATCH(C687,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.41340943816550091</v>
       </c>
     </row>
@@ -14310,7 +10065,6 @@
         <v>1</v>
       </c>
       <c r="D688">
-        <f>VLOOKUP(A674,[1]data!$A$35:$S$64,MATCH(C674,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.4590189767978215E-5</v>
       </c>
     </row>
@@ -14325,7 +10079,6 @@
         <v>2</v>
       </c>
       <c r="D689">
-        <f>VLOOKUP(A675,[1]data!$A$35:$S$64,MATCH(C675,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.111342789430232E-5</v>
       </c>
     </row>
@@ -14340,7 +10093,6 @@
         <v>3</v>
       </c>
       <c r="D690">
-        <f>VLOOKUP(A676,[1]data!$A$35:$S$64,MATCH(C676,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1280834026898832E-5</v>
       </c>
     </row>
@@ -14355,7 +10107,6 @@
         <v>4</v>
       </c>
       <c r="D691">
-        <f>VLOOKUP(A677,[1]data!$A$35:$S$64,MATCH(C677,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>8.8927791975693642E-6</v>
       </c>
     </row>
@@ -14370,7 +10121,6 @@
         <v>5</v>
       </c>
       <c r="D692">
-        <f>VLOOKUP(A678,[1]data!$A$35:$S$64,MATCH(C678,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1280834026898832E-5</v>
       </c>
     </row>
@@ -14385,7 +10135,6 @@
         <v>6</v>
       </c>
       <c r="D693">
-        <f>VLOOKUP(A679,[1]data!$A$35:$S$64,MATCH(C679,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.7926423005837907E-5</v>
       </c>
     </row>
@@ -14400,7 +10149,6 @@
         <v>7</v>
       </c>
       <c r="D694">
-        <f>VLOOKUP(A680,[1]data!$A$35:$S$64,MATCH(C680,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.3546047673276206E-5</v>
       </c>
     </row>
@@ -14415,7 +10163,6 @@
         <v>8</v>
       </c>
       <c r="D695">
-        <f>VLOOKUP(A681,[1]data!$A$35:$S$64,MATCH(C681,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.159447422442733E-5</v>
       </c>
     </row>
@@ -14430,7 +10177,6 @@
         <v>10</v>
       </c>
       <c r="D696">
-        <f>VLOOKUP(A682,[1]data!$A$35:$S$64,MATCH(C682,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1545475808436964E-5</v>
       </c>
     </row>
@@ -14445,7 +10191,6 @@
         <v>11</v>
       </c>
       <c r="D697">
-        <f>VLOOKUP(A683,[1]data!$A$35:$S$64,MATCH(C683,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1138700967540361E-5</v>
       </c>
     </row>
@@ -14460,7 +10205,6 @@
         <v>12</v>
       </c>
       <c r="D698">
-        <f>VLOOKUP(A684,[1]data!$A$35:$S$64,MATCH(C684,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1087776387606981E-5</v>
       </c>
     </row>
@@ -14475,7 +10219,6 @@
         <v>13</v>
       </c>
       <c r="D699">
-        <f>VLOOKUP(A685,[1]data!$A$35:$S$64,MATCH(C685,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1731718031494531E-5</v>
       </c>
     </row>
@@ -14490,7 +10233,6 @@
         <v>15</v>
       </c>
       <c r="D700">
-        <f>VLOOKUP(A686,[1]data!$A$35:$S$64,MATCH(C686,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.264368741452928E-5</v>
       </c>
     </row>
@@ -14505,7 +10247,6 @@
         <v>17</v>
       </c>
       <c r="D701">
-        <f>VLOOKUP(A687,[1]data!$A$35:$S$64,MATCH(C687,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>9.4676781378516109E-6</v>
       </c>
     </row>
@@ -14520,7 +10261,6 @@
         <v>1</v>
       </c>
       <c r="D702" s="1">
-        <f>VLOOKUP(A702,[1]data!$A$2:$S$31,MATCH(C702,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.67264184480124023</v>
       </c>
     </row>
@@ -14535,7 +10275,6 @@
         <v>2</v>
       </c>
       <c r="D703" s="1">
-        <f>VLOOKUP(A703,[1]data!$A$2:$S$31,MATCH(C703,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.54581770526775919</v>
       </c>
     </row>
@@ -14550,7 +10289,6 @@
         <v>3</v>
       </c>
       <c r="D704" s="1">
-        <f>VLOOKUP(A704,[1]data!$A$2:$S$31,MATCH(C704,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.56307370061079964</v>
       </c>
     </row>
@@ -14565,7 +10303,6 @@
         <v>4</v>
       </c>
       <c r="D705" s="1">
-        <f>VLOOKUP(A705,[1]data!$A$2:$S$31,MATCH(C705,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.4027459619027553</v>
       </c>
     </row>
@@ -14580,7 +10317,6 @@
         <v>5</v>
       </c>
       <c r="D706" s="1">
-        <f>VLOOKUP(A706,[1]data!$A$2:$S$31,MATCH(C706,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.56307370061079964</v>
       </c>
     </row>
@@ -14595,7 +10331,6 @@
         <v>6</v>
       </c>
       <c r="D707" s="1">
-        <f>VLOOKUP(A707,[1]data!$A$2:$S$31,MATCH(C707,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.76289390035114812</v>
       </c>
     </row>
@@ -14610,7 +10345,6 @@
         <v>7</v>
       </c>
       <c r="D708" s="1">
-        <f>VLOOKUP(A708,[1]data!$A$2:$S$31,MATCH(C708,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.60658608054091201</v>
       </c>
     </row>
@@ -14625,7 +10359,6 @@
         <v>8</v>
       </c>
       <c r="D709" s="1">
-        <f>VLOOKUP(A709,[1]data!$A$2:$S$31,MATCH(C709,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.57157165937949128</v>
       </c>
     </row>
@@ -14640,7 +10373,6 @@
         <v>10</v>
       </c>
       <c r="D710" s="1">
-        <f>VLOOKUP(A710,[1]data!$A$2:$S$31,MATCH(C710,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.56850294219969078</v>
       </c>
     </row>
@@ -14655,7 +10387,6 @@
         <v>11</v>
       </c>
       <c r="D711" s="1">
-        <f>VLOOKUP(A711,[1]data!$A$2:$S$31,MATCH(C711,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.54230834514944759</v>
       </c>
     </row>
@@ -14670,7 +10401,6 @@
         <v>12</v>
       </c>
       <c r="D712" s="1">
-        <f>VLOOKUP(A712,[1]data!$A$2:$S$31,MATCH(C712,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.52892443770271413</v>
       </c>
     </row>
@@ -14685,7 +10415,6 @@
         <v>13</v>
       </c>
       <c r="D713" s="1">
-        <f>VLOOKUP(A713,[1]data!$A$2:$S$31,MATCH(C713,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.49546486663571787</v>
       </c>
     </row>
@@ -14700,7 +10429,6 @@
         <v>15</v>
       </c>
       <c r="D714" s="1">
-        <f>VLOOKUP(A714,[1]data!$A$2:$S$31,MATCH(C714,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.6135540408142558</v>
       </c>
     </row>
@@ -14715,7 +10443,6 @@
         <v>17</v>
       </c>
       <c r="D715" s="1">
-        <f>VLOOKUP(A715,[1]data!$A$2:$S$31,MATCH(C715,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.4304613414284178</v>
       </c>
     </row>
@@ -14730,7 +10457,6 @@
         <v>1</v>
       </c>
       <c r="D716">
-        <f>VLOOKUP(A702,[1]data!$A$35:$S$64,MATCH(C702,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.9635798108200089E-6</v>
       </c>
     </row>
@@ -14745,7 +10471,6 @@
         <v>2</v>
       </c>
       <c r="D717">
-        <f>VLOOKUP(A703,[1]data!$A$35:$S$64,MATCH(C703,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.3299933756521355E-6</v>
       </c>
     </row>
@@ -14760,7 +10485,6 @@
         <v>3</v>
       </c>
       <c r="D718">
-        <f>VLOOKUP(A704,[1]data!$A$35:$S$64,MATCH(C704,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.5754496246057584E-6</v>
       </c>
     </row>
@@ -14775,7 +10499,6 @@
         <v>4</v>
       </c>
       <c r="D719">
-        <f>VLOOKUP(A705,[1]data!$A$35:$S$64,MATCH(C705,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>4.685156388373031E-6</v>
       </c>
     </row>
@@ -14790,7 +10513,6 @@
         <v>5</v>
       </c>
       <c r="D720">
-        <f>VLOOKUP(A706,[1]data!$A$35:$S$64,MATCH(C706,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.5754496246057584E-6</v>
       </c>
     </row>
@@ -14805,7 +10527,6 @@
         <v>6</v>
       </c>
       <c r="D721">
-        <f>VLOOKUP(A707,[1]data!$A$35:$S$64,MATCH(C707,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.1963112174702775E-5</v>
       </c>
     </row>
@@ -14820,7 +10541,6 @@
         <v>7</v>
       </c>
       <c r="D722">
-        <f>VLOOKUP(A708,[1]data!$A$35:$S$64,MATCH(C708,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.3682389045744718E-6</v>
       </c>
     </row>
@@ -14835,7 +10555,6 @@
         <v>8</v>
       </c>
       <c r="D723">
-        <f>VLOOKUP(A709,[1]data!$A$35:$S$64,MATCH(C709,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.3789417514576514E-6</v>
       </c>
     </row>
@@ -14850,7 +10569,6 @@
         <v>10</v>
       </c>
       <c r="D724">
-        <f>VLOOKUP(A710,[1]data!$A$35:$S$64,MATCH(C710,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.5790888188991908E-6</v>
       </c>
     </row>
@@ -14865,7 +10583,6 @@
         <v>11</v>
       </c>
       <c r="D725">
-        <f>VLOOKUP(A711,[1]data!$A$35:$S$64,MATCH(C711,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.3020037568469064E-6</v>
       </c>
     </row>
@@ -14880,7 +10597,6 @@
         <v>12</v>
       </c>
       <c r="D726">
-        <f>VLOOKUP(A712,[1]data!$A$35:$S$64,MATCH(C712,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.1856421166952468E-6</v>
       </c>
     </row>
@@ -14895,7 +10611,6 @@
         <v>13</v>
       </c>
       <c r="D727">
-        <f>VLOOKUP(A713,[1]data!$A$35:$S$64,MATCH(C713,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>5.8623350015416606E-6</v>
       </c>
     </row>
@@ -14910,7 +10625,6 @@
         <v>15</v>
       </c>
       <c r="D728">
-        <f>VLOOKUP(A714,[1]data!$A$35:$S$64,MATCH(C714,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>6.966461840321658E-6</v>
       </c>
     </row>
@@ -14925,7 +10639,6 @@
         <v>17</v>
       </c>
       <c r="D729">
-        <f>VLOOKUP(A715,[1]data!$A$35:$S$64,MATCH(C715,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>4.4240670283293433E-6</v>
       </c>
     </row>
@@ -14940,7 +10653,6 @@
         <v>1</v>
       </c>
       <c r="D730" s="1">
-        <f>VLOOKUP(A730,[1]data!$A$2:$S$31,MATCH(C730,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.60869363884946259</v>
       </c>
     </row>
@@ -14955,7 +10667,6 @@
         <v>2</v>
       </c>
       <c r="D731" s="1">
-        <f>VLOOKUP(A731,[1]data!$A$2:$S$31,MATCH(C731,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.42174114048470113</v>
       </c>
     </row>
@@ -14970,7 +10681,6 @@
         <v>3</v>
       </c>
       <c r="D732" s="1">
-        <f>VLOOKUP(A732,[1]data!$A$2:$S$31,MATCH(C732,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.42993910318576561</v>
       </c>
     </row>
@@ -14985,7 +10695,6 @@
         <v>4</v>
       </c>
       <c r="D733" s="1">
-        <f>VLOOKUP(A733,[1]data!$A$2:$S$31,MATCH(C733,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44403768316493536</v>
       </c>
     </row>
@@ -15000,7 +10709,6 @@
         <v>5</v>
       </c>
       <c r="D734" s="1">
-        <f>VLOOKUP(A734,[1]data!$A$2:$S$31,MATCH(C734,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.42993910318576561</v>
       </c>
     </row>
@@ -15015,7 +10723,6 @@
         <v>6</v>
       </c>
       <c r="D735" s="1">
-        <f>VLOOKUP(A735,[1]data!$A$2:$S$31,MATCH(C735,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.58478337592381302</v>
       </c>
     </row>
@@ -15030,7 +10737,6 @@
         <v>7</v>
       </c>
       <c r="D736" s="1">
-        <f>VLOOKUP(A736,[1]data!$A$2:$S$31,MATCH(C736,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.47122958767524248</v>
       </c>
     </row>
@@ -15045,7 +10751,6 @@
         <v>8</v>
       </c>
       <c r="D737" s="1">
-        <f>VLOOKUP(A737,[1]data!$A$2:$S$31,MATCH(C737,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.5405884976141534</v>
       </c>
     </row>
@@ -15060,7 +10765,6 @@
         <v>10</v>
       </c>
       <c r="D738" s="1">
-        <f>VLOOKUP(A738,[1]data!$A$2:$S$31,MATCH(C738,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43075603368331816</v>
       </c>
     </row>
@@ -15075,7 +10779,6 @@
         <v>11</v>
       </c>
       <c r="D739" s="1">
-        <f>VLOOKUP(A739,[1]data!$A$2:$S$31,MATCH(C739,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.42742122054562515</v>
       </c>
     </row>
@@ -15090,7 +10793,6 @@
         <v>12</v>
       </c>
       <c r="D740" s="1">
-        <f>VLOOKUP(A740,[1]data!$A$2:$S$31,MATCH(C740,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44139851604793201</v>
       </c>
     </row>
@@ -15105,7 +10807,6 @@
         <v>13</v>
       </c>
       <c r="D741" s="1">
-        <f>VLOOKUP(A741,[1]data!$A$2:$S$31,MATCH(C741,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.39756821993422137</v>
       </c>
     </row>
@@ -15120,7 +10821,6 @@
         <v>15</v>
       </c>
       <c r="D742" s="1">
-        <f>VLOOKUP(A742,[1]data!$A$2:$S$31,MATCH(C742,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.63302818728724553</v>
       </c>
     </row>
@@ -15135,7 +10835,6 @@
         <v>17</v>
       </c>
       <c r="D743" s="1">
-        <f>VLOOKUP(A743,[1]data!$A$2:$S$31,MATCH(C743,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.46242457980659984</v>
       </c>
     </row>
@@ -15150,7 +10849,6 @@
         <v>1</v>
       </c>
       <c r="D744">
-        <f>VLOOKUP(A730,[1]data!$A$35:$S$64,MATCH(C730,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>3.2221372989303006E-5</v>
       </c>
     </row>
@@ -15165,7 +10863,6 @@
         <v>2</v>
       </c>
       <c r="D745">
-        <f>VLOOKUP(A731,[1]data!$A$35:$S$64,MATCH(C731,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.2959297855928474E-5</v>
       </c>
     </row>
@@ -15180,7 +10877,6 @@
         <v>3</v>
       </c>
       <c r="D746">
-        <f>VLOOKUP(A732,[1]data!$A$35:$S$64,MATCH(C732,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.3661273870797998E-5</v>
       </c>
     </row>
@@ -15195,7 +10891,6 @@
         <v>4</v>
       </c>
       <c r="D747">
-        <f>VLOOKUP(A733,[1]data!$A$35:$S$64,MATCH(C733,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.1411715519594047E-5</v>
       </c>
     </row>
@@ -15210,7 +10905,6 @@
         <v>5</v>
       </c>
       <c r="D748">
-        <f>VLOOKUP(A734,[1]data!$A$35:$S$64,MATCH(C734,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.3661273870797998E-5</v>
       </c>
     </row>
@@ -15225,7 +10919,6 @@
         <v>6</v>
       </c>
       <c r="D749">
-        <f>VLOOKUP(A735,[1]data!$A$35:$S$64,MATCH(C735,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>7.5583633782583663E-5</v>
       </c>
     </row>
@@ -15240,7 +10933,6 @@
         <v>7</v>
       </c>
       <c r="D750">
-        <f>VLOOKUP(A736,[1]data!$A$35:$S$64,MATCH(C736,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.8590184856009181E-5</v>
       </c>
     </row>
@@ -15255,7 +10947,6 @@
         <v>8</v>
       </c>
       <c r="D751">
-        <f>VLOOKUP(A737,[1]data!$A$35:$S$64,MATCH(C737,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.4283645462781769E-5</v>
       </c>
     </row>
@@ -15270,7 +10961,6 @@
         <v>10</v>
       </c>
       <c r="D752">
-        <f>VLOOKUP(A738,[1]data!$A$35:$S$64,MATCH(C738,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.3055836276579478E-5</v>
       </c>
     </row>
@@ -15285,7 +10975,6 @@
         <v>11</v>
       </c>
       <c r="D753">
-        <f>VLOOKUP(A739,[1]data!$A$35:$S$64,MATCH(C739,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.3007430621899591E-5</v>
       </c>
     </row>
@@ -15300,7 +10989,6 @@
         <v>12</v>
       </c>
       <c r="D754">
-        <f>VLOOKUP(A740,[1]data!$A$35:$S$64,MATCH(C740,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.3461353272051113E-5</v>
       </c>
     </row>
@@ -15315,7 +11003,6 @@
         <v>13</v>
       </c>
       <c r="D755">
-        <f>VLOOKUP(A741,[1]data!$A$35:$S$64,MATCH(C741,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.4134849397416087E-5</v>
       </c>
     </row>
@@ -15330,7 +11017,6 @@
         <v>15</v>
       </c>
       <c r="D756">
-        <f>VLOOKUP(A742,[1]data!$A$35:$S$64,MATCH(C742,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>3.1688930345264828E-5</v>
       </c>
     </row>
@@ -15345,7 +11031,6 @@
         <v>17</v>
       </c>
       <c r="D757">
-        <f>VLOOKUP(A743,[1]data!$A$35:$S$64,MATCH(C743,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.8014738227909029E-5</v>
       </c>
     </row>
@@ -15360,7 +11045,6 @@
         <v>1</v>
       </c>
       <c r="D758" s="1">
-        <f>VLOOKUP(A758,[1]data!$A$2:$S$31,MATCH(C758,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.58817510336741941</v>
       </c>
     </row>
@@ -15375,7 +11059,6 @@
         <v>2</v>
       </c>
       <c r="D759" s="1">
-        <f>VLOOKUP(A759,[1]data!$A$2:$S$31,MATCH(C759,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.42411306061975007</v>
       </c>
     </row>
@@ -15390,7 +11073,6 @@
         <v>3</v>
       </c>
       <c r="D760" s="1">
-        <f>VLOOKUP(A760,[1]data!$A$2:$S$31,MATCH(C760,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43083852679632129</v>
       </c>
     </row>
@@ -15405,7 +11087,6 @@
         <v>4</v>
       </c>
       <c r="D761" s="1">
-        <f>VLOOKUP(A761,[1]data!$A$2:$S$31,MATCH(C761,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.40510119664772548</v>
       </c>
     </row>
@@ -15420,7 +11101,6 @@
         <v>5</v>
       </c>
       <c r="D762" s="1">
-        <f>VLOOKUP(A762,[1]data!$A$2:$S$31,MATCH(C762,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43083852679632129</v>
       </c>
     </row>
@@ -15435,7 +11115,6 @@
         <v>6</v>
       </c>
       <c r="D763" s="1">
-        <f>VLOOKUP(A763,[1]data!$A$2:$S$31,MATCH(C763,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.75926195675947072</v>
       </c>
     </row>
@@ -15450,7 +11129,6 @@
         <v>7</v>
       </c>
       <c r="D764" s="1">
-        <f>VLOOKUP(A764,[1]data!$A$2:$S$31,MATCH(C764,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.4529382304496925</v>
       </c>
     </row>
@@ -15465,7 +11143,6 @@
         <v>8</v>
       </c>
       <c r="D765" s="1">
-        <f>VLOOKUP(A765,[1]data!$A$2:$S$31,MATCH(C765,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.50635208736185144</v>
       </c>
     </row>
@@ -15480,7 +11157,6 @@
         <v>10</v>
       </c>
       <c r="D766" s="1">
-        <f>VLOOKUP(A766,[1]data!$A$2:$S$31,MATCH(C766,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.44264125163372642</v>
       </c>
     </row>
@@ -15495,7 +11171,6 @@
         <v>11</v>
       </c>
       <c r="D767" s="1">
-        <f>VLOOKUP(A767,[1]data!$A$2:$S$31,MATCH(C767,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.42794786988116312</v>
       </c>
     </row>
@@ -15510,7 +11185,6 @@
         <v>12</v>
       </c>
       <c r="D768" s="1">
-        <f>VLOOKUP(A768,[1]data!$A$2:$S$31,MATCH(C768,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.43621522475977309</v>
       </c>
     </row>
@@ -15525,7 +11199,6 @@
         <v>13</v>
       </c>
       <c r="D769" s="1">
-        <f>VLOOKUP(A769,[1]data!$A$2:$S$31,MATCH(C769,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.35551713483447239</v>
       </c>
     </row>
@@ -15540,7 +11213,6 @@
         <v>15</v>
       </c>
       <c r="D770" s="1">
-        <f>VLOOKUP(A770,[1]data!$A$2:$S$31,MATCH(C770,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.57233209132985352</v>
       </c>
     </row>
@@ -15555,7 +11227,6 @@
         <v>17</v>
       </c>
       <c r="D771" s="1">
-        <f>VLOOKUP(A771,[1]data!$A$2:$S$31,MATCH(C771,[1]data!$A$2:$S$2,0),FALSE)</f>
         <v>0.17969675040849464</v>
       </c>
     </row>
@@ -15570,7 +11241,6 @@
         <v>1</v>
       </c>
       <c r="D772">
-        <f>VLOOKUP(A758,[1]data!$A$35:$S$64,MATCH(C758,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.2957640748134361E-5</v>
       </c>
     </row>
@@ -15585,7 +11255,6 @@
         <v>2</v>
       </c>
       <c r="D773">
-        <f>VLOOKUP(A759,[1]data!$A$35:$S$64,MATCH(C759,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7658493513691467E-5</v>
       </c>
     </row>
@@ -15600,7 +11269,6 @@
         <v>3</v>
       </c>
       <c r="D774">
-        <f>VLOOKUP(A760,[1]data!$A$35:$S$64,MATCH(C760,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7946445626444773E-5</v>
       </c>
     </row>
@@ -15615,7 +11283,6 @@
         <v>4</v>
       </c>
       <c r="D775">
-        <f>VLOOKUP(A761,[1]data!$A$35:$S$64,MATCH(C761,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.4816035366936647E-5</v>
       </c>
     </row>
@@ -15630,7 +11297,6 @@
         <v>5</v>
       </c>
       <c r="D776">
-        <f>VLOOKUP(A762,[1]data!$A$35:$S$64,MATCH(C762,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7946445626444773E-5</v>
       </c>
     </row>
@@ -15645,7 +11311,6 @@
         <v>6</v>
       </c>
       <c r="D777">
-        <f>VLOOKUP(A763,[1]data!$A$35:$S$64,MATCH(C763,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>4.7002755372706667E-5</v>
       </c>
     </row>
@@ -15660,7 +11325,6 @@
         <v>7</v>
       </c>
       <c r="D778">
-        <f>VLOOKUP(A764,[1]data!$A$35:$S$64,MATCH(C764,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.0582186229527009E-5</v>
       </c>
     </row>
@@ -15675,7 +11339,6 @@
         <v>8</v>
       </c>
       <c r="D779">
-        <f>VLOOKUP(A765,[1]data!$A$35:$S$64,MATCH(C765,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.8071820439758649E-5</v>
       </c>
     </row>
@@ -15690,7 +11353,6 @@
         <v>10</v>
       </c>
       <c r="D780">
-        <f>VLOOKUP(A766,[1]data!$A$35:$S$64,MATCH(C766,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.818719082869775E-5</v>
       </c>
     </row>
@@ -15705,7 +11367,6 @@
         <v>11</v>
       </c>
       <c r="D781">
-        <f>VLOOKUP(A767,[1]data!$A$35:$S$64,MATCH(C767,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.738648209440905E-5</v>
       </c>
     </row>
@@ -15720,7 +11381,6 @@
         <v>12</v>
       </c>
       <c r="D782">
-        <f>VLOOKUP(A768,[1]data!$A$35:$S$64,MATCH(C768,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.7410386592611846E-5</v>
       </c>
     </row>
@@ -15735,7 +11395,6 @@
         <v>13</v>
       </c>
       <c r="D783">
-        <f>VLOOKUP(A769,[1]data!$A$35:$S$64,MATCH(C769,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.6261406178564055E-5</v>
       </c>
     </row>
@@ -15750,7 +11409,6 @@
         <v>15</v>
       </c>
       <c r="D784">
-        <f>VLOOKUP(A770,[1]data!$A$35:$S$64,MATCH(C770,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>2.4972176092734579E-5</v>
       </c>
     </row>
@@ -15765,7 +11423,6 @@
         <v>17</v>
       </c>
       <c r="D785">
-        <f>VLOOKUP(A771,[1]data!$A$35:$S$64,MATCH(C771,[1]data!$A$2:$S$2,0),FALSE)/1000000</f>
         <v>1.040682689990894E-5</v>
       </c>
     </row>
